--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1057.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1057.xlsx
@@ -914,24 +914,24 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2738,19 +2738,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$K$65:$K$2000</f>
+              <f>'1'!$K$65:$K$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$J$65:$J$2000</f>
+              <f>'1'!$J$65:$J$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2781,19 +2781,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$M$65:$M$2000</f>
+              <f>'1'!$M$65:$M$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$L$65:$L$2000</f>
+              <f>'1'!$L$65:$L$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2824,19 +2824,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$O$65:$O$2000</f>
+              <f>'1'!$O$65:$O$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$N$65:$N$2000</f>
+              <f>'1'!$N$65:$N$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3181,19 +3181,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3399,7 +3399,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3508,7 +3508,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3657,19 +3657,19 @@
           </trendline>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3749,10 +3749,9 @@
             <numRef>
               <f>'1'!$A$81:$A$82</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3814,10 +3813,9 @@
             <numRef>
               <f>'1'!$A$75:$A$76</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3869,7 +3867,7 @@
             <numRef>
               <f>'1'!$A$85:$A$86</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -3923,7 +3921,7 @@
             <numRef>
               <f>'1'!$A$88:$A$89</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>#N/A</v>
@@ -3978,7 +3976,7 @@
             <numRef>
               <f>'1'!$A$78:$A$79</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -4088,7 +4086,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4198,7 +4196,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4886,8 +4884,8 @@
   </sheetPr>
   <dimension ref="A1:BF264"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="S81" sqref="S81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -4917,13 +4915,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="150" t="inlineStr">
+      <c r="A1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
       </c>
-      <c r="L1" s="150" t="n"/>
-      <c r="M1" s="150" t="inlineStr">
+      <c r="L1" s="153" t="n"/>
+      <c r="M1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
@@ -4974,13 +4972,13 @@
       <c r="BC1" s="40" t="n"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="150" t="inlineStr">
+      <c r="A2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
       </c>
-      <c r="L2" s="150" t="n"/>
-      <c r="M2" s="150" t="inlineStr">
+      <c r="L2" s="153" t="n"/>
+      <c r="M2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
@@ -5096,13 +5094,13 @@
       <c r="BD2" s="50" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="150" t="inlineStr">
+      <c r="A3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
       </c>
-      <c r="L3" s="150" t="n"/>
-      <c r="M3" s="150" t="inlineStr">
+      <c r="L3" s="153" t="n"/>
+      <c r="M3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
@@ -5173,27 +5171,27 @@
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="150" t="n"/>
-      <c r="B4" s="150" t="n"/>
-      <c r="C4" s="150" t="n"/>
-      <c r="D4" s="150" t="n"/>
-      <c r="E4" s="150" t="n"/>
-      <c r="F4" s="150" t="n"/>
-      <c r="G4" s="150" t="n"/>
-      <c r="H4" s="150" t="n"/>
-      <c r="I4" s="150" t="n"/>
-      <c r="J4" s="150" t="n"/>
-      <c r="K4" s="150" t="n"/>
-      <c r="L4" s="150" t="n"/>
-      <c r="M4" s="150" t="n"/>
-      <c r="N4" s="150" t="n"/>
-      <c r="O4" s="150" t="n"/>
-      <c r="P4" s="150" t="n"/>
-      <c r="Q4" s="150" t="n"/>
-      <c r="R4" s="150" t="n"/>
-      <c r="S4" s="150" t="n"/>
-      <c r="T4" s="150" t="n"/>
-      <c r="U4" s="150" t="n"/>
+      <c r="A4" s="153" t="n"/>
+      <c r="B4" s="153" t="n"/>
+      <c r="C4" s="153" t="n"/>
+      <c r="D4" s="153" t="n"/>
+      <c r="E4" s="153" t="n"/>
+      <c r="F4" s="153" t="n"/>
+      <c r="G4" s="153" t="n"/>
+      <c r="H4" s="153" t="n"/>
+      <c r="I4" s="153" t="n"/>
+      <c r="J4" s="153" t="n"/>
+      <c r="K4" s="153" t="n"/>
+      <c r="L4" s="153" t="n"/>
+      <c r="M4" s="153" t="n"/>
+      <c r="N4" s="153" t="n"/>
+      <c r="O4" s="153" t="n"/>
+      <c r="P4" s="153" t="n"/>
+      <c r="Q4" s="153" t="n"/>
+      <c r="R4" s="153" t="n"/>
+      <c r="S4" s="153" t="n"/>
+      <c r="T4" s="153" t="n"/>
+      <c r="U4" s="153" t="n"/>
       <c r="X4" s="66">
         <f>X2-X1</f>
         <v/>
@@ -5256,13 +5254,13 @@
       <c r="BC4" s="58" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="150" t="inlineStr">
+      <c r="A5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
       </c>
-      <c r="L5" s="150" t="n"/>
-      <c r="M5" s="150" t="inlineStr">
+      <c r="L5" s="153" t="n"/>
+      <c r="M5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
@@ -5377,13 +5375,13 @@
       <c r="BC5" s="58" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="154" t="inlineStr">
+      <c r="A6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
       </c>
-      <c r="L6" s="154" t="n"/>
-      <c r="M6" s="154" t="inlineStr">
+      <c r="L6" s="152" t="n"/>
+      <c r="M6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
@@ -5456,13 +5454,13 @@
       <c r="BF6" s="67" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="150" t="inlineStr">
+      <c r="A7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
       </c>
-      <c r="L7" s="150" t="n"/>
-      <c r="M7" s="150" t="inlineStr">
+      <c r="L7" s="153" t="n"/>
+      <c r="M7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
@@ -5624,8 +5622,8 @@
       <c r="BF8" s="67" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="156" t="n"/>
-      <c r="M9" s="156" t="inlineStr">
+      <c r="A9" s="155" t="n"/>
+      <c r="M9" s="155" t="inlineStr">
         <is>
           <t>Протокол испытаний № 13-63/22 от 20-11-2022</t>
         </is>
@@ -6442,13 +6440,13 @@
       <c r="BC17" s="58" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="155" t="inlineStr">
+      <c r="A18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
       </c>
-      <c r="L18" s="155" t="n"/>
-      <c r="M18" s="155" t="inlineStr">
+      <c r="L18" s="154" t="n"/>
+      <c r="M18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
@@ -7332,13 +7330,13 @@
       <c r="BC26" s="58" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="155" t="inlineStr">
+      <c r="A27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
       </c>
-      <c r="L27" s="155" t="n"/>
-      <c r="M27" s="155" t="inlineStr">
+      <c r="L27" s="154" t="n"/>
+      <c r="M27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
@@ -9137,26 +9135,26 @@
       <c r="U59" s="10" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="152" t="inlineStr">
+      <c r="A60" s="156" t="inlineStr">
         <is>
           <t>Лист 1 , всего листов 2</t>
         </is>
       </c>
-      <c r="L60" s="152" t="n"/>
-      <c r="M60" s="152" t="inlineStr">
+      <c r="L60" s="156" t="n"/>
+      <c r="M60" s="156" t="inlineStr">
         <is>
           <t>Лист 2 , всего листов 2</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="153" t="inlineStr">
+      <c r="A61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
       </c>
-      <c r="L61" s="153" t="n"/>
-      <c r="M61" s="153" t="inlineStr">
+      <c r="L61" s="150" t="n"/>
+      <c r="M61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
@@ -9261,7 +9259,7 @@
         <v>0.0174681646244358</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9276,29 +9274,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.001065000000000003</v>
+        <v>-3.000000000000225e-05</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.001065000000000003</v>
+        <v>-3.000000000000225e-05</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>-0.0006150000000000044</v>
+        <v>0.01764617397438861</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0</v>
+        <v>0.0003882517409919428</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.02345952516654204</v>
+        <v>0.02182281410841119</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0003290095511953282</v>
+        <v>0.0002669437362361514</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9316,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.009258127250950973</v>
+        <v>0.007860674080996111</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.000616745577034184</v>
+        <v>0.0005240410083960336</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.009258127250950973</v>
+        <v>0.007860674080996111</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.000616745577034184</v>
+        <v>0.0005240410083960336</v>
       </c>
       <c r="L66" s="172" t="n">
         <v>0.03601259994773187</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001142399698341939</v>
+        <v>0.001188525737730437</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001147707736727888</v>
+        <v>0.001001039010885567</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9361,26 +9359,26 @@
         <v>0.0174681646244358</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
         <v>0.0174681646244358</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.04157215236819628</v>
+        <v>0.03718920221593472</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001665261257848752</v>
+        <v>0.001591593445835239</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.05457368379692878</v>
+        <v>0.05933327586371068</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001665314604968209</v>
+        <v>0.00158970915712323</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9398,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01791202099239773</v>
+        <v>0.01880639596677346</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002506983946849833</v>
+        <v>0.002395806414334612</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01791202099239773</v>
+        <v>0.01880639596677346</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002506983946849833</v>
+        <v>0.002395806414334612</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.04015372058884431</v>
+        <v>0.04081255751544219</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002497891886773128</v>
+        <v>0.002387390168752858</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.05823438660255659</v>
+        <v>0.06317026802799619</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002497971907452313</v>
+        <v>0.002384563735684844</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9445,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01873964712480769</v>
+        <v>0.02021630288452402</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003342645262466444</v>
+        <v>0.003194408552446149</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01873964712480769</v>
+        <v>0.02021630288452402</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003342645262466444</v>
+        <v>0.003194408552446149</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04466860734075123</v>
+        <v>0.04090256775616577</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003330522515697504</v>
+        <v>0.003183186891670477</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.06683600628825026</v>
+        <v>0.06436841879365524</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003330629209936417</v>
+        <v>0.00317941831424646</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9482,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.000616745577034184</v>
+        <v>0.0005240410083960336</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009258127250950973</v>
+        <v>0.007860674080996111</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.02159428014138984</v>
+        <v>0.02065896559704224</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004178306578083055</v>
+        <v>0.003993010690557687</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02159428014138984</v>
+        <v>0.02065896559704224</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.004178306578083055</v>
+        <v>0.003993010690557687</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04735418483226003</v>
+        <v>0.04251733536294403</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00416315314462188</v>
+        <v>0.003978983614588097</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.06770679129956192</v>
+        <v>0.06452963567930187</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004163286512420521</v>
+        <v>0.003974272892808075</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.0209428303815269</v>
+        <v>0.02092463097767955</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.005013967893699667</v>
+        <v>0.004791612828669223</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.0209428303815269</v>
+        <v>0.02092463097767955</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.005013967893699667</v>
+        <v>0.004791612828669223</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04729284113385115</v>
+        <v>0.04731057957309123</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004995783773546256</v>
+        <v>0.004774780337505716</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.07723284907867889</v>
+        <v>0.07316245052622156</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004995943814904626</v>
+        <v>0.004769127471369689</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9552,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02227835175045829</v>
+        <v>0.0218899311651622</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005849629209316277</v>
+        <v>0.00559021496678076</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02227835175045829</v>
+        <v>0.0218899311651622</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005849629209316277</v>
+        <v>0.00559021496678076</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04763852147537873</v>
+        <v>0.04878302273201623</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005828414402470632</v>
+        <v>0.005570577060423335</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.08048636391084968</v>
+        <v>0.07183041647101002</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.00582860111738873</v>
+        <v>0.005563982049931304</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9598,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02270701333708948</v>
+        <v>0.02369405090783658</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006685290524932888</v>
+        <v>0.006388817104892298</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02270701333708948</v>
+        <v>0.02369405090783658</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006685290524932888</v>
+        <v>0.006388817104892298</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04903441285877136</v>
+        <v>0.05116235105670108</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006661045031395008</v>
+        <v>0.006366373783340954</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.07115343626399218</v>
+        <v>0.07654933029058458</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006661258419872834</v>
+        <v>0.00635883662849292</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9635,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02576292230081687</v>
+        <v>0.02374023391490913</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007520951840549499</v>
+        <v>0.007187419243003835</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02576292230081687</v>
+        <v>0.02374023391490913</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007520951840549499</v>
+        <v>0.007187419243003835</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05547454510698843</v>
+        <v>0.04880272182242276</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007493675660319383</v>
+        <v>0.007162170506258575</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07766883440091599</v>
+        <v>0.07513902631115565</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007493915722356939</v>
+        <v>0.007153691207054534</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9679,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02452085937111544</v>
+        <v>0.02467685480297484</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00835661315616611</v>
+        <v>0.007986021381115373</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02452085937111544</v>
+        <v>0.02467685480297484</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.00835661315616611</v>
+        <v>0.007986021381115373</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05279532494337871</v>
+        <v>0.05414318896792039</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.008326306289243759</v>
+        <v>0.007957967229176193</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.08585852005613004</v>
+        <v>0.07745738833118521</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.008326573024841043</v>
+        <v>0.00794854578561615</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9721,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02689703581048812</v>
+        <v>0.02490089101193178</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.009192274471782721</v>
+        <v>0.00878462351922691</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02689703581048812</v>
+        <v>0.02490089101193178</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.009192274471782721</v>
+        <v>0.00878462351922691</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.0572256832975136</v>
+        <v>0.05303667048314803</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.009158936918168136</v>
+        <v>0.008753763952093813</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.08443586245663448</v>
+        <v>0.08040950571750749</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.009159230327325147</v>
+        <v>0.008743400364177764</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9758,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02509019114044209</v>
+        <v>0.02548090250923141</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01002793578739933</v>
+        <v>0.009583225657338447</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02509019114044209</v>
+        <v>0.02548090250923141</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01002793578739933</v>
+        <v>0.009583225657338447</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05853607888727022</v>
+        <v>0.05329222832251371</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009991567547092512</v>
+        <v>0.009549560675011433</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08479795470387436</v>
+        <v>0.08502909943204262</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009991887629809251</v>
+        <v>0.009538254942739377</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9798,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02665555197631254</v>
+        <v>0.0257759227929118</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01086359710301594</v>
+        <v>0.01038182779544998</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02665555197631254</v>
+        <v>0.0257759227929118</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01086359710301594</v>
+        <v>0.01038182779544998</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05940846580377071</v>
+        <v>0.05634538125707875</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01082419817601689</v>
+        <v>0.01034535739792905</v>
       </c>
       <c r="N78" t="n">
-        <v>0.09231127450495369</v>
+        <v>0.08592142774466144</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01082454493229336</v>
+        <v>0.01033310952130099</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9840,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02572921443402866</v>
+        <v>0.02751976325393436</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01169925841863255</v>
+        <v>0.01118042993356152</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02572921443402866</v>
+        <v>0.02751976325393436</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01169925841863255</v>
+        <v>0.01118042993356152</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05426598016299641</v>
+        <v>0.05485967326985688</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01165682880494126</v>
+        <v>0.01114115412084667</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08490098650724143</v>
+        <v>0.08341552344542641</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01165720223477746</v>
+        <v>0.01112796409986261</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9871,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02767900223306977</v>
+        <v>0.02779325057556806</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01253491973424917</v>
+        <v>0.01197903207167306</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02767900223306977</v>
+        <v>0.02779325057556806</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01253491973424917</v>
+        <v>0.01197903207167306</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05711164451761319</v>
+        <v>0.05659548128515335</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01248945943386564</v>
+        <v>0.01193695084376429</v>
       </c>
       <c r="N80" t="n">
-        <v>0.09108781573487884</v>
+        <v>0.09053555488943049</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01248985953726156</v>
+        <v>0.01192281867842422</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9908,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.029147959737577</v>
+        <v>0.0272897250402315</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01337058104986578</v>
+        <v>0.0127776342097846</v>
       </c>
       <c r="J81" t="n">
-        <v>0.029147959737577</v>
+        <v>0.0272897250402315</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01337058104986578</v>
+        <v>0.0127776342097846</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05813134410352286</v>
+        <v>0.05727176356785715</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01332209006279002</v>
+        <v>0.01273274756668191</v>
       </c>
       <c r="N81" t="n">
-        <v>0.09483317809367753</v>
+        <v>0.08618788345032041</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01332251683974567</v>
+        <v>0.01271767325698584</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9942,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02703915530557473</v>
+        <v>0.02851406802317977</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01420624236548239</v>
+        <v>0.01357623634789613</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02703915530557473</v>
+        <v>0.02851406802317977</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01420624236548239</v>
+        <v>0.01357623634789613</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05994025579231904</v>
+        <v>0.05703244019070605</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01415472069171439</v>
+        <v>0.01352854428959953</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08832398225700211</v>
+        <v>0.08623607613266049</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01415517414222977</v>
+        <v>0.01351252783554745</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9973,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02982008959397374</v>
+        <v>0.02775997204458497</v>
       </c>
       <c r="G83" t="n">
-        <v>0.015041903681099</v>
+        <v>0.01437483848600767</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02982008959397374</v>
+        <v>0.02775997204458497</v>
       </c>
       <c r="K83" t="n">
-        <v>0.015041903681099</v>
+        <v>0.01437483848600767</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05799212920692448</v>
+        <v>0.05786419442579091</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01498735132063877</v>
+        <v>0.01432434101251715</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08978275473014286</v>
+        <v>0.09111865436289379</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01498783144471388</v>
+        <v>0.01430738241410907</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10009,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02775327873413393</v>
+        <v>0.02833708526976043</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01587756499671561</v>
+        <v>0.01517344062411921</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02775327873413393</v>
+        <v>0.02833708526976043</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01587756499671561</v>
+        <v>0.01517344062411921</v>
       </c>
       <c r="L84" t="n">
-        <v>0.06231598617181974</v>
+        <v>0.0610089872893835</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01581998194956314</v>
+        <v>0.01512013773543477</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09235157376987618</v>
+        <v>0.09214303352239944</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01582048874719798</v>
+        <v>0.01510223699267068</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10049,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02968784938233468</v>
+        <v>0.02873384037991578</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01671322631233222</v>
+        <v>0.01597204276223075</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02968784938233468</v>
+        <v>0.02873384037991578</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01671322631233222</v>
+        <v>0.01597204276223075</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0586644198521673</v>
+        <v>0.05909773672711802</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01665261257848752</v>
+        <v>0.01591593445835239</v>
       </c>
       <c r="N85" t="n">
-        <v>0.09678504545089417</v>
+        <v>0.0917499648311208</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01665314604968209</v>
+        <v>0.0158970915712323</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10091,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02919445814320587</v>
+        <v>0.02893831811926388</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01754888762794883</v>
+        <v>0.01677064490034228</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02919445814320587</v>
+        <v>0.02893831811926388</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01754888762794883</v>
+        <v>0.01677064490034228</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06170739320420243</v>
+        <v>0.05980402986859598</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01748524320741189</v>
+        <v>0.01671173118127001</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09515692374507873</v>
+        <v>0.09299990308318551</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01748580335216619</v>
+        <v>0.01669194614979391</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10122,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03013054966664075</v>
+        <v>0.02990693946261666</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01838454894356544</v>
+        <v>0.01756924703845382</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03013054966664075</v>
+        <v>0.02990693946261666</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01838454894356544</v>
+        <v>0.01756924703845382</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05800182348658212</v>
+        <v>0.05942985001738676</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01831787383633627</v>
+        <v>0.01750752790418763</v>
       </c>
       <c r="N87" t="n">
-        <v>0.09298789396474683</v>
+        <v>0.0904770173903463</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01831846065465029</v>
+        <v>0.01748680072835553</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10157,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.0284404727073863</v>
+        <v>0.02906423794219984</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01922021025918205</v>
+        <v>0.01836784917656535</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0284404727073863</v>
+        <v>0.02906423794219984</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01922021025918205</v>
+        <v>0.01836784917656535</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06252556763834777</v>
+        <v>0.0620505114977947</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01915050446526065</v>
+        <v>0.01830332462710525</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0889014255158167</v>
+        <v>0.092660141286867</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0191511179571344</v>
+        <v>0.01828165530691714</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,1276 +10191,1276 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02944585990139142</v>
+        <v>0.03012233800391009</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02005587157479867</v>
+        <v>0.01916645131467689</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02944585990139142</v>
+        <v>0.03012233800391009</v>
       </c>
       <c r="K89" t="n">
-        <v>0.02005587157479867</v>
+        <v>0.01916645131467689</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05842381629146928</v>
+        <v>0.06014450822462308</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01998313509418502</v>
+        <v>0.01909912135002287</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08984282610781358</v>
+        <v>0.08995952621743664</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0199837752596185</v>
+        <v>0.01907650988547875</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02917499285119683</v>
+        <v>0.03058321894748152</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02089153289041528</v>
+        <v>0.01996505345278843</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02917499285119683</v>
+        <v>0.03058321894748152</v>
       </c>
       <c r="K90" t="n">
-        <v>0.02089153289041528</v>
+        <v>0.01996505345278843</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05857564640239746</v>
+        <v>0.06300476402911259</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0208157657231094</v>
+        <v>0.01989491807294048</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09384827510264593</v>
+        <v>0.09092267593747377</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02081643256210261</v>
+        <v>0.01987136446404037</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02987422022167621</v>
+        <v>0.03058120641431307</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02172719420603189</v>
+        <v>0.02076365559089997</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02987422022167621</v>
+        <v>0.03058120641431307</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02172719420603189</v>
+        <v>0.02076365559089997</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05979547510856756</v>
+        <v>0.06123446597015736</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02164839635203378</v>
+        <v>0.0206907147958581</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09834789792207377</v>
+        <v>0.09694236353640834</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02164908986458671</v>
+        <v>0.02066621904260199</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03054936911685027</v>
+        <v>0.03007811391392126</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0225628555216485</v>
+        <v>0.02156225772901151</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03054936911685027</v>
+        <v>0.03007811391392126</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0225628555216485</v>
+        <v>0.02156225772901151</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05970399050026809</v>
+        <v>0.06350354718179529</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02248102698095815</v>
+        <v>0.02148651151877572</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1030034723290232</v>
+        <v>0.09488178663161762</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02248174716707082</v>
+        <v>0.0214610736211636</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03063123538684809</v>
+        <v>0.03002624590302824</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02339851683726511</v>
+        <v>0.02236085986712304</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03063123538684809</v>
+        <v>0.03002624590302824</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02339851683726511</v>
+        <v>0.02236085986712304</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06359874566920301</v>
+        <v>0.06317267971675761</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02331365760988253</v>
+        <v>0.02228230824169334</v>
       </c>
       <c r="N93" t="n">
-        <v>0.0941613464917459</v>
+        <v>0.09247236023833189</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02331440446955492</v>
+        <v>0.02225592819972522</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0296703360479435</v>
+        <v>0.02988345949536067</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02423417815288172</v>
+        <v>0.02315946200523458</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0296703360479435</v>
+        <v>0.02988345949536067</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02423417815288172</v>
+        <v>0.02315946200523458</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06329182472656061</v>
+        <v>0.06244180762858395</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0241462882388069</v>
+        <v>0.02307810496461096</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09495577251872256</v>
+        <v>0.09373828550785229</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02414706177203902</v>
+        <v>0.02305078277828683</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02964757228211039</v>
+        <v>0.03000672997864517</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02506983946849833</v>
+        <v>0.02395806414334612</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02964757228211039</v>
+        <v>0.03000672997864517</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02506983946849833</v>
+        <v>0.02395806414334612</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06704042094609222</v>
+        <v>0.06215100891697428</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02497891886773128</v>
+        <v>0.02387390168752858</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09620258688991495</v>
+        <v>0.09836952918972375</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02497971907452313</v>
+        <v>0.02384563735684845</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03188038708735418</v>
+        <v>0.03021353298680687</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02590550078411494</v>
+        <v>0.02475666628145766</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03188038708735418</v>
+        <v>0.03021353298680687</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02590550078411494</v>
+        <v>0.02475666628145766</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06623045798747695</v>
+        <v>0.06393712362423676</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02581154949665566</v>
+        <v>0.0246696984104462</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09621909855015831</v>
+        <v>0.0939531957885491</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02581237637700723</v>
+        <v>0.02464049193541006</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03143617771093245</v>
+        <v>0.03093548336950334</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02674116209973155</v>
+        <v>0.02555526841956919</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03143617771093245</v>
+        <v>0.03093548336950334</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02674116209973155</v>
+        <v>0.02555526841956919</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06132263695083401</v>
+        <v>0.06475550878369296</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02664418012558003</v>
+        <v>0.02546549513336382</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09806360145677095</v>
+        <v>0.09337553467230819</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02664503367949134</v>
+        <v>0.02543534651397168</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03301322560034498</v>
+        <v>0.03068113457119034</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02757682341534816</v>
+        <v>0.02635387055768073</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03301322560034498</v>
+        <v>0.03068113457119034</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02757682341534816</v>
+        <v>0.02635387055768073</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06763167707127893</v>
+        <v>0.06428986975658424</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02747681075450441</v>
+        <v>0.02626129185628144</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09638708877613811</v>
+        <v>0.09847386667234764</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02747769098197544</v>
+        <v>0.02623020109253329</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03087183540416162</v>
+        <v>0.03161888535653759</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02841248473096478</v>
+        <v>0.02715247269579226</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03087183540416162</v>
+        <v>0.03161888535653759</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02841248473096478</v>
+        <v>0.02715247269579226</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06683084858640234</v>
+        <v>0.06305792470044733</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02830944138342878</v>
+        <v>0.02705708857919906</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09500845767787419</v>
+        <v>0.1000516486118154</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02831034828445955</v>
+        <v>0.0270250556710949</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0333643893996205</v>
+        <v>0.03065068390346666</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02924814604658139</v>
+        <v>0.02795107483390381</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0333643893996205</v>
+        <v>0.03065068390346666</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02924814604658139</v>
+        <v>0.02795107483390381</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06509182157443635</v>
+        <v>0.06439818768988748</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02914207201235316</v>
+        <v>0.02785288530211668</v>
       </c>
       <c r="N100" t="n">
-        <v>0.103214932786153</v>
+        <v>0.09572284664336056</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02914300558694365</v>
+        <v>0.02781991024965652</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03293478334993723</v>
+        <v>0.03196567430195495</v>
       </c>
       <c r="G101" t="n">
-        <v>0.030083807362198</v>
+        <v>0.02874967697201534</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03293478334993723</v>
+        <v>0.03196567430195495</v>
       </c>
       <c r="K101" t="n">
-        <v>0.030083807362198</v>
+        <v>0.02874967697201534</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06957674865651203</v>
+        <v>0.06504069527171408</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02997470264127753</v>
+        <v>0.0286486820250343</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1011343057771878</v>
+        <v>0.1017521657229384</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02997566288942776</v>
+        <v>0.02861476482821814</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0329173248093152</v>
+        <v>0.03135675360354624</v>
       </c>
       <c r="G102" t="n">
-        <v>0.03091946867781461</v>
+        <v>0.02954827911012688</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0329173248093152</v>
+        <v>0.03135675360354624</v>
       </c>
       <c r="K102" t="n">
-        <v>0.03091946867781461</v>
+        <v>0.02954827911012688</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06726973894864069</v>
+        <v>0.06401556512327589</v>
       </c>
       <c r="M102" t="n">
-        <v>0.03080733327020191</v>
+        <v>0.02944447874795192</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1077433520881153</v>
+        <v>0.100758533486329</v>
       </c>
       <c r="O102" t="n">
-        <v>0.03080832019191186</v>
+        <v>0.02940961940677975</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03252999050527618</v>
+        <v>0.03251604414099402</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03175512999343122</v>
+        <v>0.03034688124823841</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03252999050527618</v>
+        <v>0.03251604414099402</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03175512999343122</v>
+        <v>0.03034688124823841</v>
       </c>
       <c r="L103" t="n">
-        <v>0.07009302602165118</v>
+        <v>0.0667162028154461</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03163996389912629</v>
+        <v>0.03024027547086953</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1049869162388483</v>
+        <v>0.1030003378182384</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03164097749439596</v>
+        <v>0.03020447398534136</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03271153410002016</v>
+        <v>0.03194263995786957</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03259079130904783</v>
+        <v>0.03114548338634995</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03271153410002016</v>
+        <v>0.03194263995786957</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03259079130904783</v>
+        <v>0.03114548338634995</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06811347294957582</v>
+        <v>0.06536621128275716</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03247259452805067</v>
+        <v>0.03103607219378715</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09817061946496064</v>
+        <v>0.09845155449789295</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03247363479688006</v>
+        <v>0.03099932856390298</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03332137264484965</v>
+        <v>0.03172549630931064</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03342645262466444</v>
+        <v>0.03194408552446149</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03332137264484965</v>
+        <v>0.03172549630931064</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03342645262466444</v>
+        <v>0.03194408552446149</v>
       </c>
       <c r="L105" t="n">
-        <v>0.07027948256494956</v>
+        <v>0.06518198375879011</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03330522515697504</v>
+        <v>0.03183186891670477</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1006071541016676</v>
+        <v>0.09979062905832475</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03330629209936417</v>
+        <v>0.0317941831424646</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03384047681550652</v>
+        <v>0.03192583174838419</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03426211394028105</v>
+        <v>0.03274268766257302</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03384047681550652</v>
+        <v>0.03192583174838419</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03426211394028105</v>
+        <v>0.03274268766257302</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0659042098215657</v>
+        <v>0.06585991467471031</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03413785578589942</v>
+        <v>0.0326276656396224</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1084399816289824</v>
+        <v>0.1026465318411625</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03413894940184827</v>
+        <v>0.03258903772102621</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03142282860931207</v>
+        <v>0.0325873480388765</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03509777525589766</v>
+        <v>0.03354128980068456</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03142282860931207</v>
+        <v>0.0325873480388765</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03509777525589766</v>
+        <v>0.03354128980068456</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06620910195035945</v>
+        <v>0.06530201968553651</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03497048641482379</v>
+        <v>0.03342346236254001</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1033522159568876</v>
+        <v>0.1002483419833007</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03497160670433238</v>
+        <v>0.03338389229958783</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03383080110653508</v>
+        <v>0.03149057975560098</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03593343657151428</v>
+        <v>0.0343398919387961</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03383080110653508</v>
+        <v>0.03149057975560098</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03593343657151428</v>
+        <v>0.0343398919387961</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07284899184136973</v>
+        <v>0.06520231568291845</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03580311704374817</v>
+        <v>0.03421925908545763</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1052205049857946</v>
+        <v>0.09939223998337743</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03580426400681649</v>
+        <v>0.03417874687814944</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03484844080484568</v>
+        <v>0.03153339345807828</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03676909788713088</v>
+        <v>0.03513849407690764</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03484844080484568</v>
+        <v>0.03153339345807828</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03676909788713088</v>
+        <v>0.03513849407690764</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07141186322532944</v>
+        <v>0.06750570780533396</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03663574767267255</v>
+        <v>0.03501505580837525</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1014969617072605</v>
+        <v>0.1037885688208272</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03663692130930059</v>
+        <v>0.03497360145671106</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03420673695167452</v>
+        <v>0.03220415028372409</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03760475920274749</v>
+        <v>0.03593709621501918</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03420673695167452</v>
+        <v>0.03220415028372409</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03760475920274749</v>
+        <v>0.03593709621501918</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06786242035369552</v>
+        <v>0.06850988269899297</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03746837830159692</v>
+        <v>0.03581085253129287</v>
       </c>
       <c r="N110" t="n">
-        <v>0.09856303983119258</v>
+        <v>0.1026776662012562</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0374695786117847</v>
+        <v>0.03576845603527267</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03265301085680743</v>
+        <v>0.03296703562564954</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0384404205183641</v>
+        <v>0.03673569835313071</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03265301085680743</v>
+        <v>0.03296703562564954</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0384404205183641</v>
+        <v>0.03673569835313071</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06643374275990796</v>
+        <v>0.06517120110506408</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0383010089305213</v>
+        <v>0.03660664925421049</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1065170645853138</v>
+        <v>0.1003910973885815</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0383022359142688</v>
+        <v>0.03656331061383428</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03453482975087946</v>
+        <v>0.03285393125455038</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03927608183398072</v>
+        <v>0.03753430049124225</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03453482975087946</v>
+        <v>0.03285393125455038</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03927608183398072</v>
+        <v>0.03753430049124225</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06686348426626187</v>
+        <v>0.06629521969775368</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03913363955944567</v>
+        <v>0.03740244597712811</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1009663027443232</v>
+        <v>0.1051337482972147</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0391348932167529</v>
+        <v>0.0373581651923959</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03432145511356258</v>
+        <v>0.03192930315228767</v>
       </c>
       <c r="G113" t="n">
-        <v>0.04011174314959733</v>
+        <v>0.03833290262935379</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03432145511356258</v>
+        <v>0.03192930315228767</v>
       </c>
       <c r="K113" t="n">
-        <v>0.04011174314959733</v>
+        <v>0.03833290262935379</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06860447358928795</v>
+        <v>0.06532838666680701</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03996627018837005</v>
+        <v>0.03819824270004573</v>
       </c>
       <c r="N113" t="n">
-        <v>0.103731665615439</v>
+        <v>0.1052176252302247</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03996755051923701</v>
+        <v>0.03815301977095751</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03571431756865334</v>
+        <v>0.03213413763892485</v>
       </c>
       <c r="G114" t="n">
-        <v>0.04094740446521394</v>
+        <v>0.03913150476746532</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03571431756865334</v>
+        <v>0.03213413763892485</v>
       </c>
       <c r="K114" t="n">
-        <v>0.04094740446521394</v>
+        <v>0.03913150476746532</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06667632852494199</v>
+        <v>0.06545791558957206</v>
       </c>
       <c r="M114" t="n">
-        <v>0.04079890081729443</v>
+        <v>0.03899403942296335</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1129145631564204</v>
+        <v>0.09891382289389222</v>
       </c>
       <c r="O114" t="n">
-        <v>0.04080020782172111</v>
+        <v>0.03894787434951913</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03382130515411302</v>
+        <v>0.03301742949936348</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04178306578083055</v>
+        <v>0.03993010690557686</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03382130515411302</v>
+        <v>0.03301742949936348</v>
       </c>
       <c r="K115" t="n">
-        <v>0.04178306578083055</v>
+        <v>0.03993010690557686</v>
       </c>
       <c r="L115" t="n">
-        <v>0.07120936950347873</v>
+        <v>0.06611429808009273</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0416315314462188</v>
+        <v>0.03978983614588096</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1049226648333963</v>
+        <v>0.1054267584633467</v>
       </c>
       <c r="O115" t="n">
-        <v>0.04163286512420521</v>
+        <v>0.03974272892808075</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03451152715981613</v>
+        <v>0.03316926099900241</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04261872709644716</v>
+        <v>0.0407287090436884</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03451152715981613</v>
+        <v>0.03316926099900241</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04261872709644716</v>
+        <v>0.0407287090436884</v>
       </c>
       <c r="L116" t="n">
-        <v>0.0680859101517623</v>
+        <v>0.06746657088373204</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04246416207514318</v>
+        <v>0.04058563286879859</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09983822024208799</v>
+        <v>0.1053425231252714</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04246552242668931</v>
+        <v>0.04053758350664236</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03552214255593864</v>
+        <v>0.03347138675412474</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04345438841206378</v>
+        <v>0.04152731118179993</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03552214255593864</v>
+        <v>0.03347138675412474</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04345438841206378</v>
+        <v>0.04152731118179993</v>
       </c>
       <c r="L117" t="n">
-        <v>0.07198195889085865</v>
+        <v>0.0682745116690931</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04329679270406755</v>
+        <v>0.04138142959171621</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1132765212783731</v>
+        <v>0.100604233815312</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04329817972917342</v>
+        <v>0.04133243808520397</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03523240957833357</v>
+        <v>0.03270086177142698</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04429004972768038</v>
+        <v>0.04232591331991148</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03523240957833357</v>
+        <v>0.03270086177142698</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04429004972768038</v>
+        <v>0.04232591331991148</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07518673529345746</v>
+        <v>0.0700750200720511</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04412942333299193</v>
+        <v>0.04217722631463382</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1139245725745939</v>
+        <v>0.1020669359605081</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04413083703165752</v>
+        <v>0.04212729266376559</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03372323256730855</v>
+        <v>0.03300805002754871</v>
       </c>
       <c r="G119" t="n">
-        <v>0.045125711043297</v>
+        <v>0.04312451545802301</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03372323256730855</v>
+        <v>0.03300805002754871</v>
       </c>
       <c r="K119" t="n">
-        <v>0.045125711043297</v>
+        <v>0.04312451545802301</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07370867042503418</v>
+        <v>0.0680319393139262</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04496205396191631</v>
+        <v>0.04297302303755144</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1056639201783356</v>
+        <v>0.09962791390975001</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04496349433414163</v>
+        <v>0.04292214724232721</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03535104833339607</v>
+        <v>0.0325176205316111</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04596137235891361</v>
+        <v>0.04392311759613455</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03535104833339607</v>
+        <v>0.0325176205316111</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04596137235891361</v>
+        <v>0.04392311759613455</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07057448664432536</v>
+        <v>0.06915195374056959</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04579468459084068</v>
+        <v>0.04376881976046906</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1058215935537997</v>
+        <v>0.106718197246561</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04579615163662574</v>
+        <v>0.04371700182088882</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03479707844397005</v>
+        <v>0.03383223718012632</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04679703367453022</v>
+        <v>0.04472171973424608</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03479707844397005</v>
+        <v>0.03383223718012632</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04679703367453022</v>
+        <v>0.04472171973424608</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07462037023975379</v>
+        <v>0.0701739642622633</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04662731521976506</v>
+        <v>0.04456461648338668</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1034678483770841</v>
+        <v>0.1045636981681246</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04662880893910984</v>
+        <v>0.04451185639945043</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03597955720061032</v>
+        <v>0.03297497183729144</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04763269499014683</v>
+        <v>0.04552032187235762</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03597955720061032</v>
+        <v>0.03297497183729144</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04763269499014683</v>
+        <v>0.04552032187235762</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07533586218837496</v>
+        <v>0.06805998289316226</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04745994584868943</v>
+        <v>0.0453604132063043</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1099471605494741</v>
+        <v>0.1058701222344513</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04746146624159395</v>
+        <v>0.04530671097801205</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03355774347855874</v>
+        <v>0.03246713020254544</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04846835630576344</v>
+        <v>0.04631892401046916</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03355774347855874</v>
+        <v>0.03246713020254544</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04846835630576344</v>
+        <v>0.04631892401046916</v>
       </c>
       <c r="L123" t="n">
-        <v>0.07412769235692515</v>
+        <v>0.0683523151002817</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04829257647761381</v>
+        <v>0.04615620992922193</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1144461862523078</v>
+        <v>0.1047939677867557</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04829412354407805</v>
+        <v>0.04610156555657367</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.0345505986003527</v>
+        <v>0.03387010786365181</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04930401762138006</v>
+        <v>0.0471175261485807</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0345505986003527</v>
+        <v>0.03387010786365181</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04930401762138006</v>
+        <v>0.0471175261485807</v>
       </c>
       <c r="L124" t="n">
-        <v>0.07337552323100688</v>
+        <v>0.07012665784751115</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04912520710653819</v>
+        <v>0.04695200665213954</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.1052549545071635</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04912678084656215</v>
+        <v>0.04689642013513528</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03406939177486754</v>
+        <v>0.03415583220952328</v>
       </c>
       <c r="G125" t="n">
-        <v>0.05013967893699666</v>
+        <v>0.04791612828669223</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03406939177486754</v>
+        <v>0.03415583220952328</v>
       </c>
       <c r="K125" t="n">
-        <v>0.05013967893699666</v>
+        <v>0.04791612828669223</v>
       </c>
       <c r="L125" t="n">
-        <v>0.07110831781320756</v>
+        <v>0.06804514714472035</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04995783773546256</v>
+        <v>0.04774780337505716</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1135145281318616</v>
+        <v>0.1053814169847335</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04995943814904626</v>
+        <v>0.04769127471369689</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03315620180648408</v>
+        <v>0.03328873042817906</v>
       </c>
       <c r="G126" t="n">
-        <v>0.05097534025261327</v>
+        <v>0.04871473042480377</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03315620180648408</v>
+        <v>0.03328873042817906</v>
       </c>
       <c r="K126" t="n">
-        <v>0.05097534025261327</v>
+        <v>0.04871473042480377</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0717193426216847</v>
+        <v>0.07032816279805851</v>
       </c>
       <c r="M126" t="n">
-        <v>0.05079046836438694</v>
+        <v>0.04854360009797478</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1103058590169789</v>
+        <v>0.1079967084603335</v>
       </c>
       <c r="O126" t="n">
-        <v>0.05079209545153036</v>
+        <v>0.0484861292922585</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03599738265199877</v>
+        <v>0.03371691901696558</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05181100156822988</v>
+        <v>0.04951333256291531</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03599738265199877</v>
+        <v>0.03371691901696558</v>
       </c>
       <c r="K127" t="n">
-        <v>0.05181100156822988</v>
+        <v>0.04951333256291531</v>
       </c>
       <c r="L127" t="n">
-        <v>0.07198017466059875</v>
+        <v>0.06931384200194973</v>
       </c>
       <c r="M127" t="n">
-        <v>0.05162309899331131</v>
+        <v>0.0493393968208924</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1068038178587418</v>
+        <v>0.1058377241521056</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05162475275401446</v>
+        <v>0.04928098387082012</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03344759398200386</v>
+        <v>0.0329313813729696</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0526466628838465</v>
+        <v>0.05031193470102685</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03344759398200386</v>
+        <v>0.0329313813729696</v>
       </c>
       <c r="K128" t="n">
-        <v>0.0526466628838465</v>
+        <v>0.05031193470102685</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07139320882899181</v>
+        <v>0.06802928275611997</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05245572962223569</v>
+        <v>0.05013519354381002</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1100399534259665</v>
+        <v>0.10455064428744</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05245741005649857</v>
+        <v>0.05007583844938174</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03307152266573204</v>
+        <v>0.03302462575205882</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0534823241994631</v>
+        <v>0.05111053683913838</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03307152266573204</v>
+        <v>0.03302462575205882</v>
       </c>
       <c r="K129" t="n">
-        <v>0.0534823241994631</v>
+        <v>0.05111053683913838</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07310909770755306</v>
+        <v>0.07089298572352418</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05328836025116006</v>
+        <v>0.05093099026672764</v>
       </c>
       <c r="N129" t="n">
-        <v>0.110613938401796</v>
+        <v>0.1055060171158638</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05329006735898267</v>
+        <v>0.05087069302794336</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03552771378878834</v>
+        <v>0.03435823418711893</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05431798551507971</v>
+        <v>0.05190913897724992</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03552771378878834</v>
+        <v>0.03435823418711893</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05431798551507971</v>
+        <v>0.05190913897724992</v>
       </c>
       <c r="L130" t="n">
-        <v>0.0712059008441962</v>
+        <v>0.06780982922747555</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05412099088008444</v>
+        <v>0.05172678698964526</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1076632286086435</v>
+        <v>0.1030476812925628</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05412272466146678</v>
+        <v>0.05166554760650497</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03530709752237203</v>
+        <v>0.03434950354973212</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05515364683069632</v>
+        <v>0.05270774111536145</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03530709752237203</v>
+        <v>0.03434950354973212</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05515364683069632</v>
+        <v>0.05270774111536145</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06869144165757568</v>
+        <v>0.07161416304649157</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05495362150900882</v>
+        <v>0.05252258371256287</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1152866418853424</v>
+        <v>0.1034363390314962</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05495538196395088</v>
+        <v>0.05246040218506658</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03432452769733629</v>
+        <v>0.0335020628379521</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05598930814631294</v>
+        <v>0.053506343253473</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03432452769733629</v>
+        <v>0.0335020628379521</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05598930814631294</v>
+        <v>0.053506343253473</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07438715065885376</v>
+        <v>0.06890639687064359</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05578625213793319</v>
+        <v>0.0533183804354805</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1030802923318664</v>
+        <v>0.1036461015960378</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05578803926643499</v>
+        <v>0.0532552567636282</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0346184112494646</v>
+        <v>0.03415473044697642</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05682496946192955</v>
+        <v>0.05430494539158453</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0346184112494646</v>
+        <v>0.03415473044697642</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05682496946192955</v>
+        <v>0.05430494539158453</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07244537916182325</v>
+        <v>0.07037078660777851</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05661888276685757</v>
+        <v>0.05411417715839811</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1071896451959437</v>
+        <v>0.1026126872503489</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05662069656891909</v>
+        <v>0.05405011134218981</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03396745997346909</v>
+        <v>0.03400126434543599</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05766063077754616</v>
+        <v>0.05510354752969607</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03396745997346909</v>
+        <v>0.03400126434543599</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05766063077754616</v>
+        <v>0.05510354752969607</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07563256676918167</v>
+        <v>0.06946886309832692</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05745151339578194</v>
+        <v>0.05490997388131574</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1141227750619527</v>
+        <v>0.103450430056599</v>
       </c>
       <c r="O134" t="n">
-        <v>0.0574533538714032</v>
+        <v>0.05484496592075143</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03399890954844829</v>
+        <v>0.03418843330302307</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05849629209316278</v>
+        <v>0.05590214966780761</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03399890954844829</v>
+        <v>0.03418843330302307</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05849629209316278</v>
+        <v>0.05590214966780761</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07524713237881175</v>
+        <v>0.06905649884193255</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05828414402470632</v>
+        <v>0.05570577060423336</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1129756175049952</v>
+        <v>0.1102443099427557</v>
       </c>
       <c r="O135" t="n">
-        <v>0.0582860111738873</v>
+        <v>0.05563982049931305</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03507378308723109</v>
+        <v>0.03450264916871106</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05933195340877939</v>
+        <v>0.05670075180591914</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03507378308723109</v>
+        <v>0.03450264916871106</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05933195340877939</v>
+        <v>0.05670075180591914</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07421480501473376</v>
+        <v>0.06855066198757781</v>
       </c>
       <c r="M136" t="n">
-        <v>0.0591167746536307</v>
+        <v>0.05650156732715097</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1130392620906331</v>
+        <v>0.1071200106031928</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05911866847637141</v>
+        <v>0.05643467507787465</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03383951711915134</v>
+        <v>0.03456266802800283</v>
       </c>
       <c r="G137" t="n">
-        <v>0.060167614724396</v>
+        <v>0.05749935394403068</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03383951711915134</v>
+        <v>0.03456266802800283</v>
       </c>
       <c r="K137" t="n">
-        <v>0.060167614724396</v>
+        <v>0.05749935394403068</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07694387290530502</v>
+        <v>0.07230359702807174</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05994940528255507</v>
+        <v>0.0572973640500686</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1028655305548469</v>
+        <v>0.1042088800201376</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05995132577885551</v>
+        <v>0.05722952965643627</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
@@ -11470,3301 +11468,3301 @@
         <v>0.03493632924887161</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0610032760400126</v>
+        <v>0.05829795608214221</v>
       </c>
       <c r="J138" t="n">
         <v>0.03493632924887161</v>
       </c>
       <c r="K138" t="n">
-        <v>0.0610032760400126</v>
+        <v>0.05829795608214221</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07589964809156433</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M138" t="n">
-        <v>0.06078203591147945</v>
+        <v>0.05809316077298621</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1141014760985839</v>
+        <v>0.1052280797352119</v>
       </c>
       <c r="O138" t="n">
-        <v>0.06078398308133962</v>
+        <v>0.05802438423499788</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03642320676744201</v>
+        <v>0.03364585740028175</v>
       </c>
       <c r="G139" t="n">
-        <v>0.06183893735562921</v>
+        <v>0.05909655822025375</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03642320676744201</v>
+        <v>0.03364585740028175</v>
       </c>
       <c r="K139" t="n">
-        <v>0.06183893735562921</v>
+        <v>0.05909655822025375</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07522773294116913</v>
+        <v>0.07070873624820126</v>
       </c>
       <c r="M139" t="n">
-        <v>0.06161466654040382</v>
+        <v>0.05888895749590383</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1159941211864726</v>
+        <v>0.1065139050122171</v>
       </c>
       <c r="O139" t="n">
-        <v>0.06161664038382372</v>
+        <v>0.0588192388135595</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03493295544572533</v>
+        <v>0.03442869462275737</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06267459867124583</v>
+        <v>0.0598951603583653</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03493295544572533</v>
+        <v>0.03442869462275737</v>
       </c>
       <c r="K140" t="n">
-        <v>0.06267459867124583</v>
+        <v>0.0598951603583653</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07003475577838372</v>
+        <v>0.07080731871868801</v>
       </c>
       <c r="M140" t="n">
-        <v>0.0624472971693282</v>
+        <v>0.05968475421882145</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1153853639663677</v>
+        <v>0.1102042346461232</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06244929768630782</v>
+        <v>0.05961409339212112</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03384367639060873</v>
+        <v>0.03494405091720015</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06351025998686244</v>
+        <v>0.06069376249647682</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03384367639060873</v>
+        <v>0.03494405091720015</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06351025998686244</v>
+        <v>0.06069376249647682</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07177496947956966</v>
+        <v>0.07191966361423824</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06327992779825257</v>
+        <v>0.06048055094173907</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1056277860994763</v>
+        <v>0.1106988948889927</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06328195498879192</v>
+        <v>0.06040894797068273</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03566107612261947</v>
+        <v>0.03480611000879952</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06434592130247904</v>
+        <v>0.06149236463458837</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03566107612261947</v>
+        <v>0.03480611000879952</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06434592130247904</v>
+        <v>0.06149236463458837</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06938398122708936</v>
+        <v>0.07271769068017583</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06411255842717695</v>
+        <v>0.06127634766465669</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1039675372251936</v>
+        <v>0.107081530317353</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06411461229127602</v>
+        <v>0.06120380254924435</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03378112057385393</v>
+        <v>0.03537774797851179</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06518158261809566</v>
+        <v>0.06229096677269991</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03378112057385393</v>
+        <v>0.03537774797851179</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06518158261809566</v>
+        <v>0.06229096677269991</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07315652123834707</v>
+        <v>0.0719927266932554</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06494518905610133</v>
+        <v>0.0620721443875743</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1038053547230939</v>
+        <v>0.1102953358130536</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06494726959376013</v>
+        <v>0.06199865712780597</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03506445567431489</v>
+        <v>0.0351883324710265</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06601724393371228</v>
+        <v>0.06308956891081144</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03506445567431489</v>
+        <v>0.0351883324710265</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06601724393371228</v>
+        <v>0.06308956891081144</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07414020830130549</v>
+        <v>0.07126135907602235</v>
       </c>
       <c r="M144" t="n">
-        <v>0.0657778196850257</v>
+        <v>0.06286794111049193</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1169061005955941</v>
+        <v>0.1107506457074324</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06577992689624423</v>
+        <v>0.06279351170636757</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03413432771315944</v>
+        <v>0.03547222051345093</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06685290524932888</v>
+        <v>0.06388817104892298</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03413432771315944</v>
+        <v>0.03547222051345093</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06685290524932888</v>
+        <v>0.06388817104892298</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06856751123912627</v>
+        <v>0.06940392372351281</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06661045031395008</v>
+        <v>0.06366373783340955</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1158196821273323</v>
+        <v>0.1044816574883826</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06661258419872834</v>
+        <v>0.0635883662849292</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03554387245510723</v>
+        <v>0.03382069380530703</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06768856656494548</v>
+        <v>0.06468677318703452</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03554387245510723</v>
+        <v>0.03382069380530703</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06768856656494548</v>
+        <v>0.06468677318703452</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07510836885799185</v>
+        <v>0.07016559392189284</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06744308094287445</v>
+        <v>0.06445953455632716</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1063233481848256</v>
+        <v>0.1089026400550281</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06744524150121245</v>
+        <v>0.0643832208634908</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03661960379632706</v>
+        <v>0.03408928168624303</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0685242278805621</v>
+        <v>0.06548537532514605</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03661960379632706</v>
+        <v>0.03408928168624303</v>
       </c>
       <c r="K147" t="n">
-        <v>0.0685242278805621</v>
+        <v>0.06548537532514605</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07132541932039382</v>
+        <v>0.07146511166871702</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06827571157179883</v>
+        <v>0.06525533127924479</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1164571456932659</v>
+        <v>0.1087927263937948</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06827789880369654</v>
+        <v>0.06517807544205242</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.035973134721523</v>
+        <v>0.03535413228025878</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06935988919617872</v>
+        <v>0.06628397746325759</v>
       </c>
       <c r="J148" t="n">
-        <v>0.035973134721523</v>
+        <v>0.03535413228025878</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06935988919617872</v>
+        <v>0.06628397746325759</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07148423145107655</v>
+        <v>0.0733677205878274</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06910834220072321</v>
+        <v>0.0660511280021624</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1051185936470414</v>
+        <v>0.1046359771618363</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06911055610618065</v>
+        <v>0.06597293002061404</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03478700578847406</v>
+        <v>0.03532971841998747</v>
       </c>
       <c r="G149" t="n">
-        <v>0.07019555051179532</v>
+        <v>0.06708257960136912</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03478700578847406</v>
+        <v>0.03532971841998747</v>
       </c>
       <c r="K149" t="n">
-        <v>0.07019555051179532</v>
+        <v>0.06708257960136912</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07309451445335133</v>
+        <v>0.07058252246528057</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06994097282964758</v>
+        <v>0.06684692472508003</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1178945868246377</v>
+        <v>0.1073490252730953</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06994321340866476</v>
+        <v>0.06676778459917565</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03391968215230386</v>
+        <v>0.03492804408231971</v>
       </c>
       <c r="G150" t="n">
-        <v>0.07103121182741194</v>
+        <v>0.06788118173948067</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03391968215230386</v>
+        <v>0.03492804408231971</v>
       </c>
       <c r="K150" t="n">
-        <v>0.07103121182741194</v>
+        <v>0.06788118173948067</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07633107583291268</v>
+        <v>0.06944188383610214</v>
       </c>
       <c r="M150" t="n">
-        <v>0.07077360345857195</v>
+        <v>0.06764272144799764</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1170226155967167</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O150" t="n">
-        <v>0.07077587071114887</v>
+        <v>0.06756263917773726</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03460597481601443</v>
+        <v>0.03406380173501812</v>
       </c>
       <c r="G151" t="n">
-        <v>0.07186687314302856</v>
+        <v>0.0686797838775922</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03460597481601443</v>
+        <v>0.03406380173501812</v>
       </c>
       <c r="K151" t="n">
-        <v>0.07186687314302856</v>
+        <v>0.0686797838775922</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07392651050455618</v>
+        <v>0.07368689746028098</v>
       </c>
       <c r="M151" t="n">
-        <v>0.07160623408749633</v>
+        <v>0.06843851817091526</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1074249886435235</v>
+        <v>0.1071879929783977</v>
       </c>
       <c r="O151" t="n">
-        <v>0.07160852801363297</v>
+        <v>0.06835749375629888</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03559471790522782</v>
+        <v>0.03413677748639282</v>
       </c>
       <c r="G152" t="n">
-        <v>0.07270253445864516</v>
+        <v>0.06947838601570373</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03559471790522782</v>
+        <v>0.03413677748639282</v>
       </c>
       <c r="K152" t="n">
-        <v>0.07270253445864516</v>
+        <v>0.06947838601570373</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07005876786126214</v>
+        <v>0.07084334758597569</v>
       </c>
       <c r="M152" t="n">
-        <v>0.07243886471642072</v>
+        <v>0.06923431489383289</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1083062171921512</v>
+        <v>0.1071964572496461</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07244118531611707</v>
+        <v>0.0691523483348605</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03524829445813328</v>
+        <v>0.03544457589699203</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07353819577426177</v>
+        <v>0.07027698815381528</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03524829445813328</v>
+        <v>0.03544457589699203</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07353819577426177</v>
+        <v>0.07027698815381528</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07587582998889464</v>
+        <v>0.07188620055075842</v>
       </c>
       <c r="M153" t="n">
-        <v>0.07327149534534509</v>
+        <v>0.0700301116167505</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1180036133129505</v>
+        <v>0.1092259134337253</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07327384261860118</v>
+        <v>0.06994720291342212</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03421114791729496</v>
+        <v>0.03434660448570089</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07437385708987838</v>
+        <v>0.07107559029192681</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03421114791729496</v>
+        <v>0.03434660448570089</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07437385708987838</v>
+        <v>0.07107559029192681</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07428769554063672</v>
+        <v>0.07085527275586095</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07410412597426946</v>
+        <v>0.07082590833966812</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1046755270170245</v>
+        <v>0.1080790828479821</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07410649992108528</v>
+        <v>0.07074205749198373</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03690352879378107</v>
+        <v>0.03433889023272314</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07520951840549499</v>
+        <v>0.07187419243003836</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03690352879378107</v>
+        <v>0.03433889023272314</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07520951840549499</v>
+        <v>0.07187419243003836</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07576951747935043</v>
+        <v>0.07211357988664355</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07493675660319384</v>
+        <v>0.07162170506258574</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1170796856929097</v>
+        <v>0.1058406701062058</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07493915722356939</v>
+        <v>0.07153691207054534</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03389653885780955</v>
+        <v>0.03515962129898398</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07604517972111161</v>
+        <v>0.07267279456814989</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03389653885780955</v>
+        <v>0.03515962129898398</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07604517972111161</v>
+        <v>0.07267279456814989</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07370131409245329</v>
+        <v>0.07227354450330978</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07576938723211822</v>
+        <v>0.07241750178550337</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1129216469910628</v>
+        <v>0.105385371356878</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07577181452605349</v>
+        <v>0.07233176664910695</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03615089278695639</v>
+        <v>0.03406436214333708</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07688084103672821</v>
+        <v>0.07347139670626142</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03615089278695639</v>
+        <v>0.03406436214333708</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07688084103672821</v>
+        <v>0.07347139670626142</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07304998543770286</v>
+        <v>0.07285668737612416</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07660201786104259</v>
+        <v>0.07321329850842098</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1072873511904874</v>
+        <v>0.1109087691334976</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07660447182853759</v>
+        <v>0.07312662122766857</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03480314451584791</v>
+        <v>0.0349704818060995</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07771650235234483</v>
+        <v>0.07426999884437296</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03480314451584791</v>
+        <v>0.0349704818060995</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07771650235234483</v>
+        <v>0.07426999884437296</v>
       </c>
       <c r="L158" t="n">
-        <v>0.0744503602832102</v>
+        <v>0.0712982799909451</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07743464848996696</v>
+        <v>0.0740090952313386</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1127594685790954</v>
+        <v>0.1086278694847779</v>
       </c>
       <c r="O158" t="n">
-        <v>0.0774371291310217</v>
+        <v>0.07392147580623019</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03664804854332285</v>
+        <v>0.03424336265480803</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07855216366796144</v>
+        <v>0.0750686009824845</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03664804854332285</v>
+        <v>0.03424336265480803</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07855216366796144</v>
+        <v>0.0750686009824845</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06964851435349997</v>
+        <v>0.07000829919959911</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07826727911889134</v>
+        <v>0.07480489195425621</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1164860189838259</v>
+        <v>0.1069382883197404</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07826978643350581</v>
+        <v>0.07471633038479179</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03627696907815167</v>
+        <v>0.0348021775832168</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07938782498357805</v>
+        <v>0.07586720312059604</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03627696907815167</v>
+        <v>0.0348021775832168</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07938782498357805</v>
+        <v>0.07586720312059604</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.07298152165126023</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07909990974781572</v>
+        <v>0.07560068867717383</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1185573146504995</v>
+        <v>0.111993355393423</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07910244373598992</v>
+        <v>0.07551118496335342</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03690961887441968</v>
+        <v>0.034062750006113</v>
       </c>
       <c r="G161" t="n">
-        <v>0.08022348629919467</v>
+        <v>0.07666580525870757</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03690961887441968</v>
+        <v>0.034062750006113</v>
       </c>
       <c r="K161" t="n">
-        <v>0.08022348629919467</v>
+        <v>0.07666580525870757</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06995770273257093</v>
+        <v>0.07318213100715479</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07993254037674009</v>
+        <v>0.07639648540009146</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1122474387178015</v>
+        <v>0.1098510486655545</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07993510103847401</v>
+        <v>0.07630603954191502</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03706344660828993</v>
+        <v>0.03388977311500117</v>
       </c>
       <c r="G162" t="n">
-        <v>0.08105914761481127</v>
+        <v>0.0774644073968191</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03706344660828993</v>
+        <v>0.03388977311500117</v>
       </c>
       <c r="K162" t="n">
-        <v>0.08105914761481127</v>
+        <v>0.0774644073968191</v>
       </c>
       <c r="L162" t="n">
-        <v>0.0770669240218281</v>
+        <v>0.07113478220184266</v>
       </c>
       <c r="M162" t="n">
-        <v>0.08076517100566447</v>
+        <v>0.07719228212300908</v>
       </c>
       <c r="N162" t="n">
-        <v>0.115712187706442</v>
+        <v>0.107137982922714</v>
       </c>
       <c r="O162" t="n">
-        <v>0.0807677583409581</v>
+        <v>0.07710089412047665</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03414382239242114</v>
+        <v>0.03470320540425682</v>
       </c>
       <c r="G163" t="n">
-        <v>0.08189480893042787</v>
+        <v>0.07826300953493065</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03414382239242114</v>
+        <v>0.03470320540425682</v>
       </c>
       <c r="K163" t="n">
-        <v>0.08189480893042787</v>
+        <v>0.07826300953493065</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07302429946034167</v>
+        <v>0.06927828388203597</v>
       </c>
       <c r="M163" t="n">
-        <v>0.08159780163458885</v>
+        <v>0.07798807884592669</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1143997943782165</v>
+        <v>0.1096040920639609</v>
       </c>
       <c r="O163" t="n">
-        <v>0.08160041564344221</v>
+        <v>0.07789574869903826</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03686854348253896</v>
+        <v>0.03415092118073333</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08273047024604449</v>
+        <v>0.07906161167304218</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03686854348253896</v>
+        <v>0.03415092118073333</v>
       </c>
       <c r="K164" t="n">
-        <v>0.08273047024604449</v>
+        <v>0.07906161167304218</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07220788656916713</v>
+        <v>0.07170572880304321</v>
       </c>
       <c r="M164" t="n">
-        <v>0.08243043226351322</v>
+        <v>0.07878387556884432</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1156349080047944</v>
+        <v>0.1060848521246381</v>
       </c>
       <c r="O164" t="n">
-        <v>0.08243307294592632</v>
+        <v>0.07869060327759987</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.0366956123806878</v>
+        <v>0.03508131310784005</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08356613156166111</v>
+        <v>0.07986021381115373</v>
       </c>
       <c r="J165" t="n">
-        <v>0.0366956123806878</v>
+        <v>0.03508131310784005</v>
       </c>
       <c r="K165" t="n">
-        <v>0.08356613156166111</v>
+        <v>0.07986021381115373</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07226816266825639</v>
+        <v>0.07048766271764464</v>
       </c>
       <c r="M165" t="n">
-        <v>0.08326306289243761</v>
+        <v>0.07957967229176192</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1174282007869872</v>
+        <v>0.1083979468148027</v>
       </c>
       <c r="O165" t="n">
-        <v>0.08326573024841043</v>
+        <v>0.0794854578561615</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03603895328152557</v>
+        <v>0.03465211786506159</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08440179287727771</v>
+        <v>0.08065881594926527</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03603895328152557</v>
+        <v>0.03465211786506159</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08440179287727771</v>
+        <v>0.08065881594926527</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07823072627689709</v>
+        <v>0.0693427194928409</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08409569352136197</v>
+        <v>0.08037546901467955</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1175035786266193</v>
+        <v>0.1064278152649129</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08409838755089453</v>
+        <v>0.08028031243472311</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03503694247787603</v>
+        <v>0.03507808211483691</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08523745419289433</v>
+        <v>0.08145741808737679</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03503694247787603</v>
+        <v>0.03507808211483691</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08523745419289433</v>
+        <v>0.08145741808737679</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07748924108658672</v>
+        <v>0.07259671632392256</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08492832415028635</v>
+        <v>0.08117126573759718</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1173269640243302</v>
+        <v>0.1046920111765707</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08493104485337863</v>
+        <v>0.08107516701328472</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03426882891876405</v>
+        <v>0.03387189162801182</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08607311550851093</v>
+        <v>0.08225602022548834</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03426882891876405</v>
+        <v>0.03387189162801182</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08607311550851093</v>
+        <v>0.08225602022548834</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07584711641837444</v>
+        <v>0.07133829277285877</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08576095477921072</v>
+        <v>0.08196706246051479</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1137723327128959</v>
+        <v>0.105654232966115</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08576370215586274</v>
+        <v>0.08187002159184634</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03660198906454314</v>
+        <v>0.03463798603145966</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08690877682412755</v>
+        <v>0.08305462236359987</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03660198906454314</v>
+        <v>0.03463798603145966</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08690877682412755</v>
+        <v>0.08305462236359987</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0737808272902904</v>
+        <v>0.07165723908204763</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08659358540813511</v>
+        <v>0.08276285918343242</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1102575609969584</v>
+        <v>0.1097034267118069</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08659635945834684</v>
+        <v>0.08266487617040795</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03423849848298748</v>
+        <v>0.03500711454043728</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08774443813974415</v>
+        <v>0.08385322450171141</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03423849848298748</v>
+        <v>0.03500711454043728</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08774443813974415</v>
+        <v>0.08385322450171141</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07563267385879877</v>
+        <v>0.070233495235421</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08742621603705947</v>
+        <v>0.08355865590635003</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1119377587548583</v>
+        <v>0.1061296332891756</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08742901676083095</v>
+        <v>0.08345973074896956</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.0340969961537845</v>
+        <v>0.0337948076393367</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08858009945536076</v>
+        <v>0.08465182663982296</v>
       </c>
       <c r="J171" t="n">
-        <v>0.0340969961537845</v>
+        <v>0.0337948076393367</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08858009945536076</v>
+        <v>0.08465182663982296</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07337544779183744</v>
+        <v>0.07203847572618147</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08825884666598385</v>
+        <v>0.08435445262926765</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1167874435896968</v>
+        <v>0.1034888040891065</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08826167406331505</v>
+        <v>0.08425458532753119</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03642139099045248</v>
+        <v>0.03422541197517215</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08941576077097739</v>
+        <v>0.08545042877793448</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03642139099045248</v>
+        <v>0.03422541197517215</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08941576077097739</v>
+        <v>0.08545042877793448</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07603425853234164</v>
+        <v>0.06846456839901061</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08909147729490824</v>
+        <v>0.08515024935218528</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1081245742051007</v>
+        <v>0.1065428518477967</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08909433136579915</v>
+        <v>0.08504943990609279</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03671328934486703</v>
+        <v>0.0348489208647568</v>
       </c>
       <c r="G173" t="n">
-        <v>0.09025142208659399</v>
+        <v>0.08624903091604602</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03671328934486703</v>
+        <v>0.0348489208647568</v>
       </c>
       <c r="K173" t="n">
-        <v>0.09025142208659399</v>
+        <v>0.08624903091604602</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07275246323983367</v>
+        <v>0.06914654285080221</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08992410792383261</v>
+        <v>0.08594604607510288</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1058447657863981</v>
+        <v>0.1056160618846991</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08992698866828326</v>
+        <v>0.08584429448465442</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03616810158093745</v>
+        <v>0.03392303251502995</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0910870834022106</v>
+        <v>0.08704763305415755</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03616810158093745</v>
+        <v>0.03392303251502995</v>
       </c>
       <c r="K174" t="n">
-        <v>0.0910870834022106</v>
+        <v>0.08704763305415755</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07749611744694362</v>
+        <v>0.07099292655820774</v>
       </c>
       <c r="M174" t="n">
-        <v>0.09075673855275698</v>
+        <v>0.08674184279802051</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1082580847605009</v>
+        <v>0.1070166601410266</v>
       </c>
       <c r="O174" t="n">
-        <v>0.09075964597076737</v>
+        <v>0.08663914906321601</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.0361420148454507</v>
+        <v>0.03407026189572603</v>
       </c>
       <c r="G175" t="n">
-        <v>0.09192274471782722</v>
+        <v>0.0878462351922691</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0361420148454507</v>
+        <v>0.03407026189572603</v>
       </c>
       <c r="K175" t="n">
-        <v>0.09192274471782722</v>
+        <v>0.0878462351922691</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07197998334034506</v>
+        <v>0.0683683312919186</v>
       </c>
       <c r="M175" t="n">
-        <v>0.09158936918168135</v>
+        <v>0.08753763952093813</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1088006680759116</v>
+        <v>0.1058135402574298</v>
       </c>
       <c r="O175" t="n">
-        <v>0.09159230327325148</v>
+        <v>0.08743400364177764</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03737592225418269</v>
+        <v>0.03388356955940348</v>
       </c>
       <c r="G176" t="n">
-        <v>0.09275840603344383</v>
+        <v>0.08864483733038064</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03737592225418269</v>
+        <v>0.03388356955940348</v>
       </c>
       <c r="K176" t="n">
-        <v>0.09275840603344383</v>
+        <v>0.08864483733038064</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07172465605277395</v>
+        <v>0.06785481454631229</v>
       </c>
       <c r="M176" t="n">
-        <v>0.09242199981060574</v>
+        <v>0.08833343624385574</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1081438951339384</v>
+        <v>0.1042691575191741</v>
       </c>
       <c r="O176" t="n">
-        <v>0.09242496057573557</v>
+        <v>0.08822885822033925</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03420646509852386</v>
+        <v>0.03380911200655937</v>
       </c>
       <c r="G177" t="n">
-        <v>0.09359406734906044</v>
+        <v>0.08944343946849216</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03420646509852386</v>
+        <v>0.03380911200655937</v>
       </c>
       <c r="K177" t="n">
-        <v>0.09359406734906044</v>
+        <v>0.08944343946849216</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07750622337034355</v>
+        <v>0.07034605296547089</v>
       </c>
       <c r="M177" t="n">
-        <v>0.09325463043953011</v>
+        <v>0.08912923296677336</v>
       </c>
       <c r="N177" t="n">
-        <v>0.106520693546627</v>
+        <v>0.108995426909039</v>
       </c>
       <c r="O177" t="n">
-        <v>0.09325761787821968</v>
+        <v>0.08902371279890087</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03447452680452529</v>
+        <v>0.03434571558788876</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09442972866467704</v>
+        <v>0.09024204160660371</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03447452680452529</v>
+        <v>0.03434571558788876</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09442972866467704</v>
+        <v>0.09024204160660371</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07800041230928695</v>
+        <v>0.06765131388539167</v>
       </c>
       <c r="M178" t="n">
-        <v>0.09408726106845448</v>
+        <v>0.08992502968969099</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1072930638223323</v>
+        <v>0.1066662316311628</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09409027518070379</v>
+        <v>0.08981856737746248</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.0371756522489621</v>
+        <v>0.03455345912412981</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09526538998029366</v>
+        <v>0.09104064374471524</v>
       </c>
       <c r="J179" t="n">
-        <v>0.0371756522489621</v>
+        <v>0.03455345912412981</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09526538998029366</v>
+        <v>0.09104064374471524</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07236448173858623</v>
+        <v>0.06887051616508658</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09491989169737886</v>
+        <v>0.0907208264126086</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1105061929418721</v>
+        <v>0.1030868331941072</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09492293248318789</v>
+        <v>0.09061342195602409</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03682735269925864</v>
+        <v>0.03404728887149509</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09610105129591028</v>
+        <v>0.09183924588282678</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03682735269925864</v>
+        <v>0.03404728887149509</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09610105129591028</v>
+        <v>0.09183924588282678</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07618305201077669</v>
+        <v>0.06963668657348149</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09575252232630324</v>
+        <v>0.09151662313552622</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1117157040253752</v>
+        <v>0.104196090939809</v>
       </c>
       <c r="O180" t="n">
-        <v>0.095755589785672</v>
+        <v>0.09140827653458572</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03599285413891146</v>
+        <v>0.03382519916110871</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09693671261152688</v>
+        <v>0.09263784802093833</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03599285413891146</v>
+        <v>0.03382519916110871</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09693671261152688</v>
+        <v>0.09263784802093833</v>
       </c>
       <c r="L181" t="n">
-        <v>0.0736278336780033</v>
+        <v>0.07102023310672176</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09658515295522761</v>
+        <v>0.09231241985844385</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1164378741634927</v>
+        <v>0.1045099235209392</v>
       </c>
       <c r="O181" t="n">
-        <v>0.0965882470881561</v>
+        <v>0.09220313111314733</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03554210662907641</v>
+        <v>0.03330133033304962</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09777237392714348</v>
+        <v>0.09343645015904985</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03554210662907641</v>
+        <v>0.03330133033304962</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09777237392714348</v>
+        <v>0.09343645015904985</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07603181603663342</v>
+        <v>0.07118680261124147</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09741778358415198</v>
+        <v>0.09310821658136145</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1106747917635834</v>
+        <v>0.1005069504278503</v>
       </c>
       <c r="O182" t="n">
-        <v>0.0974209043906402</v>
+        <v>0.09299798569170895</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03539110540395574</v>
+        <v>0.03261893480153902</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09860803524276011</v>
+        <v>0.09423505229716139</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03539110540395574</v>
+        <v>0.03261893480153902</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09860803524276011</v>
+        <v>0.09423505229716139</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07361544266492803</v>
+        <v>0.06809820620598328</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09825041421307637</v>
+        <v>0.09390401330427908</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1145342419775257</v>
+        <v>0.1034792003340492</v>
       </c>
       <c r="O183" t="n">
-        <v>0.0982535616931243</v>
+        <v>0.09379284027027056</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0349343555526285</v>
+        <v>0.03287101914047737</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09944369655837672</v>
+        <v>0.09503365443527294</v>
       </c>
       <c r="J184" t="n">
-        <v>0.0349343555526285</v>
+        <v>0.03287101914047737</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09944369655837672</v>
+        <v>0.09503365443527294</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07033174320344443</v>
+        <v>0.07001168194758248</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09908304484200074</v>
+        <v>0.0946998100271967</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1165728567928959</v>
+        <v>0.1053809272544424</v>
       </c>
       <c r="O184" t="n">
-        <v>0.0990862189956084</v>
+        <v>0.09458769484883219</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03406967756669267</v>
+        <v>0.03380560433125071</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1002793578739933</v>
+        <v>0.09583225657338447</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03406967756669267</v>
+        <v>0.03380560433125071</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1002793578739933</v>
+        <v>0.09583225657338447</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07228247754010936</v>
+        <v>0.07050876352545921</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09991567547092513</v>
+        <v>0.09549560675011431</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1138371073852726</v>
+        <v>0.1004768111965142</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09991887629809251</v>
+        <v>0.09538254942739378</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03638118429206842</v>
+        <v>0.0325893086369157</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1011150191896099</v>
+        <v>0.09663085871149601</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03638118429206842</v>
+        <v>0.0325893086369157</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1011150191896099</v>
+        <v>0.09663085871149601</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07415220318043839</v>
+        <v>0.06856897014602265</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1007483060998495</v>
+        <v>0.09629140347303194</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1185245480703536</v>
+        <v>0.1031379020189473</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1007515336005766</v>
+        <v>0.09617740400595541</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03672216302487205</v>
+        <v>0.03332131002412712</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1019506805052265</v>
+        <v>0.09742946084960753</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03672216302487205</v>
+        <v>0.03332131002412712</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1019506805052265</v>
+        <v>0.09742946084960753</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07299158590697422</v>
+        <v>0.0670650426686494</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1015809367287739</v>
+        <v>0.09708720019594956</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1151828452498633</v>
+        <v>0.1028487848248258</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1015841909030607</v>
+        <v>0.09697225858451701</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03526897660249786</v>
+        <v>0.03283031630432856</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1027863418208432</v>
+        <v>0.09822806298771908</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03526897660249786</v>
+        <v>0.03283031630432856</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1027863418208432</v>
+        <v>0.09822806298771908</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07341378006124522</v>
+        <v>0.06875066022936416</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1024135673576982</v>
+        <v>0.09788299691886718</v>
       </c>
       <c r="N188" t="n">
-        <v>0.114041379738315</v>
+        <v>0.1002095675979981</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1024168482055448</v>
+        <v>0.09776711316307864</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03409255879057975</v>
+        <v>0.03342794340700296</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1036220031364598</v>
+        <v>0.09902666512583062</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03409255879057975</v>
+        <v>0.03342794340700296</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1036220031364598</v>
+        <v>0.09902666512583062</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07753647831257357</v>
+        <v>0.06607961240766028</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1032461979866226</v>
+        <v>0.09867879364178481</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1126956773321768</v>
+        <v>0.1016227025916266</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1032495055080289</v>
+        <v>0.09856196774164025</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03488899657993499</v>
+        <v>0.03367576838887412</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1044576644520764</v>
+        <v>0.09982526726394216</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03488899657993499</v>
+        <v>0.03367576838887412</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1044576644520764</v>
+        <v>0.09982526726394216</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07351823729919404</v>
+        <v>0.06945536591169149</v>
       </c>
       <c r="M190" t="n">
-        <v>0.104078828615547</v>
+        <v>0.09947459036470241</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1106764502597692</v>
+        <v>0.101593243931646</v>
       </c>
       <c r="O190" t="n">
-        <v>0.104082162810513</v>
+        <v>0.09935682232020186</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03491751049702881</v>
+        <v>0.03243131293235371</v>
       </c>
       <c r="G191" t="n">
-        <v>0.105293325767693</v>
+        <v>0.1006238694020537</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03491751049702881</v>
+        <v>0.03243131293235371</v>
       </c>
       <c r="K191" t="n">
-        <v>0.105293325767693</v>
+        <v>0.1006238694020537</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07248050234383632</v>
+        <v>0.06637096201948872</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1049114592444714</v>
+        <v>0.10027038708762</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1137891300750769</v>
+        <v>0.1021001858905131</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1049148201129971</v>
+        <v>0.1001516768987635</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03402840013771856</v>
+        <v>0.03303461065210284</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1061289870833096</v>
+        <v>0.1014224715401652</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03402840013771856</v>
+        <v>0.03303461065210284</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1061289870833096</v>
+        <v>0.1014224715401652</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07680425814905698</v>
+        <v>0.06646722772372829</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1057440898733958</v>
+        <v>0.1010661838105377</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1115962723156902</v>
+        <v>0.1034463454765348</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1057474774154812</v>
+        <v>0.1009465314773251</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.0363031244626225</v>
+        <v>0.03264011954606962</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1069646483989262</v>
+        <v>0.1022210736782768</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0363031244626225</v>
+        <v>0.03264011954606962</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1069646483989262</v>
+        <v>0.1022210736782768</v>
       </c>
       <c r="L193" t="n">
-        <v>0.0705956998258786</v>
+        <v>0.06593439595748055</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1065767205023201</v>
+        <v>0.1018619805334553</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1085773000678687</v>
+        <v>0.1002917854517891</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1065801347179653</v>
+        <v>0.1017413860558867</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.0350163941344251</v>
+        <v>0.03275547084815197</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1078003097145428</v>
+        <v>0.1030196758163883</v>
       </c>
       <c r="J194" t="n">
-        <v>0.0350163941344251</v>
+        <v>0.03275547084815197</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1078003097145428</v>
+        <v>0.1030196758163883</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06981594405347627</v>
+        <v>0.06543418454625735</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1074093511312445</v>
+        <v>0.1026577772563729</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1177735802862636</v>
+        <v>0.09818770668036986</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1074127920204495</v>
+        <v>0.1025362406344483</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03579198595200098</v>
+        <v>0.03223748432561083</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1086359710301594</v>
+        <v>0.1038182779544998</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03579198595200098</v>
+        <v>0.03223748432561083</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1086359710301594</v>
+        <v>0.1038182779544998</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07109644794900419</v>
+        <v>0.06788348956014445</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1082419817601689</v>
+        <v>0.1034535739792905</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1115902362565669</v>
+        <v>0.09794122040518188</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1082454493229336</v>
+        <v>0.1033310952130099</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03400883801884248</v>
+        <v>0.0329241639751119</v>
       </c>
       <c r="G196" t="n">
-        <v>0.109471632345776</v>
+        <v>0.1046168800926114</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03400883801884248</v>
+        <v>0.0329241639751119</v>
       </c>
       <c r="K196" t="n">
-        <v>0.109471632345776</v>
+        <v>0.1046168800926114</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07733135818717021</v>
+        <v>0.06460726410636569</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1090746123890933</v>
+        <v>0.1042493707022081</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1111540481092465</v>
+        <v>0.1009518446121232</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1090781066254177</v>
+        <v>0.1041259497915716</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03413906481715147</v>
+        <v>0.0326973245072233</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1103072936613926</v>
+        <v>0.1054154822307229</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03413906481715147</v>
+        <v>0.0326973245072233</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1103072936613926</v>
+        <v>0.1054154822307229</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07666596925384483</v>
+        <v>0.06485283870120459</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1099072430180176</v>
+        <v>0.1050451674251257</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1036353050215869</v>
+        <v>0.09808936911479144</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1099107639279018</v>
+        <v>0.1049208043701332</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03368243239062307</v>
+        <v>0.03176447904212262</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1111429549770093</v>
+        <v>0.1062140843688344</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03368243239062307</v>
+        <v>0.03176447904212262</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1111429549770093</v>
+        <v>0.1062140843688344</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06943182300363365</v>
+        <v>0.0681574007620605</v>
       </c>
       <c r="M198" t="n">
-        <v>0.110739873646942</v>
+        <v>0.1058409641480434</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1163529617433744</v>
+        <v>0.09869346509575549</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1107434212303859</v>
+        <v>0.1057156589486948</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.0357517382043797</v>
+        <v>0.03246409477318811</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1119786162926259</v>
+        <v>0.107012686506946</v>
       </c>
       <c r="J199" t="n">
-        <v>0.0357517382043797</v>
+        <v>0.03246409477318811</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1119786162926259</v>
+        <v>0.107012686506946</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07513670082959326</v>
+        <v>0.0661369085657246</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1115725042758664</v>
+        <v>0.106636760870961</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1117130540490517</v>
+        <v>0.09743129917450505</v>
       </c>
       <c r="O199" t="n">
-        <v>0.11157607853287</v>
+        <v>0.1065105135272564</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.0333196571693313</v>
+        <v>0.03177597922259891</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1128142776082425</v>
+        <v>0.1078112886450575</v>
       </c>
       <c r="J200" t="n">
-        <v>0.0333196571693313</v>
+        <v>0.03177597922259891</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1128142776082425</v>
+        <v>0.1078112886450575</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06932156034600723</v>
+        <v>0.06671722280377088</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1124051349047908</v>
+        <v>0.1074325575938786</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1172301848991726</v>
+        <v>0.1019467391892719</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1124087358353541</v>
+        <v>0.107305368105818</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03372105243383942</v>
+        <v>0.03161999315744274</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1136499389238591</v>
+        <v>0.1086098907831691</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03372105243383942</v>
+        <v>0.03161999315744274</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1136499389238591</v>
+        <v>0.1086098907831691</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07363168721734439</v>
+        <v>0.06736574633090447</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1132377655337151</v>
+        <v>0.1082283543167962</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1131541270877366</v>
+        <v>0.09873060226933217</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1132413931378382</v>
+        <v>0.1081002226843796</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.0360235490437516</v>
+        <v>0.03261214175430374</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1144856002394757</v>
+        <v>0.1094084929212806</v>
       </c>
       <c r="J202" t="n">
-        <v>0.0360235490437516</v>
+        <v>0.03261214175430374</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1144856002394757</v>
+        <v>0.1094084929212806</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07225925347707354</v>
+        <v>0.06425169502785164</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1140703961626395</v>
+        <v>0.1090241510397139</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1156009910851952</v>
+        <v>0.09567920067046182</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1140740504403223</v>
+        <v>0.1088950772629412</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03649520251730205</v>
+        <v>0.03143202921118173</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1153212615550923</v>
+        <v>0.1102070950593921</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03649520251730205</v>
+        <v>0.03143202921118173</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1153212615550923</v>
+        <v>0.1102070950593921</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07083783428481602</v>
+        <v>0.0640652560642623</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1149030267915639</v>
+        <v>0.1098199477626315</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1159821738950289</v>
+        <v>0.1018351032697847</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1149067077428064</v>
+        <v>0.1096899318415029</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03534504458193426</v>
+        <v>0.03241424994247066</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1161569228707089</v>
+        <v>0.1110056971975037</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03534504458193426</v>
+        <v>0.03241424994247066</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1161569228707089</v>
+        <v>0.1110056971975037</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07358222788287805</v>
+        <v>0.06394471393829498</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1157356574204883</v>
+        <v>0.1106157444855491</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1076488092502858</v>
+        <v>0.09709768386050532</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1157393650452905</v>
+        <v>0.1104847864200645</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03528430042439577</v>
+        <v>0.03175098764310531</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1169925841863256</v>
+        <v>0.1118042993356152</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03528430042439577</v>
+        <v>0.03175098764310531</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1169925841863256</v>
+        <v>0.1118042993356152</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07165713286902342</v>
+        <v>0.06670789457005799</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1165682880494126</v>
+        <v>0.1114115412084667</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1130512998527021</v>
+        <v>0.1025628013902634</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1165720223477746</v>
+        <v>0.1112796409986261</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03618912959582385</v>
+        <v>0.03169336019796756</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1178282455019422</v>
+        <v>0.1126029014737267</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03618912959582385</v>
+        <v>0.03169336019796756</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1178282455019422</v>
+        <v>0.1126029014737267</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07239797873802714</v>
+        <v>0.06618403683167584</v>
       </c>
       <c r="M206" t="n">
-        <v>0.117400918678337</v>
+        <v>0.1122073379313843</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1118500733383768</v>
+        <v>0.09515389999558949</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1174046796502587</v>
+        <v>0.1120744955771877</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03332899086611153</v>
+        <v>0.03149374608553754</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1186639068175588</v>
+        <v>0.1134015036118383</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03332899086611153</v>
+        <v>0.03149374608553754</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1186639068175588</v>
+        <v>0.1134015036118383</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06956281783183491</v>
+        <v>0.06325448354589017</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1182335493072614</v>
+        <v>0.1130031346543019</v>
       </c>
       <c r="N207" t="n">
-        <v>0.110215696201628</v>
+        <v>0.0985184072670941</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1182373369527428</v>
+        <v>0.1128693501557493</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03441742622228609</v>
+        <v>0.03194737785350357</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1194995681331754</v>
+        <v>0.1142001057499498</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03441742622228609</v>
+        <v>0.03194737785350357</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1194995681331754</v>
+        <v>0.1142001057499498</v>
       </c>
       <c r="L208" t="n">
-        <v>0.07154192152409744</v>
+        <v>0.06491378150595259</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1190661799361858</v>
+        <v>0.1137989313772196</v>
       </c>
       <c r="N208" t="n">
-        <v>0.111382751632679</v>
+        <v>0.1007033410042746</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1190699942552269</v>
+        <v>0.1136642047343109</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03528603187442154</v>
+        <v>0.03148082034377821</v>
       </c>
       <c r="G209" t="n">
-        <v>0.120335229448792</v>
+        <v>0.1149987078880614</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03528603187442154</v>
+        <v>0.03148082034377821</v>
       </c>
       <c r="K209" t="n">
-        <v>0.120335229448792</v>
+        <v>0.1149987078880614</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07243630813006952</v>
+        <v>0.06554127669033716</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1198988105651101</v>
+        <v>0.1145947281001372</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1036005946616344</v>
+        <v>0.1011947811905386</v>
       </c>
       <c r="O209" t="n">
-        <v>0.119902651557711</v>
+        <v>0.1144590593128725</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03553267245114339</v>
+        <v>0.03207037398454982</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1211708907644086</v>
+        <v>0.1157973100261729</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03553267245114339</v>
+        <v>0.03207037398454982</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1211708907644086</v>
+        <v>0.1157973100261729</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07035142542476203</v>
+        <v>0.06334226989873692</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1207314411940345</v>
+        <v>0.1153905248230548</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1133790330642315</v>
+        <v>0.1001683153027114</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1207353088601951</v>
+        <v>0.1152539138914342</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03399970558545698</v>
+        <v>0.03179616721557488</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1220065520800252</v>
+        <v>0.1165959121642844</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03399970558545698</v>
+        <v>0.03179616721557488</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1220065520800252</v>
+        <v>0.1165959121642844</v>
       </c>
       <c r="L211" t="n">
-        <v>0.0724608683876353</v>
+        <v>0.06667407772719891</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1215640718229589</v>
+        <v>0.1161863215459724</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1117637225457321</v>
+        <v>0.09436293730334244</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1215679661626792</v>
+        <v>0.1160487684699958</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03295423708544622</v>
+        <v>0.03102147406391437</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1228422133956418</v>
+        <v>0.117394514302396</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03295423708544622</v>
+        <v>0.03102147406391437</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1228422133956418</v>
+        <v>0.117394514302396</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06949499528455852</v>
+        <v>0.06555247118904695</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1223967024518833</v>
+        <v>0.11698211826889</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1074514691986783</v>
+        <v>0.09705055796402695</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1224006234651633</v>
+        <v>0.1168436230485574</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03480451028953223</v>
+        <v>0.03192126243949486</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1236778747112584</v>
+        <v>0.1181931164405075</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03480451028953223</v>
+        <v>0.03192126243949486</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1236778747112584</v>
+        <v>0.1181931164405075</v>
       </c>
       <c r="L213" t="n">
-        <v>0.07294250460847149</v>
+        <v>0.0644308849859708</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1232293330808076</v>
+        <v>0.1177779149918077</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1105578049979852</v>
+        <v>0.09563572134629689</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1232332807676474</v>
+        <v>0.117638477627119</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03532285156287085</v>
+        <v>0.03176782364908083</v>
       </c>
       <c r="G214" t="n">
-        <v>0.124513536026875</v>
+        <v>0.1189917185786191</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03532285156287085</v>
+        <v>0.03176782364908083</v>
       </c>
       <c r="K214" t="n">
-        <v>0.124513536026875</v>
+        <v>0.1189917185786191</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07225525301387434</v>
+        <v>0.06427604491470765</v>
       </c>
       <c r="M214" t="n">
-        <v>0.124061963709732</v>
+        <v>0.1185737117147253</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1006279810579304</v>
+        <v>0.09556132477721635</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1240659380701316</v>
+        <v>0.1184333322056806</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03525417208175873</v>
+        <v>0.03179404014568925</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1253491973424917</v>
+        <v>0.1197903207167306</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03525417208175873</v>
+        <v>0.03179404014568925</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1253491973424917</v>
+        <v>0.1197903207167306</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07423125482450932</v>
+        <v>0.064100491013481</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1248945943386564</v>
+        <v>0.1193695084376429</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1004672992823045</v>
+        <v>0.0952439329810712</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1248985953726156</v>
+        <v>0.1192281867842422</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03450888739851427</v>
+        <v>0.03016663861346344</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1261848586581082</v>
+        <v>0.1205889228548421</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03450888739851427</v>
+        <v>0.03016663861346344</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1261848586581082</v>
+        <v>0.1205889228548421</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07170365687674959</v>
+        <v>0.06150387181535535</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1257272249675808</v>
+        <v>0.1201653051605605</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1018135056272887</v>
+        <v>0.09450070790407533</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1257312526750997</v>
+        <v>0.1200230413628039</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03316284108675217</v>
+        <v>0.03046653392817222</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1270205199737249</v>
+        <v>0.1213875249929536</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03316284108675217</v>
+        <v>0.03046653392817222</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1270205199737249</v>
+        <v>0.1213875249929536</v>
       </c>
       <c r="L217" t="n">
-        <v>0.07026896803827312</v>
+        <v>0.06185095980075808</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1265598555965051</v>
+        <v>0.1209611018834781</v>
       </c>
       <c r="N217" t="n">
-        <v>0.09964871547447152</v>
+        <v>0.09718365547863383</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1265639099775838</v>
+        <v>0.1208178959413655</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03346928104015046</v>
+        <v>0.03059582110037834</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1278561812893415</v>
+        <v>0.1221861271310652</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03346928104015046</v>
+        <v>0.03059582110037834</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1278561812893415</v>
+        <v>0.1221861271310652</v>
       </c>
       <c r="L218" t="n">
-        <v>0.070075963075825</v>
+        <v>0.06251929077261117</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1273924862254295</v>
+        <v>0.1217568986063958</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1049774501605046</v>
+        <v>0.09870940643679782</v>
       </c>
       <c r="O218" t="n">
-        <v>0.127396567280068</v>
+        <v>0.1216127505199271</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03359971221577751</v>
+        <v>0.03082216548934794</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1286918426049581</v>
+        <v>0.1229847292691767</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03359971221577751</v>
+        <v>0.03082216548934794</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1286918426049581</v>
+        <v>0.1229847292691767</v>
       </c>
       <c r="L219" t="n">
-        <v>0.0686287068379314</v>
+        <v>0.06444885997276809</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1282251168543539</v>
+        <v>0.1225526953293134</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1098549523117013</v>
+        <v>0.09282460026504591</v>
       </c>
       <c r="O219" t="n">
-        <v>0.128229224582552</v>
+        <v>0.1224076050984887</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03366776926492697</v>
+        <v>0.03015262552255417</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1295275039205747</v>
+        <v>0.1237833314072883</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03366776926492697</v>
+        <v>0.03015262552255417</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1295275039205747</v>
+        <v>0.1237833314072883</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07043213992986522</v>
+        <v>0.06321123526988698</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1290577474832783</v>
+        <v>0.123348492052231</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1124163035165859</v>
+        <v>0.0969693283590452</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1290618818850361</v>
+        <v>0.1232024596770503</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03228205794604562</v>
+        <v>0.03010188487731609</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1303631652361913</v>
+        <v>0.1245819335453998</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03228205794604562</v>
+        <v>0.03010188487731609</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1303631652361913</v>
+        <v>0.1245819335453998</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07101406286430989</v>
+        <v>0.06413424556275385</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1298903781122027</v>
+        <v>0.1241442887751486</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1104277636302498</v>
+        <v>0.09476672913909134</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1298945391875203</v>
+        <v>0.1239973142556119</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03525338897895958</v>
+        <v>0.03017485748931688</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1311988265518079</v>
+        <v>0.1253805356835113</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03525338897895958</v>
+        <v>0.03017485748931688</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1311988265518079</v>
+        <v>0.1253805356835113</v>
       </c>
       <c r="L222" t="n">
-        <v>0.07256704848012258</v>
+        <v>0.06307835668859257</v>
       </c>
       <c r="M222" t="n">
-        <v>0.130723008741127</v>
+        <v>0.1249400854980662</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1055964732522203</v>
+        <v>0.09437938544335328</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1307271964900044</v>
+        <v>0.1247921688341735</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03404257264058283</v>
+        <v>0.03108666704996429</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1320344878674246</v>
+        <v>0.1261791378216229</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03404257264058283</v>
+        <v>0.03108666704996429</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1320344878674246</v>
+        <v>0.1261791378216229</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06648665913873819</v>
+        <v>0.0620497187638232</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1315556393700514</v>
+        <v>0.1257358822209839</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1081676187978464</v>
+        <v>0.09616465908814548</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1315598537924885</v>
+        <v>0.1255870234127351</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03317016708064015</v>
+        <v>0.03129100969153893</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1328701491830412</v>
+        <v>0.1269777399597344</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03317016708064015</v>
+        <v>0.03129100969153893</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1328701491830412</v>
+        <v>0.1269777399597344</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07078392098062797</v>
+        <v>0.06192717943956561</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1323882699989758</v>
+        <v>0.1265316789439015</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1096672796558814</v>
+        <v>0.09517699466209817</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1323925110949726</v>
+        <v>0.1263818779912968</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03499124386494355</v>
+        <v>0.03054667733136035</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1337058104986578</v>
+        <v>0.127776342097846</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03499124386494355</v>
+        <v>0.03054667733136035</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1337058104986578</v>
+        <v>0.127776342097846</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06917521818699882</v>
+        <v>0.06422068032016739</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1332209006279002</v>
+        <v>0.1273274756668191</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1035247320879741</v>
+        <v>0.09752497604760313</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1332251683974567</v>
+        <v>0.1271767325698584</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03290972187210552</v>
+        <v>0.03110771645297741</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1345414718142744</v>
+        <v>0.1285749442359575</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03290972187210552</v>
+        <v>0.03110771645297741</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1345414718142744</v>
+        <v>0.1285749442359575</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06630373268810616</v>
+        <v>0.06350744165599997</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1340535312568245</v>
+        <v>0.1281232723897367</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1095109335369988</v>
+        <v>0.09721529493704678</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1340578256999408</v>
+        <v>0.12797158714842</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03187431969043884</v>
+        <v>0.02987837141552911</v>
       </c>
       <c r="G227" t="n">
-        <v>0.135377133129891</v>
+        <v>0.129373546374069</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03187431969043884</v>
+        <v>0.02987837141552911</v>
       </c>
       <c r="K227" t="n">
-        <v>0.135377133129891</v>
+        <v>0.129373546374069</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06895726167004032</v>
+        <v>0.06165160307630074</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1348861618857489</v>
+        <v>0.1289190691126543</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1007425811241729</v>
+        <v>0.09278210752748328</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1348904830024249</v>
+        <v>0.1287664417269816</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03245921580939679</v>
+        <v>0.03003318591689776</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1362127944455076</v>
+        <v>0.1301721485121806</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03245921580939679</v>
+        <v>0.03003318591689776</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1362127944455076</v>
+        <v>0.1301721485121806</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06523112313424181</v>
+        <v>0.06174111941952035</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1357187925146733</v>
+        <v>0.1297148658355719</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1034130988195832</v>
+        <v>0.09402627046078976</v>
       </c>
       <c r="O228" t="n">
-        <v>0.135723140304909</v>
+        <v>0.1295612963055432</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03298017232995863</v>
+        <v>0.02949929559642359</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1370484557611242</v>
+        <v>0.1309707506502921</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03298017232995863</v>
+        <v>0.02949929559642359</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1370484557611242</v>
+        <v>0.1309707506502921</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06947768263230622</v>
+        <v>0.06167736068399629</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1365514231435977</v>
+        <v>0.1305106625584896</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1011157760944829</v>
+        <v>0.09190716617603384</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1365557976073931</v>
+        <v>0.1303561508841048</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03194916377239132</v>
+        <v>0.02940719562892191</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1378841170767408</v>
+        <v>0.1317693527884037</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03194916377239132</v>
+        <v>0.02940719562892191</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1378841170767408</v>
+        <v>0.1317693527884037</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06993553577550052</v>
+        <v>0.06136753321883631</v>
       </c>
       <c r="M230" t="n">
-        <v>0.137384053772522</v>
+        <v>0.1313064592814072</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1024992126071509</v>
+        <v>0.09310032381972183</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1373884549098772</v>
+        <v>0.1311510054626664</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03142176222582028</v>
+        <v>0.02945277071779671</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1387197783923574</v>
+        <v>0.1325679549265152</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03142176222582028</v>
+        <v>0.02945277071779671</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1387197783923574</v>
+        <v>0.1325679549265152</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06945875450567521</v>
+        <v>0.06173737082108319</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1382166844014464</v>
+        <v>0.1321022560043248</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09509436176999908</v>
+        <v>0.09403758829886649</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1382211122123613</v>
+        <v>0.1319458600412281</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03234742553504663</v>
+        <v>0.02923699331195308</v>
       </c>
       <c r="G232" t="n">
-        <v>0.139555439707974</v>
+        <v>0.1333665570646267</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03234742553504663</v>
+        <v>0.02923699331195308</v>
       </c>
       <c r="K232" t="n">
-        <v>0.139555439707974</v>
+        <v>0.1333665570646267</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06816042740306133</v>
+        <v>0.06392842378805816</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1390493150303708</v>
+        <v>0.1328980527272424</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1050147633737991</v>
+        <v>0.09630745862084</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1390537695148454</v>
+        <v>0.1327407146197897</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03277576682831634</v>
+        <v>0.02940605555093447</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1403911010235906</v>
+        <v>0.1341651592027382</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03277576682831634</v>
+        <v>0.02940605555093447</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1403911010235906</v>
+        <v>0.1341651592027382</v>
       </c>
       <c r="L233" t="n">
-        <v>0.0650027097358028</v>
+        <v>0.06243703294096314</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1398819456592952</v>
+        <v>0.1336938494501601</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09789062132698362</v>
+        <v>0.09085901878537145</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1398864268173295</v>
+        <v>0.1335355691983513</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03194800410526069</v>
+        <v>0.02983249894169665</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1412267623392073</v>
+        <v>0.1349637613408498</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03194800410526069</v>
+        <v>0.02983249894169665</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1412267623392073</v>
+        <v>0.1349637613408498</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06150306069666789</v>
+        <v>0.06268654051139699</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1407145762882195</v>
+        <v>0.1344896461730777</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09680748005494921</v>
+        <v>0.09088019959125132</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1407190841198136</v>
+        <v>0.1343304237769129</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03204797013620411</v>
+        <v>0.02922044294350233</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1420624236548239</v>
+        <v>0.1357623634789613</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03204797013620411</v>
+        <v>0.02922044294350233</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1420624236548239</v>
+        <v>0.1357623634789613</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06976072584479051</v>
+        <v>0.06036134133874782</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1415472069171439</v>
+        <v>0.1352854428959953</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09821669857429643</v>
+        <v>0.09012503853680492</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1415517414222977</v>
+        <v>0.1351252783554745</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03178411422614974</v>
+        <v>0.02968215862857111</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1428980849704405</v>
+        <v>0.1365609656170729</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03178411422614974</v>
+        <v>0.02968215862857111</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1428980849704405</v>
+        <v>0.1365609656170729</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06823247199013291</v>
+        <v>0.06367628784470061</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1423798375460683</v>
+        <v>0.1360812396189129</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09404942986568227</v>
+        <v>0.0938843286911033</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1423843987247818</v>
+        <v>0.1359201329340362</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03105487239283285</v>
+        <v>0.02925126962730284</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1437337462860571</v>
+        <v>0.1373595677551844</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03105487239283285</v>
+        <v>0.02925126962730284</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1437337462860571</v>
+        <v>0.1373595677551844</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06453690702515993</v>
+        <v>0.06117474345540472</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1432124681749927</v>
+        <v>0.1368770363418305</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09968598303134452</v>
+        <v>0.09156378057916698</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1432170560272659</v>
+        <v>0.1367149875125978</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.030885298385138</v>
+        <v>0.03052383495988083</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1445694076016737</v>
+        <v>0.1381581698932959</v>
       </c>
       <c r="J238" t="n">
-        <v>0.030885298385138</v>
+        <v>0.03052383495988083</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1445694076016737</v>
+        <v>0.1381581698932959</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06502132458690765</v>
+        <v>0.06071054052280858</v>
       </c>
       <c r="M238" t="n">
-        <v>0.144045098803917</v>
+        <v>0.1376728330647481</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09996560769898927</v>
+        <v>0.09502896859214327</v>
       </c>
       <c r="O238" t="n">
-        <v>0.14404971332975</v>
+        <v>0.1375098420911594</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03319515859392656</v>
+        <v>0.03005327624743991</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1454050689172903</v>
+        <v>0.1389567720314075</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03319515859392656</v>
+        <v>0.03005327624743991</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1454050689172903</v>
+        <v>0.1389567720314075</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06230766167762555</v>
+        <v>0.06108674694995048</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1448777294328414</v>
+        <v>0.1384686297876658</v>
       </c>
       <c r="N239" t="n">
-        <v>0.0955348783249011</v>
+        <v>0.09123101445094955</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1448823706322341</v>
+        <v>0.138304696669721</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03106768894134183</v>
+        <v>0.02999010875786579</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1462407302329069</v>
+        <v>0.139755374169519</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03106768894134183</v>
+        <v>0.02999010875786579</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1462407302329069</v>
+        <v>0.139755374169519</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06453927254367675</v>
+        <v>0.059438674983362</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1457103600617658</v>
+        <v>0.1392644265105834</v>
       </c>
       <c r="N240" t="n">
-        <v>0.09673557770495328</v>
+        <v>0.09455334734843157</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1457150279347182</v>
+        <v>0.1390995512482826</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.0333772937126649</v>
+        <v>0.02891056849491415</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1470763915485235</v>
+        <v>0.1405539763076306</v>
       </c>
       <c r="J241" t="n">
-        <v>0.0333772937126649</v>
+        <v>0.02891056849491415</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1470763915485235</v>
+        <v>0.1405539763076306</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06046369022357023</v>
+        <v>0.05996588864797539</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1465429906906902</v>
+        <v>0.140060223233501</v>
       </c>
       <c r="N241" t="n">
-        <v>0.0948833474670186</v>
+        <v>0.0961267083475264</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1465476852372024</v>
+        <v>0.1398944058268442</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03243135152632784</v>
+        <v>0.02964160152692699</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1479120528641402</v>
+        <v>0.1413525784457421</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03243135152632784</v>
+        <v>0.02964160152692699</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1479120528641402</v>
+        <v>0.1413525784457421</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06710371074482654</v>
+        <v>0.05986487814968847</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1473756213196145</v>
+        <v>0.1408560199564186</v>
       </c>
       <c r="N242" t="n">
-        <v>0.09920733148271926</v>
+        <v>0.09222554351874451</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1473803425396865</v>
+        <v>0.1406892604054058</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03166921185469081</v>
+        <v>0.02978729698645627</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1487477141797568</v>
+        <v>0.1421511805838536</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03166921185469081</v>
+        <v>0.02978729698645627</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1487477141797568</v>
+        <v>0.1421511805838536</v>
       </c>
       <c r="L243" t="n">
-        <v>0.0608433327041803</v>
+        <v>0.05994120511892473</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1482082519485389</v>
+        <v>0.1416518166793362</v>
       </c>
       <c r="N243" t="n">
-        <v>0.09364767091774429</v>
+        <v>0.09450401448751733</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1482129998421706</v>
+        <v>0.1414841149839675</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03273155748060599</v>
+        <v>0.02874596563552168</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1495833754953734</v>
+        <v>0.1429497827219652</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03273155748060599</v>
+        <v>0.02874596563552168</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1495833754953734</v>
+        <v>0.1429497827219652</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06888397702306767</v>
+        <v>0.06178765440781986</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1490408825774633</v>
+        <v>0.1424476134022539</v>
       </c>
       <c r="N244" t="n">
-        <v>0.09575128220423496</v>
+        <v>0.09095678651912398</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1490456571446547</v>
+        <v>0.1422789695625291</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03230177820274446</v>
+        <v>0.0292495042741128</v>
       </c>
       <c r="G245" t="n">
-        <v>0.15041903681099</v>
+        <v>0.1437483848600767</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03230177820274446</v>
+        <v>0.0292495042741128</v>
       </c>
       <c r="K245" t="n">
-        <v>0.15041903681099</v>
+        <v>0.1437483848600767</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06894663310583926</v>
+        <v>0.06206612462211669</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1498735132063877</v>
+        <v>0.1432434101251715</v>
       </c>
       <c r="N245" t="n">
-        <v>0.0934427370766307</v>
+        <v>0.09050085067709462</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1498783144471388</v>
+        <v>0.1430738241410907</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03312219602847132</v>
+        <v>0.0299829880147176</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1512546981266066</v>
+        <v>0.1445469869981882</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03312219602847132</v>
+        <v>0.0299829880147176</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1512546981266066</v>
+        <v>0.1445469869981882</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06028225071558532</v>
+        <v>0.06055330142922538</v>
       </c>
       <c r="M246" t="n">
-        <v>0.150706143835312</v>
+        <v>0.1440392068480891</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1034235390761008</v>
+        <v>0.08801583156054543</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1507109717496229</v>
+        <v>0.1438686787196523</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03152904945082258</v>
+        <v>0.02956216383320869</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1520903594422232</v>
+        <v>0.1453455891362998</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03152904945082258</v>
+        <v>0.02956216383320869</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1520903594422232</v>
+        <v>0.1453455891362998</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06447409145932539</v>
+        <v>0.05856207260985058</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1515387744642364</v>
+        <v>0.1448350035710067</v>
       </c>
       <c r="N247" t="n">
-        <v>0.09346806427243298</v>
+        <v>0.0914155150952416</v>
       </c>
       <c r="O247" t="n">
-        <v>0.151543629052107</v>
+        <v>0.1446635332982139</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03149926351772256</v>
+        <v>0.02937970239591908</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1529260207578398</v>
+        <v>0.1461441912744113</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03149926351772256</v>
+        <v>0.02937970239591908</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1529260207578398</v>
+        <v>0.1461441912744113</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06398058120269048</v>
+        <v>0.0595905729521623</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1523714050931608</v>
+        <v>0.1456308002939243</v>
       </c>
       <c r="N248" t="n">
-        <v>0.0950732602480629</v>
+        <v>0.09348658171503693</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1523762863545911</v>
+        <v>0.1454583878767755</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03260928965773131</v>
+        <v>0.02938509365130515</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1537616820734564</v>
+        <v>0.1469427934125228</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03260928965773131</v>
+        <v>0.02938509365130515</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1537616820734564</v>
+        <v>0.1469427934125228</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06008064996928494</v>
+        <v>0.06176529616126733</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1532040357220852</v>
+        <v>0.146426597016842</v>
       </c>
       <c r="N249" t="n">
-        <v>0.09594161151836028</v>
+        <v>0.09332478368371211</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1532089436570752</v>
+        <v>0.1462532424553371</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03003479025536647</v>
+        <v>0.02835172897356596</v>
       </c>
       <c r="G250" t="n">
-        <v>0.154597343389073</v>
+        <v>0.1477413955506344</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03003479025536647</v>
+        <v>0.02835172897356596</v>
       </c>
       <c r="K250" t="n">
-        <v>0.154597343389073</v>
+        <v>0.1477413955506344</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06611335868556906</v>
+        <v>0.05886245103289994</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1540366663510096</v>
+        <v>0.1472223937397596</v>
       </c>
       <c r="N250" t="n">
-        <v>0.09645180605439047</v>
+        <v>0.09054858004873151</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1540416009595593</v>
+        <v>0.1470480970338988</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03020878796263746</v>
+        <v>0.02969075565137647</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1554330047046897</v>
+        <v>0.1485399976887459</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03020878796263746</v>
+        <v>0.02969075565137647</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1554330047046897</v>
+        <v>0.1485399976887459</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06612781102080983</v>
+        <v>0.05922698957752687</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1548692969799339</v>
+        <v>0.1480181904626772</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1047455900038949</v>
+        <v>0.0894015525681589</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1548742582620434</v>
+        <v>0.1478429516124604</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03136907157063613</v>
+        <v>0.02929498662095976</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1562686660203063</v>
+        <v>0.1493385998268575</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03136907157063613</v>
+        <v>0.02929498662095976</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1562686660203063</v>
+        <v>0.1493385998268575</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06673255622582469</v>
+        <v>0.05990128982438567</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1557019276088583</v>
+        <v>0.1488139871855948</v>
       </c>
       <c r="N252" t="n">
-        <v>0.09896347695644936</v>
+        <v>0.08919208702582243</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1557069155645275</v>
+        <v>0.148637806191022</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03161154795778408</v>
+        <v>0.02888520657448729</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1571043273359229</v>
+        <v>0.150137201964969</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03161154795778408</v>
+        <v>0.02888520657448729</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1571043273359229</v>
+        <v>0.150137201964969</v>
       </c>
       <c r="L253" t="n">
-        <v>0.0623897250100075</v>
+        <v>0.0595055199338676</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1565345582377827</v>
+        <v>0.1496097839085124</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1043718602183569</v>
+        <v>0.0903113789238536</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1565395728670116</v>
+        <v>0.1494326607695836</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03092901490148094</v>
+        <v>0.02846162401687088</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1579399886515395</v>
+        <v>0.1509358041030805</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03092901490148094</v>
+        <v>0.02846162401687088</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1579399886515395</v>
+        <v>0.1509358041030805</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06146350926231792</v>
+        <v>0.0584950448197403</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1573671888667071</v>
+        <v>0.1504055806314301</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1015864841929492</v>
+        <v>0.08818505481889444</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1573722301694957</v>
+        <v>0.1502275153481452</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02969038737359454</v>
+        <v>0.02798266859626547</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1587756499671561</v>
+        <v>0.1517344062411921</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02969038737359454</v>
+        <v>0.02798266859626547</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1587756499671561</v>
+        <v>0.1517344062411921</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06110666077063484</v>
+        <v>0.05715858490809808</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1581998194956314</v>
+        <v>0.1512013773543477</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1026031280579816</v>
+        <v>0.08990129854462581</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1582048874719798</v>
+        <v>0.1510223699267068</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03039279551372584</v>
+        <v>0.02833354661049697</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1596113112827727</v>
+        <v>0.1525330083793036</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03039279551372584</v>
+        <v>0.02833354661049697</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1596113112827727</v>
+        <v>0.1525330083793036</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06110891971116128</v>
+        <v>0.05808630757375252</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1590324501245558</v>
+        <v>0.1519971740772653</v>
       </c>
       <c r="N256" t="n">
-        <v>0.09611280331960265</v>
+        <v>0.0918203070393907</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1590375447744639</v>
+        <v>0.1518172245052684</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02948710778628601</v>
+        <v>0.02943668530280284</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1604469725983893</v>
+        <v>0.1533316105174151</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02948710778628601</v>
+        <v>0.02943668530280284</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1604469725983893</v>
+        <v>0.1533316105174151</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06490493278781842</v>
+        <v>0.05887647025761689</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1598650807534802</v>
+        <v>0.1527929708001829</v>
       </c>
       <c r="N257" t="n">
-        <v>0.09183125278786131</v>
+        <v>0.09290825477890868</v>
       </c>
       <c r="O257" t="n">
-        <v>0.159870202076948</v>
+        <v>0.15261207908383</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03081620612208023</v>
+        <v>0.02909501523768819</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1612826339140059</v>
+        <v>0.1541302126555267</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03081620612208023</v>
+        <v>0.02909501523768819</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1612826339140059</v>
+        <v>0.1541302126555267</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06497277071506014</v>
+        <v>0.05977847724178614</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1606977113824046</v>
+        <v>0.1535887675231005</v>
       </c>
       <c r="N258" t="n">
-        <v>0.09761442555660954</v>
+        <v>0.09148686870688816</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1607028593794321</v>
+        <v>0.1534069336623917</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02977720146263715</v>
+        <v>0.02855424048889399</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1621182952296225</v>
+        <v>0.1549288147936382</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02977720146263715</v>
+        <v>0.02855424048889399</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1621182952296225</v>
+        <v>0.1549288147936382</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06430383904210377</v>
+        <v>0.05811249103741353</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1615303420113289</v>
+        <v>0.1543845642460182</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1035020153331193</v>
+        <v>0.09248513925238377</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1615355166819162</v>
+        <v>0.1542017882409533</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.03137019668402016</v>
+        <v>0.02898307629875077</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1629539565452391</v>
+        <v>0.1557274169317498</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03137019668402016</v>
+        <v>0.02898307629875077</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1629539565452391</v>
+        <v>0.1557274169317498</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06646518848425706</v>
+        <v>0.05680208808894452</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1623629726402533</v>
+        <v>0.1551803609689358</v>
       </c>
       <c r="N260" t="n">
-        <v>0.09800670925137905</v>
+        <v>0.09179121011827812</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1623681739844003</v>
+        <v>0.1549966428195149</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.0301723557439347</v>
+        <v>0.02855666714437322</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1637896178608557</v>
+        <v>0.1565260190698613</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0301723557439347</v>
+        <v>0.02855666714437322</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1637896178608557</v>
+        <v>0.1565260190698613</v>
       </c>
       <c r="L261" t="n">
-        <v>0.06346365318491512</v>
+        <v>0.0601723392314393</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1631956032691777</v>
+        <v>0.1559761576918534</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1038827119248212</v>
+        <v>0.08653267827679817</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1632008312868844</v>
+        <v>0.1557914973980765</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03159882151004413</v>
+        <v>0.02837059180758934</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1646252791764724</v>
+        <v>0.1573246212079729</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03159882151004413</v>
+        <v>0.02837059180758934</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1646252791764724</v>
+        <v>0.1573246212079729</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06431086658572205</v>
+        <v>0.06060980149722409</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1640282338981021</v>
+        <v>0.156771954414771</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1001657783215638</v>
+        <v>0.08870754783094986</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1640334885893685</v>
+        <v>0.1565863519766381</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03171744540070123</v>
+        <v>0.0292089573630445</v>
       </c>
       <c r="G263" t="n">
-        <v>0.165460940492089</v>
+        <v>0.1581232233460844</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03171744540070123</v>
+        <v>0.0292089573630445</v>
       </c>
       <c r="K263" t="n">
-        <v>0.165460940492089</v>
+        <v>0.1581232233460844</v>
       </c>
       <c r="L263" t="n">
-        <v>0.06130059923017223</v>
+        <v>0.05970054147417794</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1648608645270264</v>
+        <v>0.1575677511376886</v>
       </c>
       <c r="N263" t="n">
-        <v>0.0916980248994716</v>
+        <v>0.09195126432781547</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1648661458918526</v>
+        <v>0.1573812065551997</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03246925526314581</v>
+        <v>0.02847043378977786</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1662966018077056</v>
+        <v>0.1589218254841959</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03246925526314581</v>
+        <v>0.02847043378977786</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1662966018077056</v>
+        <v>0.1589218254841959</v>
       </c>
       <c r="L264" t="n">
-        <v>0.06446302919629116</v>
+        <v>0.05776152627051762</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1656934951559508</v>
+        <v>0.1583635478606062</v>
       </c>
       <c r="N264" t="n">
-        <v>0.09937734572506346</v>
+        <v>0.09022011515193551</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1656988031943368</v>
+        <v>0.1581760611337614</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1057.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1057.xlsx
@@ -4882,7 +4882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="S81" sqref="S81"/>
@@ -8809,7 +8809,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.06746816462443581</v>
+        <v>0.1006139320975862</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9256,10 +9256,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9274,29 +9274,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>-3.000000000000225e-05</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>-3.000000000000225e-05</v>
+        <v>-0.0003599999999999992</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.01764617397438861</v>
+        <v>0.0005700000000000149</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0003882517409919428</v>
+        <v>0</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.02182281410841119</v>
+        <v>0.02891522869364482</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0002669437362361514</v>
+        <v>0.0003637108406217562</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9316,29 +9316,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.007860674080996111</v>
+        <v>0.009534698318798336</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005240410083960336</v>
+        <v>0.0005561715176697933</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.007860674080996111</v>
+        <v>0.00803535572724047</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0005240410083960336</v>
+        <v>0.0005356863641381677</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.03601259994773187</v>
+        <v>0.02160755996863911</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001188525737730437</v>
+        <v>0.0004899636714725474</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001001039010885567</v>
+        <v>0.00102937030364648</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9356,10 +9356,10 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.01816121240506933</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.001112343035339587</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
@@ -9369,16 +9369,16 @@
         <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03718920221593472</v>
+        <v>0.03601259994773187</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001591593445835239</v>
+        <v>0.001224909178681369</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.05933327586371068</v>
+        <v>0.05577223233819611</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.00158970915712323</v>
+        <v>0.001589993893733892</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9398,29 +9398,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01880639596677346</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002395806414334612</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01880639596677346</v>
+        <v>0.01845930518839971</v>
       </c>
       <c r="K68" s="171" t="n">
         <v>0.002395806414334612</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.04081255751544219</v>
+        <v>0.04124561067067758</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002387390168752858</v>
+        <v>0.002387938662837545</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.06317026802799619</v>
+        <v>0.06065533603320089</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002384563735684844</v>
+        <v>0.002384990840600839</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9445,29 +9445,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.02021630288452402</v>
+        <v>0.0308831288469745</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003194408552446149</v>
+        <v>0.002224686070679173</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.02021630288452402</v>
+        <v>0.01973398735773041</v>
       </c>
       <c r="K69" s="171" t="n">
         <v>0.003194408552446149</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04090256775616577</v>
+        <v>0.04274549870467309</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003183186891670477</v>
+        <v>0.003183918217116727</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.06436841879365524</v>
+        <v>0.06305872683744335</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00317941831424646</v>
+        <v>0.003179987787467785</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9482,62 +9482,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0005240410083960336</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="B70" t="n">
-        <v>0.007860674080996111</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.02065896559704224</v>
+        <v>0.03644359093644176</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003993010690557687</v>
+        <v>0.002780857588348967</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02065896559704224</v>
+        <v>0.02022738832470269</v>
       </c>
       <c r="K70" s="171" t="n">
         <v>0.003993010690557687</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04251733536294403</v>
+        <v>0.04313054964719368</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003978983614588097</v>
+        <v>0.003979897771395909</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.06452963567930187</v>
+        <v>0.06898563497031979</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003974272892808075</v>
+        <v>0.00397498473433473</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02092463097767955</v>
+        <v>0.04149206577244127</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004791612828669223</v>
+        <v>0.00333702910601876</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02092463097767955</v>
+        <v>0.0214942230451234</v>
       </c>
       <c r="K71" s="171" t="n">
         <v>0.004791612828669223</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04731057957309123</v>
+        <v>0.0471719226954512</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004774780337505716</v>
+        <v>0.004775877325675091</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.07316245052622156</v>
+        <v>0.06868867328709483</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004769127471369689</v>
+        <v>0.004769981681201677</v>
       </c>
     </row>
     <row r="72">
@@ -9552,29 +9552,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.0218899311651622</v>
+        <v>0.04572541325551524</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.00559021496678076</v>
+        <v>0.003893200623688553</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0218899311651622</v>
+        <v>0.02277676969765809</v>
       </c>
       <c r="K72" s="171" t="n">
         <v>0.00559021496678076</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04878302273201623</v>
+        <v>0.04933676294680048</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005570577060423335</v>
+        <v>0.005571856879954273</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.07183041647101002</v>
+        <v>0.06961717640243215</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005563982049931304</v>
+        <v>0.005564978628068623</v>
       </c>
     </row>
     <row r="73">
@@ -9598,29 +9598,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02369405090783658</v>
+        <v>0.04884049328620589</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006388817104892298</v>
+        <v>0.004449372141358346</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02369405090783658</v>
+        <v>0.02361491869307801</v>
       </c>
       <c r="K73" s="171" t="n">
         <v>0.006388817104892298</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05116235105670108</v>
+        <v>0.04900195055885712</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006366373783340954</v>
+        <v>0.006367836434233454</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.07654933029058458</v>
+        <v>0.07199566086692005</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.00635883662849292</v>
+        <v>0.006359975574935569</v>
       </c>
     </row>
     <row r="74">
@@ -9635,29 +9635,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02374023391490913</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007187419243003835</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02374023391490913</v>
+        <v>0.02475856563431579</v>
       </c>
       <c r="K74" s="171" t="n">
         <v>0.007187419243003835</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04880272182242276</v>
+        <v>0.05032666223196072</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007162170506258575</v>
+        <v>0.007163815988512636</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07513902631115565</v>
+        <v>0.0795976551435344</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007153691207054534</v>
+        <v>0.007154972521802516</v>
       </c>
     </row>
     <row r="75">
@@ -9679,29 +9679,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02467685480297484</v>
+        <v>0.05124516877195633</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007986021381115373</v>
+        <v>0.005561715176697933</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02467685480297484</v>
+        <v>0.02479924228847596</v>
       </c>
       <c r="K75" s="171" t="n">
         <v>0.007986021381115373</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05414318896792039</v>
+        <v>0.05050843652954098</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007957967229176193</v>
+        <v>0.007959795542791817</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07745738833118521</v>
+        <v>0.08198721186886232</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00794854578561615</v>
+        <v>0.00794996946866946</v>
       </c>
     </row>
     <row r="76">
@@ -9721,29 +9721,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02490089101193178</v>
+        <v>0.05193486225656946</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.00878462351922691</v>
+        <v>0.006117886694367726</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02490089101193178</v>
+        <v>0.02587495749921159</v>
       </c>
       <c r="K76" s="171" t="n">
         <v>0.00878462351922691</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05303667048314803</v>
+        <v>0.05461815903477021</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008753763952093813</v>
+        <v>0.008755775097070999</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.08040950571750749</v>
+        <v>0.07757791488712157</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008743400364177764</v>
+        <v>0.008744966415536409</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9758,28 +9758,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02548090250923141</v>
+        <v>0.05261207473045341</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009583225657338447</v>
+        <v>0.00667405821203752</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02548090250923141</v>
+        <v>0.02570901711211228</v>
       </c>
       <c r="K77" t="n">
         <v>0.009583225657338447</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05329222832251371</v>
+        <v>0.05240938454058613</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009549560675011433</v>
+        <v>0.009551754651350181</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08502909943204262</v>
+        <v>0.08529614722425466</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009538254942739377</v>
+        <v>0.009539963362403354</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9798,28 +9798,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.0257759227929118</v>
+        <v>0.05327691334593873</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01038182779544998</v>
+        <v>0.007230229729707312</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0257759227929118</v>
+        <v>0.02561311411156739</v>
       </c>
       <c r="K78" t="n">
         <v>0.01038182779544998</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05634538125707875</v>
+        <v>0.05555505878743794</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01034535739792905</v>
+        <v>0.01034773420562936</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08592142774466144</v>
+        <v>0.08509438890333798</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01033310952130099</v>
+        <v>0.0103349603092703</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9840,28 +9840,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02751976325393436</v>
+        <v>0.05392948525535586</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01118042993356152</v>
+        <v>0.007786401247377107</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02751976325393436</v>
+        <v>0.02673941198164867</v>
       </c>
       <c r="K79" t="n">
         <v>0.01118042993356152</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05485967326985688</v>
+        <v>0.05541698947585247</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01114115412084667</v>
+        <v>0.01114371375990855</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08341552344542641</v>
+        <v>0.08358370756340205</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01112796409986261</v>
+        <v>0.01112995725613725</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9871,28 +9871,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02779325057556806</v>
+        <v>0.05456989761103528</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01197903207167306</v>
+        <v>0.0083425727650469</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02779325057556806</v>
+        <v>0.02681466063067608</v>
       </c>
       <c r="K80" t="n">
         <v>0.01197903207167306</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05659548128515335</v>
+        <v>0.05777089777360331</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01193695084376429</v>
+        <v>0.01193969331418773</v>
       </c>
       <c r="N80" t="n">
-        <v>0.09053555488943049</v>
+        <v>0.08460188286195502</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01192281867842422</v>
+        <v>0.01192495420300419</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9908,28 +9908,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0272897250402315</v>
+        <v>0.0551982575653075</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0127776342097846</v>
+        <v>0.008898744282716692</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0272897250402315</v>
+        <v>0.02675358672325463</v>
       </c>
       <c r="K81" t="n">
         <v>0.0127776342097846</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05727176356785715</v>
+        <v>0.05524567137146164</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01273274756668191</v>
+        <v>0.01273567286846691</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08618788345032041</v>
+        <v>0.08994366254947683</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01271767325698584</v>
+        <v>0.01271995114987114</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9942,28 +9942,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02851406802317977</v>
+        <v>0.05581467227050298</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01357623634789613</v>
+        <v>0.009454915800386486</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02851406802317977</v>
+        <v>0.02763340951669753</v>
       </c>
       <c r="K82" t="n">
         <v>0.01357623634789613</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05703244019070605</v>
+        <v>0.05698463210212917</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01352854428959953</v>
+        <v>0.01353165242274609</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08623607613266049</v>
+        <v>0.08895892841253911</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01351252783554745</v>
+        <v>0.01351494809673809</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9973,28 +9973,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02775997204458497</v>
+        <v>0.05641924887895221</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01437483848600767</v>
+        <v>0.01001108731805628</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02775997204458497</v>
+        <v>0.02833609034662161</v>
       </c>
       <c r="K83" t="n">
         <v>0.01437483848600767</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05786419442579091</v>
+        <v>0.06039695222381122</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01432434101251715</v>
+        <v>0.01432763197702527</v>
       </c>
       <c r="N83" t="n">
-        <v>0.09111865436289379</v>
+        <v>0.08753803089520357</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01430738241410907</v>
+        <v>0.01430994504360503</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10009,28 +10009,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02833708526976043</v>
+        <v>0.05701209454298568</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01517344062411921</v>
+        <v>0.01056725883572607</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02833708526976043</v>
+        <v>0.02889161997135524</v>
       </c>
       <c r="K84" t="n">
         <v>0.01517344062411921</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0610089872893835</v>
+        <v>0.05887035121088524</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01512013773543477</v>
+        <v>0.01512361153130445</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09214303352239944</v>
+        <v>0.08802772114259177</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01510223699267068</v>
+        <v>0.01510494199047198</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10049,28 +10049,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02873384037991578</v>
+        <v>0.05759331641493387</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01597204276223075</v>
+        <v>0.01112343035339587</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02873384037991578</v>
+        <v>0.02889797155030432</v>
       </c>
       <c r="K85" t="n">
         <v>0.01597204276223075</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05909773672711802</v>
+        <v>0.0609420835382754</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01591593445835239</v>
+        <v>0.01591959108558363</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0917499648311208</v>
+        <v>0.09376118299993985</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0158970915712323</v>
+        <v>0.01589993893733892</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10091,28 +10091,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02893831811926388</v>
+        <v>0.05816302164712729</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01677064490034228</v>
+        <v>0.01167960187106566</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02893831811926388</v>
+        <v>0.02815571459640091</v>
       </c>
       <c r="K86" t="n">
         <v>0.01677064490034228</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05980402986859598</v>
+        <v>0.06073352265273257</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01671173118127001</v>
+        <v>0.01671557063986282</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09299990308318551</v>
+        <v>0.08963758754610979</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01669194614979391</v>
+        <v>0.01669493588420587</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10122,28 +10122,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02990693946261666</v>
+        <v>0.0587213173918964</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01756924703845382</v>
+        <v>0.01223577338873545</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02990693946261666</v>
+        <v>0.02863037612578283</v>
       </c>
       <c r="K87" t="n">
         <v>0.01756924703845382</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05942985001738676</v>
+        <v>0.05993681261383438</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01750752790418763</v>
+        <v>0.017511550194142</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0904770173903463</v>
+        <v>0.09468328520066349</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01748680072835553</v>
+        <v>0.01748993283107282</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10157,28 +10157,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02906423794219984</v>
+        <v>0.0592683108015717</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01836784917656535</v>
+        <v>0.01279194490640525</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02906423794219984</v>
+        <v>0.02978695771865042</v>
       </c>
       <c r="K88" t="n">
         <v>0.01836784917656535</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0620505114977947</v>
+        <v>0.06055453954253054</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01830332462710525</v>
+        <v>0.01830752974842118</v>
       </c>
       <c r="N88" t="n">
-        <v>0.092660141286867</v>
+        <v>0.09243748517376099</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01828165530691714</v>
+        <v>0.01828492977793976</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10191,4780 +10191,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03012233800391009</v>
+        <v>0.05980410902848367</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01916645131467689</v>
+        <v>0.01334811642407504</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03012233800391009</v>
+        <v>0.0295359665043103</v>
       </c>
       <c r="K89" t="n">
         <v>0.01916645131467689</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06014450822462308</v>
+        <v>0.05989559303107897</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01909912135002287</v>
+        <v>0.01910350930270036</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08995952621743664</v>
+        <v>0.09224884104487618</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01907650988547875</v>
+        <v>0.01907992672480671</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03058321894748152</v>
+        <v>0.06032881922496279</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01996505345278843</v>
+        <v>0.01390428794174483</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03058321894748152</v>
+        <v>0.03024299646781754</v>
       </c>
       <c r="K90" t="n">
         <v>0.01996505345278843</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06300476402911259</v>
+        <v>0.06206353746700716</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01989491807294048</v>
+        <v>0.01989948885697955</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09092267593747377</v>
+        <v>0.09674807121615847</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01987136446404037</v>
+        <v>0.01987492367167365</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03058120641431307</v>
+        <v>0.06084254854333954</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02076365559089997</v>
+        <v>0.01446045945941462</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03058120641431307</v>
+        <v>0.02921902871861465</v>
       </c>
       <c r="K91" t="n">
         <v>0.02076365559089997</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06123446597015736</v>
+        <v>0.05979439573610629</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0206907147958581</v>
+        <v>0.02069546841125873</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09694236353640834</v>
+        <v>0.09730930545988026</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02066621904260199</v>
+        <v>0.0206699206185406</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03007811391392126</v>
+        <v>0.06134540413594443</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02156225772901151</v>
+        <v>0.01501663097708442</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03007811391392126</v>
+        <v>0.03101238811657935</v>
       </c>
       <c r="K92" t="n">
         <v>0.02156225772901151</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06350354718179529</v>
+        <v>0.06347450122440659</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02148651151877572</v>
+        <v>0.02149144796553791</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09488178663161762</v>
+        <v>0.09233376697160478</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0214610736211636</v>
+        <v>0.02146491756540755</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03002624590302824</v>
+        <v>0.06183749315510791</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02236085986712304</v>
+        <v>0.01557280249475421</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03002624590302824</v>
+        <v>0.02964807599072153</v>
       </c>
       <c r="K93" t="n">
         <v>0.02236085986712304</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06317267971675761</v>
+        <v>0.06295461329944843</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02228230824169334</v>
+        <v>0.02228742751981709</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09247236023833189</v>
+        <v>0.09148413982815251</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02225592819972522</v>
+        <v>0.02225991451227449</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02988345949536067</v>
+        <v>0.06231892275316048</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02315946200523458</v>
+        <v>0.01612897401242401</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02988345949536067</v>
+        <v>0.03053651096210025</v>
       </c>
       <c r="K94" t="n">
         <v>0.02315946200523458</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06244180762858395</v>
+        <v>0.06323041669727655</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02307810496461096</v>
+        <v>0.02308340707409627</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09373828550785229</v>
+        <v>0.09697238867558755</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02305078277828683</v>
+        <v>0.02305491145914144</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03000672997864517</v>
+        <v>0.06278980008243265</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02395806414334612</v>
+        <v>0.0166851455300938</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03000672997864517</v>
+        <v>0.03027331136892135</v>
       </c>
       <c r="K95" t="n">
         <v>0.02395806414334612</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06215100891697428</v>
+        <v>0.06543764353336842</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02387390168752858</v>
+        <v>0.02387938662837545</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09836952918972375</v>
+        <v>0.09662678717862705</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02384563735684845</v>
+        <v>0.02384990840600839</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03021353298680687</v>
+        <v>0.06325023229525488</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02475666628145766</v>
+        <v>0.01724131704776359</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03021353298680687</v>
+        <v>0.03117376634582933</v>
       </c>
       <c r="K96" t="n">
         <v>0.02475666628145766</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06393712362423676</v>
+        <v>0.0643888828722434</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0246696984104462</v>
+        <v>0.02467536618265464</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0939531957885491</v>
+        <v>0.09880352636429524</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02464049193541006</v>
+        <v>0.02464490535287533</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03093548336950334</v>
+        <v>0.06370032654395764</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02555526841956919</v>
+        <v>0.01779748856543338</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03093548336950334</v>
+        <v>0.03127871955428252</v>
       </c>
       <c r="K97" t="n">
         <v>0.02555526841956919</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06475550878369296</v>
+        <v>0.06448745119760482</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02546549513336382</v>
+        <v>0.02547134573693382</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09337553467230819</v>
+        <v>0.09365450194356156</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02543534651397168</v>
+        <v>0.02543990229974228</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03068113457119034</v>
+        <v>0.06414018998087144</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02635387055768073</v>
+        <v>0.01835366008310318</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03068113457119034</v>
+        <v>0.03156944462077153</v>
       </c>
       <c r="K98" t="n">
         <v>0.02635387055768073</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06428986975658424</v>
+        <v>0.06324232618550302</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02626129185628144</v>
+        <v>0.026267325291213</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09847386667234764</v>
+        <v>0.09628361112361372</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02623020109253329</v>
+        <v>0.02623489924660922</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03161888535653759</v>
+        <v>0.06456992975832677</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02715247269579226</v>
+        <v>0.01890983160077297</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03161888535653759</v>
+        <v>0.03141551175833368</v>
       </c>
       <c r="K99" t="n">
         <v>0.02715247269579226</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06305792470044733</v>
+        <v>0.06241192997968228</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02705708857919906</v>
+        <v>0.02706330484549218</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1000516486118154</v>
+        <v>0.1012150786864085</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0270250556710949</v>
+        <v>0.02702989619347617</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03065068390346666</v>
+        <v>0.06498965302865412</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02795107483390381</v>
+        <v>0.01946600311844277</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03065068390346666</v>
+        <v>0.03157950823653044</v>
       </c>
       <c r="K100" t="n">
         <v>0.02795107483390381</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06439818768988748</v>
+        <v>0.06687671908846493</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02785288530211668</v>
+        <v>0.02785928439977136</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09572284664336056</v>
+        <v>0.0985538835926294</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02781991024965652</v>
+        <v>0.02782489314034312</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03196567430195495</v>
+        <v>0.06539946694418394</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02874967697201534</v>
+        <v>0.02002217463611256</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03196567430195495</v>
+        <v>0.0305622130859327</v>
       </c>
       <c r="K101" t="n">
         <v>0.02874967697201534</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06504069527171408</v>
+        <v>0.06615262052932067</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0286486820250343</v>
+        <v>0.02865526395405054</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1017521657229384</v>
+        <v>0.09905739524701368</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02861476482821814</v>
+        <v>0.02861989008721006</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03135675360354624</v>
+        <v>0.06579947865724674</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02954827911012688</v>
+        <v>0.02057834615378235</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03135675360354624</v>
+        <v>0.03133613118622375</v>
       </c>
       <c r="K102" t="n">
         <v>0.02954827911012688</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06401556512327589</v>
+        <v>0.06679660011482666</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02944447874795192</v>
+        <v>0.02945124350832973</v>
       </c>
       <c r="N102" t="n">
-        <v>0.100758533486329</v>
+        <v>0.09758580327812838</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02940961940677975</v>
+        <v>0.02941488703407701</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03251604414099402</v>
+        <v>0.06618979532017299</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03034688124823841</v>
+        <v>0.02113451767145215</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03251604414099402</v>
+        <v>0.03147053100048307</v>
       </c>
       <c r="K103" t="n">
         <v>0.03034688124823841</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0667162028154461</v>
+        <v>0.06354490588946379</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03024027547086953</v>
+        <v>0.0302472230626089</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1030003378182384</v>
+        <v>0.1017314748116296</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03020447398534136</v>
+        <v>0.03020988398094395</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03194263995786957</v>
+        <v>0.06657052408529321</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03114548338634995</v>
+        <v>0.02169068918912194</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03194263995786957</v>
+        <v>0.03199830304546689</v>
       </c>
       <c r="K104" t="n">
         <v>0.03114548338634995</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06536621128275716</v>
+        <v>0.06384938280329072</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03103607219378715</v>
+        <v>0.03104320261688809</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09845155449789295</v>
+        <v>0.1012123390377729</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03099932856390298</v>
+        <v>0.0310048809278109</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03172549630931064</v>
+        <v>0.06694177210493786</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03194408552446149</v>
+        <v>0.02224686070679173</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03172549630931064</v>
+        <v>0.03269343855205867</v>
       </c>
       <c r="K105" t="n">
         <v>0.03194408552446149</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06518198375879011</v>
+        <v>0.06703093362927687</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03183186891670477</v>
+        <v>0.03183918217116727</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09979062905832475</v>
+        <v>0.1017334041509052</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0317941831424646</v>
+        <v>0.03179987787467784</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03192583174838419</v>
+        <v>0.06730364653143742</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03274268766257302</v>
+        <v>0.02280303222446153</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03192583174838419</v>
+        <v>0.03186013108298548</v>
       </c>
       <c r="K106" t="n">
         <v>0.03274268766257302</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06585991467471031</v>
+        <v>0.06499583995327277</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0326276656396224</v>
+        <v>0.03263516172544646</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1026465318411625</v>
+        <v>0.1024084877025848</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03258903772102621</v>
+        <v>0.03259487482154479</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0325873480388765</v>
+        <v>0.06765625451712236</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03354128980068456</v>
+        <v>0.02335920374213132</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0325873480388765</v>
+        <v>0.03159250175144446</v>
       </c>
       <c r="K107" t="n">
         <v>0.03354128980068456</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06530201968553651</v>
+        <v>0.06468406087993323</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03342346236254001</v>
+        <v>0.03343114127972564</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1002483419833007</v>
+        <v>0.09999503071526278</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03338389229958783</v>
+        <v>0.03338987176841174</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03149057975560098</v>
+        <v>0.06799970321432322</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0343398919387961</v>
+        <v>0.02391537525980111</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03149057975560098</v>
+        <v>0.03275935177830075</v>
       </c>
       <c r="K108" t="n">
         <v>0.0343398919387961</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06520231568291845</v>
+        <v>0.06549603106437282</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03421925908545763</v>
+        <v>0.03422712083400482</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09939223998337743</v>
+        <v>0.1033064859275189</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03417874687814944</v>
+        <v>0.03418486871527868</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03153339345807828</v>
+        <v>0.06833409977537044</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03513849407690764</v>
+        <v>0.0244715467774709</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03153339345807828</v>
+        <v>0.03178057446932901</v>
       </c>
       <c r="K109" t="n">
         <v>0.03513849407690764</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06750570780533396</v>
+        <v>0.06687434429399677</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03501505580837525</v>
+        <v>0.035023100388284</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1037885688208272</v>
+        <v>0.1027976362031197</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03497360145671106</v>
+        <v>0.03497986566214564</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03220415028372409</v>
+        <v>0.06865955135259451</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03593709621501918</v>
+        <v>0.0250277182951407</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03220415028372409</v>
+        <v>0.03249076058439024</v>
       </c>
       <c r="K110" t="n">
         <v>0.03593709621501918</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06850988269899297</v>
+        <v>0.06619492170673091</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03581085253129287</v>
+        <v>0.03581907994256318</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1026776662012562</v>
+        <v>0.1006699098351924</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03576845603527267</v>
+        <v>0.03577486260901258</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03296703562564954</v>
+        <v>0.06897616509832592</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03673569835313071</v>
+        <v>0.02558388981281049</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03296703562564954</v>
+        <v>0.03307529123768306</v>
       </c>
       <c r="K111" t="n">
         <v>0.03673569835313071</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06517120110506408</v>
+        <v>0.0669983046152168</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03660664925421049</v>
+        <v>0.03661505949684236</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1003910973885815</v>
+        <v>0.1005030944887284</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03656331061383428</v>
+        <v>0.03656985955587953</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03285393125455038</v>
+        <v>0.06928404816489518</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03753430049124225</v>
+        <v>0.02614006133048028</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03285393125455038</v>
+        <v>0.03225322783541633</v>
       </c>
       <c r="K112" t="n">
         <v>0.03753430049124225</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06629521969775368</v>
+        <v>0.06607250720659155</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03740244597712811</v>
+        <v>0.03741103905112154</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1051337482972147</v>
+        <v>0.1032444728202666</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0373581651923959</v>
+        <v>0.03736485650274647</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03192930315228767</v>
+        <v>0.06958330770463274</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03833290262935379</v>
+        <v>0.02669623284815008</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03192930315228767</v>
+        <v>0.0330142815447645</v>
       </c>
       <c r="K113" t="n">
         <v>0.03833290262935379</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06532838666680701</v>
+        <v>0.06896408784866473</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03819824270004573</v>
+        <v>0.03820701860540072</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1052176252302247</v>
+        <v>0.1010292875554884</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03815301977095751</v>
+        <v>0.03815985344961342</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03213413763892485</v>
+        <v>0.0698740508698691</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03913150476746532</v>
+        <v>0.02725240436581987</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03213413763892485</v>
+        <v>0.03232453429745041</v>
       </c>
       <c r="K114" t="n">
         <v>0.03913150476746532</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06545791558957206</v>
+        <v>0.06817359943392995</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03899403942296335</v>
+        <v>0.03900299815967991</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09891382289389222</v>
+        <v>0.102703802886406</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03894787434951913</v>
+        <v>0.03895485039648036</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03301742949936348</v>
+        <v>0.07015638481293474</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03993010690557686</v>
+        <v>0.02780857588348966</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03301742949936348</v>
+        <v>0.03218004401038387</v>
       </c>
       <c r="K115" t="n">
         <v>0.03993010690557686</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06611429808009273</v>
+        <v>0.06790827048017051</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03978983614588096</v>
+        <v>0.03979897771395909</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1054267584633467</v>
+        <v>0.1046034725005647</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03974272892808075</v>
+        <v>0.03974984734334731</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03316926099900241</v>
+        <v>0.07043041668616015</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0407287090436884</v>
+        <v>0.02836474740115946</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03316926099900241</v>
+        <v>0.03236590508991447</v>
       </c>
       <c r="K116" t="n">
         <v>0.0407287090436884</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06746657088373204</v>
+        <v>0.06821176996742392</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04058563286879859</v>
+        <v>0.04059495726823827</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1053425231252714</v>
+        <v>0.102848415990599</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04053758350664236</v>
+        <v>0.04054484429021426</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03347138675412474</v>
+        <v>0.07069625364187583</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04152731118179993</v>
+        <v>0.02892091891882925</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03347138675412474</v>
+        <v>0.03314813544087149</v>
       </c>
       <c r="K117" t="n">
         <v>0.04152731118179993</v>
       </c>
       <c r="L117" t="n">
-        <v>0.0682745116690931</v>
+        <v>0.0686442773229248</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04138142959171621</v>
+        <v>0.04139093682251745</v>
       </c>
       <c r="N117" t="n">
-        <v>0.100604233815312</v>
+        <v>0.1059495877614808</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04133243808520397</v>
+        <v>0.0413398412370812</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03270086177142698</v>
+        <v>0.07095400283241224</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04232591331991148</v>
+        <v>0.02947709043649904</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03270086177142698</v>
+        <v>0.03377197972962434</v>
       </c>
       <c r="K118" t="n">
         <v>0.04232591331991148</v>
       </c>
       <c r="L118" t="n">
-        <v>0.0700750200720511</v>
+        <v>0.06971761300389223</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04217722631463382</v>
+        <v>0.04218691637679663</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1020669359605081</v>
+        <v>0.1013126298492999</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04212729266376559</v>
+        <v>0.04213483818394815</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03300805002754871</v>
+        <v>0.07120377141009987</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04312451545802301</v>
+        <v>0.03003326195416884</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03300805002754871</v>
+        <v>0.03308336263989506</v>
       </c>
       <c r="K119" t="n">
         <v>0.04312451545802301</v>
       </c>
       <c r="L119" t="n">
-        <v>0.0680319393139262</v>
+        <v>0.06994669308748933</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04297302303755144</v>
+        <v>0.04298289593107581</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09962791390975001</v>
+        <v>0.1048900147565511</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04292214724232721</v>
+        <v>0.04292983513081509</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0325176205316111</v>
+        <v>0.07144566652726921</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04392311759613455</v>
+        <v>0.03058943347183863</v>
       </c>
       <c r="J120" t="n">
-        <v>0.0325176205316111</v>
+        <v>0.0333989394262062</v>
       </c>
       <c r="K120" t="n">
         <v>0.04392311759613455</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06915195374056959</v>
+        <v>0.06936336931084236</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04376881976046906</v>
+        <v>0.04377887548535499</v>
       </c>
       <c r="N120" t="n">
-        <v>0.106718197246561</v>
+        <v>0.103705527427871</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04371700182088882</v>
+        <v>0.04372483207768204</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03383223718012632</v>
+        <v>0.07167979533625077</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04472171973424608</v>
+        <v>0.03114560498950843</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03383223718012632</v>
+        <v>0.03256671651715404</v>
       </c>
       <c r="K121" t="n">
         <v>0.04472171973424608</v>
       </c>
       <c r="L121" t="n">
-        <v>0.0701739642622633</v>
+        <v>0.06596525208571524</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04456461648338668</v>
+        <v>0.04457485503963418</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1045636981681246</v>
+        <v>0.1066451614112027</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04451185639945043</v>
+        <v>0.04451982902454898</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03297497183729144</v>
+        <v>0.07190626498937497</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04552032187235762</v>
+        <v>0.03170177650717822</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03297497183729144</v>
+        <v>0.03343325898843133</v>
       </c>
       <c r="K122" t="n">
         <v>0.04552032187235762</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06805998289316226</v>
+        <v>0.06967123708860984</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0453604132063043</v>
+        <v>0.04537083459391336</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1058701222344513</v>
+        <v>0.1063189544757699</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04530671097801205</v>
+        <v>0.04531482597141593</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03246713020254544</v>
+        <v>0.07212518263897234</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04631892401046916</v>
+        <v>0.03225794802484801</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03246713020254544</v>
+        <v>0.03277554054941022</v>
       </c>
       <c r="K123" t="n">
         <v>0.04631892401046916</v>
       </c>
       <c r="L123" t="n">
-        <v>0.0683523151002817</v>
+        <v>0.06832938802402391</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04615620992922193</v>
+        <v>0.04616681414819255</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1047939677867557</v>
+        <v>0.1069658020628386</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04610156555657367</v>
+        <v>0.04610982291828288</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03387010786365181</v>
+        <v>0.0723366554373734</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0471175261485807</v>
+        <v>0.0328141195425178</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03387010786365181</v>
+        <v>0.03346903805100464</v>
       </c>
       <c r="K124" t="n">
         <v>0.0471175261485807</v>
       </c>
       <c r="L124" t="n">
-        <v>0.07012665784751115</v>
+        <v>0.06832209698730535</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04695200665213954</v>
+        <v>0.04696279370247172</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1052549545071635</v>
+        <v>0.1026252677114529</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04689642013513528</v>
+        <v>0.04690481986514982</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03415583220952328</v>
+        <v>0.07254079053690855</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04791612828669223</v>
+        <v>0.0333702910601876</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03415583220952328</v>
+        <v>0.03277736662995696</v>
       </c>
       <c r="K125" t="n">
         <v>0.04791612828669223</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06804514714472035</v>
+        <v>0.06866944075789416</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04774780337505716</v>
+        <v>0.04775877325675091</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1053814169847335</v>
+        <v>0.1054535198250536</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04769127471369689</v>
+        <v>0.04769981681201677</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03328873042817906</v>
+        <v>0.07273769508990836</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04871473042480377</v>
+        <v>0.03392646257785739</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03328873042817906</v>
+        <v>0.03354756610518511</v>
       </c>
       <c r="K126" t="n">
         <v>0.04871473042480377</v>
       </c>
       <c r="L126" t="n">
-        <v>0.07032816279805851</v>
+        <v>0.06878129915843145</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04854360009797478</v>
+        <v>0.04855475281103009</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1079967084603335</v>
+        <v>0.1029494433428276</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0484861292922585</v>
+        <v>0.04849481375888372</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03371691901696558</v>
+        <v>0.07292747624870324</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04951333256291531</v>
+        <v>0.03448263409552719</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03371691901696558</v>
+        <v>0.03417708377499444</v>
       </c>
       <c r="K127" t="n">
         <v>0.04951333256291531</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06931384200194973</v>
+        <v>0.06957277170165876</v>
       </c>
       <c r="M127" t="n">
-        <v>0.0493393968208924</v>
+        <v>0.04935073236530927</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1058377241521056</v>
+        <v>0.1016507513005064</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04928098387082012</v>
+        <v>0.04928981070575066</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0329313813729696</v>
+        <v>0.07311024116562373</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05031193470102685</v>
+        <v>0.03503880561319698</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0329313813729696</v>
+        <v>0.03334216336810383</v>
       </c>
       <c r="K128" t="n">
         <v>0.05031193470102685</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06802928275611997</v>
+        <v>0.06855434911168845</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05013519354381002</v>
+        <v>0.05014671191958845</v>
       </c>
       <c r="N128" t="n">
-        <v>0.10455064428744</v>
+        <v>0.1054385674481229</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05007583844938174</v>
+        <v>0.05008480765261761</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03302462575205882</v>
+        <v>0.07328609699300032</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05111053683913838</v>
+        <v>0.03559497713086677</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03302462575205882</v>
+        <v>0.03384589383419573</v>
       </c>
       <c r="K129" t="n">
         <v>0.05111053683913838</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07089298572352418</v>
+        <v>0.06992396730154138</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05093099026672764</v>
+        <v>0.05094269147386763</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1055060171158638</v>
+        <v>0.1050942203321809</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05087069302794336</v>
+        <v>0.05087980459948455</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03435823418711893</v>
+        <v>0.07345515088316344</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05190913897724992</v>
+        <v>0.03615114864853657</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03435823418711893</v>
+        <v>0.03391243136700307</v>
       </c>
       <c r="K130" t="n">
         <v>0.05190913897724992</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06780982922747555</v>
+        <v>0.07005268662595587</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05172678698964526</v>
+        <v>0.05173867102814682</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1030476812925628</v>
+        <v>0.1067577593862812</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05166554760650497</v>
+        <v>0.0516748015463515</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03434950354973212</v>
+        <v>0.07361750998844363</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05270774111536145</v>
+        <v>0.03670732016620636</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03434950354973212</v>
+        <v>0.03409696611318619</v>
       </c>
       <c r="K131" t="n">
         <v>0.05270774111536145</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07161416304649157</v>
+        <v>0.06764555745311476</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05252258371256287</v>
+        <v>0.052534650582426</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1034363390314962</v>
+        <v>0.1064311385865166</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05246040218506658</v>
+        <v>0.05246979849321844</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.0335020628379521</v>
+        <v>0.07377328146117133</v>
       </c>
       <c r="G132" t="n">
-        <v>0.053506343253473</v>
+        <v>0.03726349168387615</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0335020628379521</v>
+        <v>0.03298883603490772</v>
       </c>
       <c r="K132" t="n">
         <v>0.053506343253473</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06890639687064359</v>
+        <v>0.07072145609375124</v>
       </c>
       <c r="M132" t="n">
-        <v>0.0533183804354805</v>
+        <v>0.05333063013670519</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1036461015960378</v>
+        <v>0.1089723901889739</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0532552567636282</v>
+        <v>0.05326479544008539</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03415473044697642</v>
+        <v>0.07392257245367706</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05430494539158453</v>
+        <v>0.03781966320154594</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03415473044697642</v>
+        <v>0.03452551626569583</v>
       </c>
       <c r="K133" t="n">
         <v>0.05430494539158453</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07037078660777851</v>
+        <v>0.07023810268266795</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05411417715839811</v>
+        <v>0.05412660969098437</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1026126872503489</v>
+        <v>0.1095750575788066</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05405011134218981</v>
+        <v>0.05405979238695234</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03400126434543599</v>
+        <v>0.07406549011829129</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05510354752969607</v>
+        <v>0.03837583471921574</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03400126434543599</v>
+        <v>0.03347772055963683</v>
       </c>
       <c r="K134" t="n">
         <v>0.05510354752969607</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06946886309832692</v>
+        <v>0.07194560489993385</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05490997388131574</v>
+        <v>0.05492258924526354</v>
       </c>
       <c r="N134" t="n">
-        <v>0.103450430056599</v>
+        <v>0.1055786500375238</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05484496592075143</v>
+        <v>0.05485478933381929</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03418843330302307</v>
+        <v>0.07420214160734452</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05590214966780761</v>
+        <v>0.03893200623688553</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03418843330302307</v>
+        <v>0.03414633539407139</v>
       </c>
       <c r="K135" t="n">
         <v>0.05590214966780761</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06905649884193255</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05570577060423336</v>
+        <v>0.05571856879954272</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1102443099427557</v>
+        <v>0.1049713763690232</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05563982049931305</v>
+        <v>0.05564978628068623</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03450264916871106</v>
+        <v>0.07433263407316722</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05670075180591914</v>
+        <v>0.03948817775455532</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03450264916871106</v>
+        <v>0.03403812596441828</v>
       </c>
       <c r="K136" t="n">
         <v>0.05670075180591914</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06855066198757781</v>
+        <v>0.07141310127456629</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05650156732715097</v>
+        <v>0.05651454835382191</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1071200106031928</v>
+        <v>0.1094939616810319</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05643467507787465</v>
+        <v>0.05644478322755318</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03456266802800283</v>
+        <v>0.07445707466808987</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05749935394403068</v>
+        <v>0.04004434927222512</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03456266802800283</v>
+        <v>0.03354361307181795</v>
       </c>
       <c r="K137" t="n">
         <v>0.05749935394403068</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07230359702807174</v>
+        <v>0.07075321631332562</v>
       </c>
       <c r="M137" t="n">
-        <v>0.0572973640500686</v>
+        <v>0.05731052790810109</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1042088800201376</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05722952965643627</v>
+        <v>0.05723978017442013</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.07457557054444297</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05829795608214221</v>
+        <v>0.04060052078989491</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03370372916260955</v>
       </c>
       <c r="K138" t="n">
         <v>0.05829795608214221</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.06887219510502035</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05809316077298621</v>
+        <v>0.05810650746238027</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1052280797352119</v>
+        <v>0.1039730582453683</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05802438423499788</v>
+        <v>0.05803477712128707</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03364585740028175</v>
+        <v>0.074688228854557</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05909655822025375</v>
+        <v>0.0411566923075647</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03364585740028175</v>
+        <v>0.0337640608931256</v>
       </c>
       <c r="K139" t="n">
         <v>0.05909655822025375</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07070873624820126</v>
+        <v>0.07028557814892875</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05888895749590383</v>
+        <v>0.05890248701665945</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1065139050122171</v>
+        <v>0.110736823484214</v>
       </c>
       <c r="O139" t="n">
-        <v>0.0588192388135595</v>
+        <v>0.05882977406815402</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03442869462275737</v>
+        <v>0.07479515675076247</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0598951603583653</v>
+        <v>0.0417128638252345</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03442869462275737</v>
+        <v>0.03380918944372098</v>
       </c>
       <c r="K140" t="n">
         <v>0.0598951603583653</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07080731871868801</v>
+        <v>0.0688928856356765</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05968475421882145</v>
+        <v>0.05969846657093864</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1102042346461232</v>
+        <v>0.1043410447785016</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05961409339212112</v>
+        <v>0.05962477101502097</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03494405091720015</v>
+        <v>0.0748964613853898</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06069376249647682</v>
+        <v>0.04226903534290429</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03494405091720015</v>
+        <v>0.03405497000693053</v>
       </c>
       <c r="K141" t="n">
         <v>0.06069376249647682</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07191966361423824</v>
+        <v>0.07284599533055386</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06048055094173907</v>
+        <v>0.06049444612521781</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1106988948889927</v>
+        <v>0.1069528973435793</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06040894797068273</v>
+        <v>0.06041976796188791</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03480611000879952</v>
+        <v>0.07499224991076951</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06149236463458837</v>
+        <v>0.04282520686057409</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03480611000879952</v>
+        <v>0.0350559202173146</v>
       </c>
       <c r="K142" t="n">
         <v>0.06149236463458837</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07271769068017583</v>
+        <v>0.07018928518528117</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06127634766465669</v>
+        <v>0.061290425679497</v>
       </c>
       <c r="N142" t="n">
-        <v>0.107081530317353</v>
+        <v>0.1049520495607332</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06120380254924435</v>
+        <v>0.06121476490875486</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03537774797851179</v>
+        <v>0.07508262947923214</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06229096677269991</v>
+        <v>0.04338137837824388</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03537774797851179</v>
+        <v>0.03495770223629913</v>
       </c>
       <c r="K143" t="n">
         <v>0.06229096677269991</v>
       </c>
       <c r="L143" t="n">
-        <v>0.0719927266932554</v>
+        <v>0.07223306229535895</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0620721443875743</v>
+        <v>0.06208640523377618</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1102953358130536</v>
+        <v>0.1095908194773179</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06199865712780597</v>
+        <v>0.0620097618556218</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.0351883324710265</v>
+        <v>0.0751677072431081</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06308956891081144</v>
+        <v>0.04393754989591368</v>
       </c>
       <c r="J144" t="n">
-        <v>0.0351883324710265</v>
+        <v>0.03468551299511465</v>
       </c>
       <c r="K144" t="n">
         <v>0.06308956891081144</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07126135907602235</v>
+        <v>0.07081596386251032</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06286794111049193</v>
+        <v>0.06288238478805536</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1107506457074324</v>
+        <v>0.1106062602385089</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06279351170636757</v>
+        <v>0.06280475880248874</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03547222051345093</v>
+        <v>0.07524759035472789</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06388817104892298</v>
+        <v>0.04449372141358347</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03547222051345093</v>
+        <v>0.03518069233627912</v>
       </c>
       <c r="K145" t="n">
         <v>0.06388817104892298</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06940392372351281</v>
+        <v>0.07218212307088809</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06366373783340955</v>
+        <v>0.06367836434233454</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1044816574883826</v>
+        <v>0.1048074623052632</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0635883662849292</v>
+        <v>0.06359975574935568</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03382069380530703</v>
+        <v>0.075322385966422</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06468677318703452</v>
+        <v>0.04504989293125326</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03382069380530703</v>
+        <v>0.03458008582456649</v>
       </c>
       <c r="K146" t="n">
         <v>0.06468677318703452</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07016559392189284</v>
+        <v>0.07044147241363191</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06445953455632716</v>
+        <v>0.06447434389661373</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1089026400550281</v>
+        <v>0.111874767471625</v>
       </c>
       <c r="O146" t="n">
-        <v>0.0643832208634908</v>
+        <v>0.06439475269622263</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03408928168624303</v>
+        <v>0.07539220123052096</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06548537532514605</v>
+        <v>0.04560606444892305</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03408928168624303</v>
+        <v>0.03494917293518861</v>
       </c>
       <c r="K147" t="n">
         <v>0.06548537532514605</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07146511166871702</v>
+        <v>0.071329874921646</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06525533127924479</v>
+        <v>0.06527032345089291</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1087927263937948</v>
+        <v>0.1071025133924562</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06517807544205242</v>
+        <v>0.06518974964308959</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03535413228025878</v>
+        <v>0.07545714329935518</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06628397746325759</v>
+        <v>0.04616223596659284</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03535413228025878</v>
+        <v>0.03486037220305356</v>
       </c>
       <c r="K148" t="n">
         <v>0.06628397746325759</v>
       </c>
       <c r="L148" t="n">
-        <v>0.0733677205878274</v>
+        <v>0.07189090238657384</v>
       </c>
       <c r="M148" t="n">
-        <v>0.0660511280021624</v>
+        <v>0.06606630300517209</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1046359771618363</v>
+        <v>0.1097116355104871</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06597293002061404</v>
+        <v>0.06598474658995652</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03532971841998747</v>
+        <v>0.07551731932525522</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06708257960136912</v>
+        <v>0.04671840748426264</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03532971841998747</v>
+        <v>0.03511092714440416</v>
       </c>
       <c r="K149" t="n">
         <v>0.06708257960136912</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07058252246528057</v>
+        <v>0.07178022816404064</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06684692472508003</v>
+        <v>0.06686228255945127</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1073490252730953</v>
+        <v>0.1075422539104539</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06676778459917565</v>
+        <v>0.06677974353682348</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03492804408231971</v>
+        <v>0.0755728364605515</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06788118173948067</v>
+        <v>0.04727457900193243</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03492804408231971</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K150" t="n">
         <v>0.06788118173948067</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06944188383610214</v>
+        <v>0.0693522741907088</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06764272144799764</v>
+        <v>0.06765826211373045</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.1081732399387529</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06756263917773726</v>
+        <v>0.06757474048369043</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03406380173501812</v>
+        <v>0.0756238018575745</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0686797838775922</v>
+        <v>0.04783075051960223</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03406380173501812</v>
+        <v>0.03508255109961135</v>
       </c>
       <c r="K151" t="n">
         <v>0.0686797838775922</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07368689746028098</v>
+        <v>0.07134471582941745</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06843851817091526</v>
+        <v>0.06845424166800963</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1071879929783977</v>
+        <v>0.107553682998862</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06835749375629888</v>
+        <v>0.06836973743055737</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03413677748639282</v>
+        <v>0.0756703226686548</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06947838601570373</v>
+        <v>0.04838692203727202</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03413677748639282</v>
+        <v>0.03500758454808077</v>
       </c>
       <c r="K152" t="n">
         <v>0.06947838601570373</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07084334758597569</v>
+        <v>0.07217437481920161</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06923431489383289</v>
+        <v>0.06925022122228881</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1071964572496461</v>
+        <v>0.1109862955930099</v>
       </c>
       <c r="O152" t="n">
-        <v>0.0691523483348605</v>
+        <v>0.06916473437742432</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03544457589699203</v>
+        <v>0.07571250604612279</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07027698815381528</v>
+        <v>0.04894309355494181</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03544457589699203</v>
+        <v>0.03564839499969506</v>
       </c>
       <c r="K153" t="n">
         <v>0.07027698815381528</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07188620055075842</v>
+        <v>0.07063111670603062</v>
       </c>
       <c r="M153" t="n">
-        <v>0.0700301116167505</v>
+        <v>0.07004620077656799</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1092259134337253</v>
+        <v>0.1077249615259724</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06994720291342212</v>
+        <v>0.06995973132429127</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03434660448570089</v>
+        <v>0.07575045914230902</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07107559029192681</v>
+        <v>0.0494992650726116</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03434660448570089</v>
+        <v>0.03486853192314772</v>
       </c>
       <c r="K154" t="n">
         <v>0.07107559029192681</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07085527275586095</v>
+        <v>0.0697673363213262</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07082590833966812</v>
+        <v>0.07084218033084717</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1080790828479821</v>
+        <v>0.1058678535796134</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07074205749198373</v>
+        <v>0.07075472827115821</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03433889023272314</v>
+        <v>0.07578428910954389</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07187419243003836</v>
+        <v>0.05005543659028139</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03433889023272314</v>
+        <v>0.03441148598249825</v>
       </c>
       <c r="K155" t="n">
         <v>0.07187419243003836</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07211357988664355</v>
+        <v>0.07128092513449022</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07162170506258574</v>
+        <v>0.07163815988512637</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1058406701062058</v>
+        <v>0.1112556255746736</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07153691207054534</v>
+        <v>0.07154972521802516</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03515962129898398</v>
+        <v>0.07581410310015796</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07267279456814989</v>
+        <v>0.05061160810795119</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03515962129898398</v>
+        <v>0.03396203855240124</v>
       </c>
       <c r="K156" t="n">
         <v>0.07267279456814989</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07227354450330978</v>
+        <v>0.06938740011121242</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07241750178550337</v>
+        <v>0.07243413943940555</v>
       </c>
       <c r="N156" t="n">
-        <v>0.105385371356878</v>
+        <v>0.1057421012737924</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07233176664910695</v>
+        <v>0.0723447221648921</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03406436214333708</v>
+        <v>0.07584000826648171</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07347139670626142</v>
+        <v>0.05116777962562098</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03406436214333708</v>
+        <v>0.03457584893186585</v>
       </c>
       <c r="K157" t="n">
         <v>0.07347139670626142</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07285668737612416</v>
+        <v>0.07362282954909521</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07321329850842098</v>
+        <v>0.07323011899368471</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1109087691334976</v>
+        <v>0.1082086439724159</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07312662122766857</v>
+        <v>0.07313971911175905</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0349704818060995</v>
+        <v>0.07586211176084559</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07426999884437296</v>
+        <v>0.05172395114329078</v>
       </c>
       <c r="J158" t="n">
-        <v>0.0349704818060995</v>
+        <v>0.03520825117030102</v>
       </c>
       <c r="K158" t="n">
         <v>0.07426999884437296</v>
       </c>
       <c r="L158" t="n">
-        <v>0.0712982799909451</v>
+        <v>0.06997816676356802</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0740090952313386</v>
+        <v>0.07402609854796389</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1086278694847779</v>
+        <v>0.1115702302298694</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07392147580623019</v>
+        <v>0.073934716058626</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03424336265480803</v>
+        <v>0.07588052073558013</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0750686009824845</v>
+        <v>0.05228012266096057</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03424336265480803</v>
+        <v>0.03520087116356889</v>
       </c>
       <c r="K159" t="n">
         <v>0.0750686009824845</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07000829919959911</v>
+        <v>0.07187331747855194</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07480489195425621</v>
+        <v>0.07482207810224309</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1069382883197404</v>
+        <v>0.1063215115787105</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07471633038479179</v>
+        <v>0.07472971300549294</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.0348021775832168</v>
+        <v>0.07589534234301576</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07586720312059604</v>
+        <v>0.05283629417863037</v>
       </c>
       <c r="J160" t="n">
-        <v>0.0348021775832168</v>
+        <v>0.03523984574323376</v>
       </c>
       <c r="K160" t="n">
         <v>0.07586720312059604</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07298152165126023</v>
+        <v>0.0694427407280154</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07560068867717383</v>
+        <v>0.07561805765652227</v>
       </c>
       <c r="N160" t="n">
-        <v>0.111993355393423</v>
+        <v>0.1086953113976055</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07551118496335342</v>
+        <v>0.07552470995235989</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.034062750006113</v>
+        <v>0.075906683735483</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07666580525870757</v>
+        <v>0.05339246569630016</v>
       </c>
       <c r="J161" t="n">
-        <v>0.034062750006113</v>
+        <v>0.03442397782586287</v>
       </c>
       <c r="K161" t="n">
         <v>0.07666580525870757</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07318213100715479</v>
+        <v>0.07379375597326943</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07639648540009146</v>
+        <v>0.07641403721080145</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1098510486655545</v>
+        <v>0.1068615226086961</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07630603954191502</v>
+        <v>0.07631970689922683</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03388977311500117</v>
+        <v>0.07591465206531234</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0774644073968191</v>
+        <v>0.05394863721396995</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03388977311500117</v>
+        <v>0.03442908421402267</v>
       </c>
       <c r="K162" t="n">
         <v>0.0774644073968191</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07113478220184266</v>
+        <v>0.07090247483472029</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07719228212300908</v>
+        <v>0.07721001676508063</v>
       </c>
       <c r="N162" t="n">
-        <v>0.107137982922714</v>
+        <v>0.1057462039061495</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07710089412047665</v>
+        <v>0.07711470384609379</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03470320540425682</v>
+        <v>0.07591935448483428</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07826300953493065</v>
+        <v>0.05450480873163974</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03470320540425682</v>
+        <v>0.03520524795837164</v>
       </c>
       <c r="K163" t="n">
         <v>0.07826300953493065</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06927828388203597</v>
+        <v>0.07091025579913449</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07798807884592669</v>
+        <v>0.07800599631935982</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1096040920639609</v>
+        <v>0.1074523806126946</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07789574869903826</v>
+        <v>0.07790970079296072</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03415092118073333</v>
+        <v>0.07592089814637923</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07906161167304218</v>
+        <v>0.05506098024930954</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03415092118073333</v>
+        <v>0.03529344160931355</v>
       </c>
       <c r="K164" t="n">
         <v>0.07906161167304218</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07170572880304321</v>
+        <v>0.07267038513874982</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07878387556884432</v>
+        <v>0.078801975873639</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1060848521246381</v>
+        <v>0.1097947557357019</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07869060327759987</v>
+        <v>0.07870469773982768</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03508131310784005</v>
+        <v>0.07542089814637924</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07986021381115373</v>
+        <v>0.05506098024930954</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03508131310784005</v>
+        <v>0.0349338037616229</v>
       </c>
       <c r="K165" t="n">
         <v>0.07986021381115373</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07048766271764464</v>
+        <v>0.07195372647289111</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07957967229176192</v>
+        <v>0.07959795542791819</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1083979468148027</v>
+        <v>0.1105280685612246</v>
       </c>
       <c r="O165" t="n">
-        <v>0.0794854578561615</v>
+        <v>0.07949969468669461</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03465211786506159</v>
+        <v>0.07479456727029606</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08065881594926527</v>
+        <v>0.05509263684759427</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03465211786506159</v>
+        <v>0.03439649253362206</v>
       </c>
       <c r="K166" t="n">
         <v>0.08065881594926527</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0693427194928409</v>
+        <v>0.06947914786616291</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08037546901467955</v>
+        <v>0.08039393498219735</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1064278152649129</v>
+        <v>0.1057064873822184</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08028031243472311</v>
+        <v>0.08029469163356157</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03507808211483691</v>
+        <v>0.07416650187732679</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08145741808737679</v>
+        <v>0.05512343233106331</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03507808211483691</v>
+        <v>0.03491729476622141</v>
       </c>
       <c r="K167" t="n">
         <v>0.08145741808737679</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07259671632392256</v>
+        <v>0.07068632853910084</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08117126573759718</v>
+        <v>0.08118991453647655</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1046920111765707</v>
+        <v>0.1075864067528193</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08107516701328472</v>
+        <v>0.08108968858042852</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03387189162801182</v>
+        <v>0.07353670196747153</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08225602022548834</v>
+        <v>0.05515336669971672</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03387189162801182</v>
+        <v>0.03436241998481578</v>
       </c>
       <c r="K168" t="n">
         <v>0.08225602022548834</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07133829277285877</v>
+        <v>0.0705902656110417</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08196706246051479</v>
+        <v>0.08198589409075573</v>
       </c>
       <c r="N168" t="n">
-        <v>0.105654232966115</v>
+        <v>0.1065297662449589</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08187002159184634</v>
+        <v>0.08188468552729546</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03463798603145966</v>
+        <v>0.0729051675407302</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08305462236359987</v>
+        <v>0.05518243995355444</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03463798603145966</v>
+        <v>0.03471547731432971</v>
       </c>
       <c r="K169" t="n">
         <v>0.08305462236359987</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07165723908204763</v>
+        <v>0.06973595651678868</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08276285918343242</v>
+        <v>0.08278187364503491</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1097034267118069</v>
+        <v>0.1085259334705901</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08266487617040795</v>
+        <v>0.08267968247416241</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03500711454043728</v>
+        <v>0.07227189859710287</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08385322450171141</v>
+        <v>0.05521065209257651</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03500711454043728</v>
+        <v>0.03341077348616572</v>
       </c>
       <c r="K170" t="n">
         <v>0.08385322450171141</v>
       </c>
       <c r="L170" t="n">
-        <v>0.070233495235421</v>
+        <v>0.07245565052794745</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08355865590635003</v>
+        <v>0.08357785319931409</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1061296332891756</v>
+        <v>0.1035231731417371</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08345973074896956</v>
+        <v>0.08347467942102935</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.0337948076393367</v>
+        <v>0.07163689513658951</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08465182663982296</v>
+        <v>0.05523800311678293</v>
       </c>
       <c r="J171" t="n">
-        <v>0.0337948076393367</v>
+        <v>0.03458103394897917</v>
       </c>
       <c r="K171" t="n">
         <v>0.08465182663982296</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07203847572618147</v>
+        <v>0.0693464210138528</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08435445262926765</v>
+        <v>0.08437383275359327</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1034888040891065</v>
+        <v>0.1074518671791235</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08425458532753119</v>
+        <v>0.0842696763678963</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03422541197517215</v>
+        <v>0.0710001571591901</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08545042877793448</v>
+        <v>0.05526449302617367</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03422541197517215</v>
+        <v>0.03439890217876149</v>
       </c>
       <c r="K172" t="n">
         <v>0.08545042877793448</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06846456839901061</v>
+        <v>0.07219038463362218</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08515024935218528</v>
+        <v>0.08516981230787246</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1065428518477967</v>
+        <v>0.1055103951057734</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08504943990609279</v>
+        <v>0.08506467331476324</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0348489208647568</v>
+        <v>0.07036168466490468</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08624903091604602</v>
+        <v>0.05529012182074875</v>
       </c>
       <c r="J173" t="n">
-        <v>0.0348489208647568</v>
+        <v>0.03348480001855506</v>
       </c>
       <c r="K173" t="n">
         <v>0.08624903091604602</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06914654285080221</v>
+        <v>0.07115705350536997</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08594604607510288</v>
+        <v>0.08596579186215163</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1056160618846991</v>
+        <v>0.1065974405443998</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08584429448465442</v>
+        <v>0.08585967026163019</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03392303251502995</v>
+        <v>0.06972147765373318</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08704763305415755</v>
+        <v>0.05531488950050818</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03392303251502995</v>
+        <v>0.03333253314904072</v>
       </c>
       <c r="K174" t="n">
         <v>0.08704763305415755</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07099292655820774</v>
+        <v>0.07013443931126384</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08674184279802051</v>
+        <v>0.08676177141643081</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1070166601410266</v>
+        <v>0.1090536193510381</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08663914906321601</v>
+        <v>0.08665466720849713</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03407026189572603</v>
+        <v>0.0690795361256757</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0878462351922691</v>
+        <v>0.05533879606545194</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03407026189572603</v>
+        <v>0.03382722802340545</v>
       </c>
       <c r="K175" t="n">
         <v>0.0878462351922691</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0683683312919186</v>
+        <v>0.07157803886738229</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08753763952093813</v>
+        <v>0.08755775097070999</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1058135402574298</v>
+        <v>0.1045831400832903</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08743400364177764</v>
+        <v>0.08744966415536408</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03388356955940348</v>
+        <v>0.06843586008073217</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08864483733038064</v>
+        <v>0.05536184151558005</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03388356955940348</v>
+        <v>0.03458972292898506</v>
       </c>
       <c r="K176" t="n">
         <v>0.08864483733038064</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06785481454631229</v>
+        <v>0.06848994501799407</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08833343624385574</v>
+        <v>0.08835373052498918</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1042691575191741</v>
+        <v>0.1037371079338203</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08822885822033925</v>
+        <v>0.08824466110223103</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03380911200655937</v>
+        <v>0.0677904495189026</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08944343946849216</v>
+        <v>0.05538402585089247</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03380911200655937</v>
+        <v>0.03481543821658034</v>
       </c>
       <c r="K177" t="n">
         <v>0.08944343946849216</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07034605296547089</v>
+        <v>0.06765469713291933</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08912923296677336</v>
+        <v>0.08914971007926836</v>
       </c>
       <c r="N177" t="n">
-        <v>0.108995426909039</v>
+        <v>0.1069406948602251</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08902371279890087</v>
+        <v>0.08903965804909797</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03434571558788876</v>
+        <v>0.06714330444018703</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09024204160660371</v>
+        <v>0.05540534907138926</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03434571558788876</v>
+        <v>0.03307157749832804</v>
       </c>
       <c r="K178" t="n">
         <v>0.09024204160660371</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06765131388539167</v>
+        <v>0.06815017724676814</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08992502968969099</v>
+        <v>0.08994568963354754</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1066662316311628</v>
+        <v>0.1035029559831999</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08981856737746248</v>
+        <v>0.08983465499596492</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03455345912412981</v>
+        <v>0.06649442484458537</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09104064374471524</v>
+        <v>0.05542581117707037</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03455345912412981</v>
+        <v>0.03334737661497902</v>
       </c>
       <c r="K179" t="n">
         <v>0.09104064374471524</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06887051616508658</v>
+        <v>0.07137394580908751</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0907208264126086</v>
+        <v>0.09074166918782672</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1030868331941072</v>
+        <v>0.1078999185774951</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09061342195602409</v>
+        <v>0.09062965194283186</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03404728887149509</v>
+        <v>0.06584381073209773</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09183924588282678</v>
+        <v>0.05544541216793584</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03404728887149509</v>
+        <v>0.03363736953163392</v>
       </c>
       <c r="K180" t="n">
         <v>0.09183924588282678</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06963668657348149</v>
+        <v>0.07099132450106138</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09151662313552622</v>
+        <v>0.0915376487421059</v>
       </c>
       <c r="N180" t="n">
-        <v>0.104196090939809</v>
+        <v>0.1050435268962718</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09140827653458572</v>
+        <v>0.09142464888969881</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03382519916110871</v>
+        <v>0.06519146210272403</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09263784802093833</v>
+        <v>0.05546415204398562</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03382519916110871</v>
+        <v>0.03364109761743093</v>
       </c>
       <c r="K181" t="n">
         <v>0.09263784802093833</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07102023310672176</v>
+        <v>0.06896363915735446</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09231241985844385</v>
+        <v>0.0923336282963851</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1045099235209392</v>
+        <v>0.1028287298637773</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09220313111314733</v>
+        <v>0.09221964583656575</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03330133033304962</v>
+        <v>0.06453737895646432</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09343645015904985</v>
+        <v>0.05548203080521976</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03330133033304962</v>
+        <v>0.03364377606076197</v>
       </c>
       <c r="K182" t="n">
         <v>0.09343645015904985</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07118680261124147</v>
+        <v>0.06995690703754673</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09310821658136145</v>
+        <v>0.09312960785066426</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1005069504278503</v>
+        <v>0.1048365827947644</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09299798569170895</v>
+        <v>0.0930146427834327</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03261893480153902</v>
+        <v>0.06388156129331854</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09423505229716139</v>
+        <v>0.05549904845163822</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03261893480153902</v>
+        <v>0.03271938401848506</v>
       </c>
       <c r="K183" t="n">
         <v>0.09423505229716139</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06809820620598328</v>
+        <v>0.0663898142347582</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09390401330427908</v>
+        <v>0.09392558740494344</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1034792003340492</v>
+        <v>0.1066906042858418</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09379284027027056</v>
+        <v>0.09380963973029964</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03287101914047737</v>
+        <v>0.06322400911328677</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09503365443527294</v>
+        <v>0.05551520498324104</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03287101914047737</v>
+        <v>0.03301299013354594</v>
       </c>
       <c r="K184" t="n">
         <v>0.09503365443527294</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07001168194758248</v>
+        <v>0.06751645948678256</v>
       </c>
       <c r="M184" t="n">
-        <v>0.0946998100271967</v>
+        <v>0.09472156695922263</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1053809272544424</v>
+        <v>0.1011325288792235</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09458769484883219</v>
+        <v>0.09460463667716659</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03380560433125071</v>
+        <v>0.06256472241636896</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09583225657338447</v>
+        <v>0.05553050040002818</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03380560433125071</v>
+        <v>0.03330544522112469</v>
       </c>
       <c r="K185" t="n">
         <v>0.09583225657338447</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07050876352545921</v>
+        <v>0.06729668785140383</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09549560675011431</v>
+        <v>0.09551754651350182</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1004768111965142</v>
+        <v>0.1023738205211194</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09538254942739378</v>
+        <v>0.09539963362403354</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.0325893086369157</v>
+        <v>0.0619037012025651</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09663085871149601</v>
+        <v>0.05554493470199967</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0325893086369157</v>
+        <v>0.03348032053691065</v>
       </c>
       <c r="K186" t="n">
         <v>0.09663085871149601</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06856897014602265</v>
+        <v>0.06817801609285221</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09629140347303194</v>
+        <v>0.096313526067781</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1031379020189473</v>
+        <v>0.103010791138642</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09617740400595541</v>
+        <v>0.09619463057090048</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03332131002412712</v>
+        <v>0.06124094547187522</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09742946084960753</v>
+        <v>0.0555585078891555</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03332131002412712</v>
+        <v>0.0326057147112003</v>
       </c>
       <c r="K187" t="n">
         <v>0.09742946084960753</v>
       </c>
       <c r="L187" t="n">
-        <v>0.0670650426686494</v>
+        <v>0.07008168764430345</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09708720019594956</v>
+        <v>0.09710950562206018</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1028487848248258</v>
+        <v>0.1002956282601807</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09697225858451701</v>
+        <v>0.09698962751776743</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03283031630432856</v>
+        <v>0.0605764552242993</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09822806298771908</v>
+        <v>0.05557121996149565</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03283031630432856</v>
+        <v>0.03309625178100344</v>
       </c>
       <c r="K188" t="n">
         <v>0.09822806298771908</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06875066022936416</v>
+        <v>0.06659343561253056</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09788299691886718</v>
+        <v>0.09790548517633936</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1002095675979981</v>
+        <v>0.1012262988694086</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09776711316307864</v>
+        <v>0.09778462446463437</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03342794340700296</v>
+        <v>0.05991023045983734</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09902666512583062</v>
+        <v>0.05558307091902016</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03342794340700296</v>
+        <v>0.03358493430823704</v>
       </c>
       <c r="K189" t="n">
         <v>0.09902666512583062</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06607961240766028</v>
+        <v>0.06629156993759786</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09867879364178481</v>
+        <v>0.09870146473061854</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1016227025916266</v>
+        <v>0.1017496608769866</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09856196774164025</v>
+        <v>0.09857962141150133</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03367576838887412</v>
+        <v>0.05924227117848935</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09982526726394216</v>
+        <v>0.05559406076172899</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03367576838887412</v>
+        <v>0.03338406215122806</v>
       </c>
       <c r="K190" t="n">
         <v>0.09982526726394216</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06945536591169149</v>
+        <v>0.06558034055582035</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09947459036470241</v>
+        <v>0.09949744428489772</v>
       </c>
       <c r="N190" t="n">
-        <v>0.101593243931646</v>
+        <v>0.1035372521794414</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09935682232020186</v>
+        <v>0.09937461835836826</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03243131293235371</v>
+        <v>0.05857257738025537</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1006238694020537</v>
+        <v>0.05560418948962218</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03243131293235371</v>
+        <v>0.03186732803884787</v>
       </c>
       <c r="K191" t="n">
         <v>0.1006238694020537</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06637096201948872</v>
+        <v>0.06869357476469751</v>
       </c>
       <c r="M191" t="n">
-        <v>0.10027038708762</v>
+        <v>0.1002934238391769</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1021001858905131</v>
+        <v>0.1015445571436556</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1001516768987635</v>
+        <v>0.1001696153052352</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03303461065210284</v>
+        <v>0.05790114906513533</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1014224715401652</v>
+        <v>0.05561345710269969</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03303461065210284</v>
+        <v>0.03292768124543789</v>
       </c>
       <c r="K192" t="n">
         <v>0.1014224715401652</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06646722772372829</v>
+        <v>0.06533466623351655</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1010661838105377</v>
+        <v>0.1010894033934561</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1034463454765348</v>
+        <v>0.1035791988296426</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1009465314773251</v>
+        <v>0.1009646122521022</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03264011954606962</v>
+        <v>0.05722798623312925</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1022210736782768</v>
+        <v>0.05562186360096154</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03264011954606962</v>
+        <v>0.0329370302663229</v>
       </c>
       <c r="K193" t="n">
         <v>0.1022210736782768</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06593439595748055</v>
+        <v>0.06606752903575158</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1018619805334553</v>
+        <v>0.1018853829477353</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1002917854517891</v>
+        <v>0.1052191831390958</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1017413860558867</v>
+        <v>0.1017596091989691</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03275547084815197</v>
+        <v>0.05655308888423713</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1030196758163883</v>
+        <v>0.05562940898440773</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03275547084815197</v>
+        <v>0.03272981851172832</v>
       </c>
       <c r="K194" t="n">
         <v>0.1030196758163883</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06543418454625735</v>
+        <v>0.06679245779315135</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1026577772563729</v>
+        <v>0.1026813625020145</v>
       </c>
       <c r="N194" t="n">
-        <v>0.09818770668036986</v>
+        <v>0.1027341057717759</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1025362406344483</v>
+        <v>0.1025546061458361</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03223748432561083</v>
+        <v>0.05587645701845902</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1038182779544998</v>
+        <v>0.05563609325303828</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03223748432561083</v>
+        <v>0.03260789543849098</v>
       </c>
       <c r="K195" t="n">
         <v>0.1038182779544998</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06788348956014445</v>
+        <v>0.06609032489570069</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1034535739792905</v>
+        <v>0.1034773420562936</v>
       </c>
       <c r="N195" t="n">
-        <v>0.09794122040518188</v>
+        <v>0.102932737936794</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1033310952130099</v>
+        <v>0.103349603092703</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0329241639751119</v>
+        <v>0.05519809063579482</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1046168800926114</v>
+        <v>0.05564191640685314</v>
       </c>
       <c r="J196" t="n">
-        <v>0.0329241639751119</v>
+        <v>0.0313658751905571</v>
       </c>
       <c r="K196" t="n">
         <v>0.1046168800926114</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06460726410636569</v>
+        <v>0.06580248983394157</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1042493707022081</v>
+        <v>0.1042733216105728</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1009518446121232</v>
+        <v>0.09801204609159692</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1041259497915716</v>
+        <v>0.1041446000395699</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.0326973245072233</v>
+        <v>0.05451798973624461</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1054154822307229</v>
+        <v>0.05564687844585234</v>
       </c>
       <c r="J197" t="n">
-        <v>0.0326973245072233</v>
+        <v>0.03157707479176257</v>
       </c>
       <c r="K197" t="n">
         <v>0.1054154822307229</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06485283870120459</v>
+        <v>0.06780578206822585</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1050451674251257</v>
+        <v>0.105069301164852</v>
       </c>
       <c r="N197" t="n">
-        <v>0.09808936911479144</v>
+        <v>0.1039895158777767</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1049208043701332</v>
+        <v>0.1049395969864369</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03176447904212262</v>
+        <v>0.0538361543198084</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1062140843688344</v>
+        <v>0.0556509793700359</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03176447904212262</v>
+        <v>0.03201385598498792</v>
       </c>
       <c r="K198" t="n">
         <v>0.1062140843688344</v>
       </c>
       <c r="L198" t="n">
-        <v>0.0681574007620605</v>
+        <v>0.06419186855217174</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1058409641480434</v>
+        <v>0.1058652807191312</v>
       </c>
       <c r="N198" t="n">
-        <v>0.09869346509575549</v>
+        <v>0.09711240384351222</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1057156589486948</v>
+        <v>0.1057345939333038</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03246409477318811</v>
+        <v>0.05315258438648612</v>
       </c>
       <c r="G199" t="n">
-        <v>0.107012686506946</v>
+        <v>0.05565421917940378</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03246409477318811</v>
+        <v>0.03167745349879159</v>
       </c>
       <c r="K199" t="n">
         <v>0.107012686506946</v>
       </c>
       <c r="L199" t="n">
-        <v>0.0661369085657246</v>
+        <v>0.06399392852848246</v>
       </c>
       <c r="M199" t="n">
-        <v>0.106636760870961</v>
+        <v>0.1066612602734104</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09743129917450505</v>
+        <v>0.1018613698645912</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1065105135272564</v>
+        <v>0.1065295908801708</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03177597922259891</v>
+        <v>0.05246727993627781</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1078112886450575</v>
+        <v>0.055656597873956</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03177597922259891</v>
+        <v>0.03134739096445664</v>
       </c>
       <c r="K200" t="n">
         <v>0.1078112886450575</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06671722280377088</v>
+        <v>0.06670589058500723</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1074325575938786</v>
+        <v>0.1074572398276895</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1019467391892719</v>
+        <v>0.09992311806001203</v>
       </c>
       <c r="O200" t="n">
-        <v>0.107305368105818</v>
+        <v>0.1073245878270377</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03161999315744274</v>
+        <v>0.05178024096918349</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1086098907831691</v>
+        <v>0.05565811545369257</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03161999315744274</v>
+        <v>0.03217810953202506</v>
       </c>
       <c r="K201" t="n">
         <v>0.1086098907831691</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06736574633090447</v>
+        <v>0.06561743531326206</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1082283543167962</v>
+        <v>0.1082532193819687</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09873060226933217</v>
+        <v>0.0994332697254191</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1081002226843796</v>
+        <v>0.1081195847739047</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03261214175430374</v>
+        <v>0.05109146748520314</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1094084929212806</v>
+        <v>0.05565877191861347</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03261214175430374</v>
+        <v>0.03239072317138027</v>
       </c>
       <c r="K202" t="n">
         <v>0.1094084929212806</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06425169502785164</v>
+        <v>0.0655733375866171</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1090241510397139</v>
+        <v>0.1090491989362479</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09567920067046182</v>
+        <v>0.09889566252496168</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1088950772629412</v>
+        <v>0.1089145817207716</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03143202921118173</v>
+        <v>0.05040095948433673</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1102070950593921</v>
+        <v>0.05565856726871871</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03143202921118173</v>
+        <v>0.03190560961415845</v>
       </c>
       <c r="K203" t="n">
         <v>0.1102070950593921</v>
       </c>
       <c r="L203" t="n">
-        <v>0.0640652560642623</v>
+        <v>0.0644088205738087</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1098199477626315</v>
+        <v>0.1098451784905271</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1018351032697847</v>
+        <v>0.1015980491639255</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1096899318415029</v>
+        <v>0.1097095786676386</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03241424994247066</v>
+        <v>0.04970871696658428</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1110056971975037</v>
+        <v>0.05565750150400827</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03241424994247066</v>
+        <v>0.03228324895030163</v>
       </c>
       <c r="K204" t="n">
         <v>0.1110056971975037</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06394471393829498</v>
+        <v>0.06486413437789418</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1106157444855491</v>
+        <v>0.1106411580448063</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09709768386050532</v>
+        <v>0.09571630303440049</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1104847864200645</v>
+        <v>0.1105045756145055</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03175098764310531</v>
+        <v>0.04901473993194584</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1118042993356152</v>
+        <v>0.05565557462448219</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03175098764310531</v>
+        <v>0.03118011507487969</v>
       </c>
       <c r="K205" t="n">
         <v>0.1118042993356152</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06670789457005799</v>
+        <v>0.06446593006781434</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1114115412084667</v>
+        <v>0.1114371375990854</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1025628013902634</v>
+        <v>0.1020045101528916</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1112796409986261</v>
+        <v>0.1112995725613725</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03169336019796756</v>
+        <v>0.04831902838042135</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1126029014737267</v>
+        <v>0.05565278663014046</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03169336019796756</v>
+        <v>0.03119844798704341</v>
       </c>
       <c r="K206" t="n">
         <v>0.1126029014737267</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06618403683167584</v>
+        <v>0.06398652509859248</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1122073379313843</v>
+        <v>0.1122331171533646</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09515389999558949</v>
+        <v>0.09786476263158739</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1120744955771877</v>
+        <v>0.1120945695082394</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03149374608553754</v>
+        <v>0.04762158231201082</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1134015036118383</v>
+        <v>0.05564913752098304</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03149374608553754</v>
+        <v>0.03124048938071815</v>
       </c>
       <c r="K207" t="n">
         <v>0.1134015036118383</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06325448354589017</v>
+        <v>0.06539684272476057</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1130031346543019</v>
+        <v>0.1130290967076438</v>
       </c>
       <c r="N207" t="n">
-        <v>0.0985184072670941</v>
+        <v>0.09831089989385866</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1128693501557493</v>
+        <v>0.1128895664551064</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03194737785350357</v>
+        <v>0.04692240172671427</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1142001057499498</v>
+        <v>0.05564462729700997</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03194737785350357</v>
+        <v>0.03127184693287584</v>
       </c>
       <c r="K208" t="n">
         <v>0.1142001057499498</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06491378150595259</v>
+        <v>0.06378996044632024</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1137989313772196</v>
+        <v>0.113825076261923</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1007033410042746</v>
+        <v>0.09583884299658635</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1136642047343109</v>
+        <v>0.1136845634019733</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03148082034377821</v>
+        <v>0.04622148662453168</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1149987078880614</v>
+        <v>0.05563925595822126</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03148082034377821</v>
+        <v>0.03123792544413929</v>
       </c>
       <c r="K209" t="n">
         <v>0.1149987078880614</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06554127669033716</v>
+        <v>0.06525453959687344</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1145947281001372</v>
+        <v>0.1146210558162022</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1011947811905386</v>
+        <v>0.09629072174637798</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1144590593128725</v>
+        <v>0.1144795603488403</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03207037398454982</v>
+        <v>0.04551883700546307</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1157973100261729</v>
+        <v>0.05563302350461686</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03207037398454982</v>
+        <v>0.03097800080639586</v>
       </c>
       <c r="K210" t="n">
         <v>0.1157973100261729</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06334226989873692</v>
+        <v>0.06382225066016989</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1153905248230548</v>
+        <v>0.1154170353704814</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1001683153027114</v>
+        <v>0.1003275198839465</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1152539138914342</v>
+        <v>0.1152745572957072</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03179616721557488</v>
+        <v>0.04481445286950839</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1165959121642844</v>
+        <v>0.05562592993619678</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03179616721557488</v>
+        <v>0.0320057234703495</v>
       </c>
       <c r="K211" t="n">
         <v>0.1165959121642844</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06667407772719891</v>
+        <v>0.06309510522560738</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1161863215459724</v>
+        <v>0.1162130149247605</v>
       </c>
       <c r="N211" t="n">
-        <v>0.09436293730334244</v>
+        <v>0.09802897496420293</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1160487684699958</v>
+        <v>0.1160695542425741</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03102147406391437</v>
+        <v>0.04410833421666772</v>
       </c>
       <c r="G212" t="n">
-        <v>0.117394514302396</v>
+        <v>0.05561797525296108</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03102147406391437</v>
+        <v>0.03077263161998957</v>
       </c>
       <c r="K212" t="n">
         <v>0.117394514302396</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06555247118904695</v>
+        <v>0.06503120842527829</v>
       </c>
       <c r="M212" t="n">
-        <v>0.11698211826889</v>
+        <v>0.1170089944790397</v>
       </c>
       <c r="N212" t="n">
-        <v>0.09705055796402695</v>
+        <v>0.09931890380086444</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1168436230485574</v>
+        <v>0.1168645511894411</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03192126243949486</v>
+        <v>0.04340048104694101</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1181931164405075</v>
+        <v>0.05560915945490971</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03192126243949486</v>
+        <v>0.03146572433609193</v>
       </c>
       <c r="K213" t="n">
         <v>0.1181931164405075</v>
       </c>
       <c r="L213" t="n">
-        <v>0.0644308849859708</v>
+        <v>0.06586967830656001</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1177779149918077</v>
+        <v>0.1178049740333189</v>
       </c>
       <c r="N213" t="n">
-        <v>0.09563572134629689</v>
+        <v>0.09515042874776447</v>
       </c>
       <c r="O213" t="n">
-        <v>0.117638477627119</v>
+        <v>0.117659548136308</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03176782364908083</v>
+        <v>0.04269089336032825</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1189917185786191</v>
+        <v>0.05559948254204265</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03176782364908083</v>
+        <v>0.0310256466863333</v>
       </c>
       <c r="K214" t="n">
         <v>0.1189917185786191</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06427604491470765</v>
+        <v>0.06345540250459525</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1185737117147253</v>
+        <v>0.1186009535875981</v>
       </c>
       <c r="N214" t="n">
-        <v>0.09556132477721635</v>
+        <v>0.09434604590115048</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1184333322056806</v>
+        <v>0.118454545083175</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03179404014568925</v>
+        <v>0.04197957115682949</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1197903207167306</v>
+        <v>0.05558894451435997</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03179404014568925</v>
+        <v>0.03099545807192966</v>
       </c>
       <c r="K215" t="n">
         <v>0.1197903207167306</v>
       </c>
       <c r="L215" t="n">
-        <v>0.064100491013481</v>
+        <v>0.06226523658977098</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1193695084376429</v>
+        <v>0.1193969331418773</v>
       </c>
       <c r="N215" t="n">
-        <v>0.0952439329810712</v>
+        <v>0.0946759964359864</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1192281867842422</v>
+        <v>0.1192495420300419</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03016663861346344</v>
+        <v>0.04126651443644466</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1205889228548421</v>
+        <v>0.05557754537186161</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03016663861346344</v>
+        <v>0.03177645348102161</v>
       </c>
       <c r="K216" t="n">
         <v>0.1205889228548421</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06150387181535535</v>
+        <v>0.06509745246744533</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1201653051605605</v>
+        <v>0.1201929126961565</v>
       </c>
       <c r="N216" t="n">
-        <v>0.09450070790407533</v>
+        <v>0.09897847973159174</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1200230413628039</v>
+        <v>0.1200445389769089</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03046653392817222</v>
+        <v>0.04055172319917383</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1213875249929536</v>
+        <v>0.05556528511454759</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03046653392817222</v>
+        <v>0.03124511437426664</v>
       </c>
       <c r="K217" t="n">
         <v>0.1213875249929536</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06185095980075808</v>
+        <v>0.06574253411180739</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1209611018834781</v>
+        <v>0.1209888922504356</v>
       </c>
       <c r="N217" t="n">
-        <v>0.09718365547863383</v>
+        <v>0.09732815883714241</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1208178959413655</v>
+        <v>0.1208395359237758</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03059582110037834</v>
+        <v>0.03983519744501694</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1221861271310652</v>
+        <v>0.05555216374241791</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03059582110037834</v>
+        <v>0.03089036014911671</v>
       </c>
       <c r="K218" t="n">
         <v>0.1221861271310652</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06251929077261117</v>
+        <v>0.06309797461362937</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1217568986063958</v>
+        <v>0.1217848718047148</v>
       </c>
       <c r="N218" t="n">
-        <v>0.09870940643679782</v>
+        <v>0.09537395800018145</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1216127505199271</v>
+        <v>0.1216345328706428</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03082216548934794</v>
+        <v>0.03911693717397403</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1229847292691767</v>
+        <v>0.05553818125547255</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03082216548934794</v>
+        <v>0.030800664492609</v>
       </c>
       <c r="K219" t="n">
         <v>0.1229847292691767</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06444885997276809</v>
+        <v>0.06310199750750228</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1225526953293134</v>
+        <v>0.122580851358994</v>
       </c>
       <c r="N219" t="n">
-        <v>0.09282460026504591</v>
+        <v>0.09692212788434135</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1224076050984887</v>
+        <v>0.1224295298175097</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03015262552255417</v>
+        <v>0.0383969423860451</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1237833314072883</v>
+        <v>0.05552333765371154</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03015262552255417</v>
+        <v>0.03065970187131931</v>
       </c>
       <c r="K220" t="n">
         <v>0.1237833314072883</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06321123526988698</v>
+        <v>0.06366966484038811</v>
       </c>
       <c r="M220" t="n">
-        <v>0.123348492052231</v>
+        <v>0.1233768309132732</v>
       </c>
       <c r="N220" t="n">
-        <v>0.0969693283590452</v>
+        <v>0.09477116802329161</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1232024596770503</v>
+        <v>0.1232245267643767</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03010188487731609</v>
+        <v>0.03767521308123013</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1245819335453998</v>
+        <v>0.05550763293713488</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03010188487731609</v>
+        <v>0.03155784158517401</v>
       </c>
       <c r="K221" t="n">
         <v>0.1245819335453998</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06413424556275385</v>
+        <v>0.06484731185475598</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1241442887751486</v>
+        <v>0.1241728104675524</v>
       </c>
       <c r="N221" t="n">
-        <v>0.09476672913909134</v>
+        <v>0.09871811929086127</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1239973142556119</v>
+        <v>0.1240195237112436</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03017485748931688</v>
+        <v>0.03695174925952911</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1253805356835113</v>
+        <v>0.05549106710574254</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03017485748931688</v>
+        <v>0.03008801889720582</v>
       </c>
       <c r="K222" t="n">
         <v>0.1253805356835113</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06307835668859257</v>
+        <v>0.06197479102189876</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1249400854980662</v>
+        <v>0.1249687900218315</v>
       </c>
       <c r="N222" t="n">
-        <v>0.09437938544335328</v>
+        <v>0.09531559614708041</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1247921688341735</v>
+        <v>0.1248145206581106</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03108666704996429</v>
+        <v>0.03622655092094208</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1261791378216229</v>
+        <v>0.05547364015953455</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03108666704996429</v>
+        <v>0.03123205807883482</v>
       </c>
       <c r="K223" t="n">
         <v>0.1261791378216229</v>
       </c>
       <c r="L223" t="n">
-        <v>0.0620497187638232</v>
+        <v>0.06407956100919632</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1257358822209839</v>
+        <v>0.1257647695761107</v>
       </c>
       <c r="N223" t="n">
-        <v>0.09616465908814548</v>
+        <v>0.09788869713675774</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1255870234127351</v>
+        <v>0.1256095176049775</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03129100969153893</v>
+        <v>0.03549961806546902</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1269777399597344</v>
+        <v>0.05545535209851091</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03129100969153893</v>
+        <v>0.02991076378650197</v>
       </c>
       <c r="K224" t="n">
         <v>0.1269777399597344</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06192717943956561</v>
+        <v>0.06395468264333584</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1265316789439015</v>
+        <v>0.1265607491303899</v>
       </c>
       <c r="N224" t="n">
-        <v>0.09517699466209817</v>
+        <v>0.09473301011645779</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1263818779912968</v>
+        <v>0.1264045145518444</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03054667733136035</v>
+        <v>0.03477095069310991</v>
       </c>
       <c r="G225" t="n">
-        <v>0.127776342097846</v>
+        <v>0.05543620292267158</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03054667733136035</v>
+        <v>0.03037729216973821</v>
       </c>
       <c r="K225" t="n">
         <v>0.127776342097846</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06422068032016739</v>
+        <v>0.06144361649356939</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1273274756668191</v>
+        <v>0.1273567286846691</v>
       </c>
       <c r="N225" t="n">
-        <v>0.09752497604760313</v>
+        <v>0.09474181632557838</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1271767325698584</v>
+        <v>0.1271995114987114</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03110771645297741</v>
+        <v>0.03404054880386478</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1285749442359575</v>
+        <v>0.0554161926320166</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03110771645297741</v>
+        <v>0.03092383709147925</v>
       </c>
       <c r="K226" t="n">
         <v>0.1285749442359575</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06350744165599997</v>
+        <v>0.06164983486485143</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1281232723897367</v>
+        <v>0.1281527082389483</v>
       </c>
       <c r="N226" t="n">
-        <v>0.09721529493704678</v>
+        <v>0.09404475856684097</v>
       </c>
       <c r="O226" t="n">
-        <v>0.12797158714842</v>
+        <v>0.1279945084455783</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02987837141552911</v>
+        <v>0.03330841239773362</v>
       </c>
       <c r="G227" t="n">
-        <v>0.129373546374069</v>
+        <v>0.05539532122654597</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02987837141552911</v>
+        <v>0.03013748880694637</v>
       </c>
       <c r="K227" t="n">
         <v>0.129373546374069</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06165160307630074</v>
+        <v>0.06062202966933605</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1289190691126543</v>
+        <v>0.1289486877932275</v>
       </c>
       <c r="N227" t="n">
-        <v>0.09278210752748328</v>
+        <v>0.09195638155860297</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1287664417269816</v>
+        <v>0.1287895053924453</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03003318591689776</v>
+        <v>0.03257454147471642</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1301721485121806</v>
+        <v>0.05537358870625967</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03003318591689776</v>
+        <v>0.03036197112703724</v>
       </c>
       <c r="K228" t="n">
         <v>0.1301721485121806</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06174111941952035</v>
+        <v>0.06344244885120917</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1297148658355719</v>
+        <v>0.1297446673475066</v>
       </c>
       <c r="N228" t="n">
-        <v>0.09402627046078976</v>
+        <v>0.09256794814103797</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1295612963055432</v>
+        <v>0.1295845023393122</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02949929559642359</v>
+        <v>0.03183893603481319</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1309707506502921</v>
+        <v>0.0553509950711577</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02949929559642359</v>
+        <v>0.03081038169482264</v>
       </c>
       <c r="K229" t="n">
         <v>0.1309707506502921</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06167736068399629</v>
+        <v>0.06129536599910551</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1305106625584896</v>
+        <v>0.1305406469017858</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09190716617603384</v>
+        <v>0.09715967410206788</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1303561508841048</v>
+        <v>0.1303794992861792</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02940719562892191</v>
+        <v>0.03110159607802393</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1317693527884037</v>
+        <v>0.05532754032124008</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02940719562892191</v>
+        <v>0.02943934716188998</v>
       </c>
       <c r="K230" t="n">
         <v>0.1317693527884037</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06136753321883631</v>
+        <v>0.06257169337047658</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1313064592814072</v>
+        <v>0.131336626456065</v>
       </c>
       <c r="N230" t="n">
-        <v>0.09310032381972183</v>
+        <v>0.09286343434682642</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1311510054626664</v>
+        <v>0.1311744962330461</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02945277071779671</v>
+        <v>0.03036252160434863</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1325679549265152</v>
+        <v>0.0553032244565068</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02945277071779671</v>
+        <v>0.03095400436230099</v>
       </c>
       <c r="K231" t="n">
         <v>0.1325679549265152</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06173737082108319</v>
+        <v>0.06257824111381893</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1321022560043248</v>
+        <v>0.1321326060103442</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09403758829886649</v>
+        <v>0.09595136990173769</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1319458600412281</v>
+        <v>0.131969493179913</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02923699331195308</v>
+        <v>0.02962171261378732</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1333665570646267</v>
+        <v>0.05527804747695785</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02923699331195308</v>
+        <v>0.02994334666864415</v>
       </c>
       <c r="K232" t="n">
         <v>0.1333665570646267</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06392842378805816</v>
+        <v>0.0621540642630882</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1328980527272424</v>
+        <v>0.1329285855646234</v>
       </c>
       <c r="N232" t="n">
-        <v>0.09630745862084</v>
+        <v>0.09057194862490864</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1327407146197897</v>
+        <v>0.13276449012678</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02940605555093447</v>
+        <v>0.02887916910633995</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1341651592027382</v>
+        <v>0.05525200938259324</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02940605555093447</v>
+        <v>0.02966273369637736</v>
       </c>
       <c r="K233" t="n">
         <v>0.1341651592027382</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06243703294096314</v>
+        <v>0.06295625732956375</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1336938494501601</v>
+        <v>0.1337245651189025</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09085901878537145</v>
+        <v>0.09336887699798285</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1335355691983513</v>
+        <v>0.133559487073647</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02983249894169665</v>
+        <v>0.02813489108200656</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1349637613408498</v>
+        <v>0.05522511017341297</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02983249894169665</v>
+        <v>0.03022487465186975</v>
       </c>
       <c r="K234" t="n">
         <v>0.1349637613408498</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06268654051139699</v>
+        <v>0.06240543868792037</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1344896461730777</v>
+        <v>0.1345205446731817</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09088019959125132</v>
+        <v>0.0960747187404577</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1343304237769129</v>
+        <v>0.1343544840205139</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02922044294350233</v>
+        <v>0.02738887854078714</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1357623634789613</v>
+        <v>0.05519734984941704</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02922044294350233</v>
+        <v>0.03020956741821022</v>
       </c>
       <c r="K235" t="n">
         <v>0.1357623634789613</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06036134133874782</v>
+        <v>0.06302471770345269</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1352854428959953</v>
+        <v>0.1353165242274609</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09012503853680492</v>
+        <v>0.09009791627278629</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1351252783554745</v>
+        <v>0.1351494809673809</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02968215862857111</v>
+        <v>0.02664113148268168</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1365609656170729</v>
+        <v>0.05516872841060545</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02968215862857111</v>
+        <v>0.03026243580208135</v>
       </c>
       <c r="K236" t="n">
         <v>0.1365609656170729</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06367628784470061</v>
+        <v>0.0609278563746786</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1360812396189129</v>
+        <v>0.1361125037817401</v>
       </c>
       <c r="N236" t="n">
-        <v>0.0938843286911033</v>
+        <v>0.0927285646879899</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1359201329340362</v>
+        <v>0.1359444779142478</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02925126962730284</v>
+        <v>0.0258916499076902</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1373595677551844</v>
+        <v>0.05513924585697819</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02925126962730284</v>
+        <v>0.02984322661189186</v>
       </c>
       <c r="K237" t="n">
         <v>0.1373595677551844</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06117474345540472</v>
+        <v>0.06032816048195147</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1368770363418305</v>
+        <v>0.1369084833360193</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09156378057916698</v>
+        <v>0.09522926226008427</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1367149875125978</v>
+        <v>0.1367394748611147</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03052383495988083</v>
+        <v>0.02514043381581268</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1381581698932959</v>
+        <v>0.05510890218853528</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03052383495988083</v>
+        <v>0.03010001309007353</v>
       </c>
       <c r="K238" t="n">
         <v>0.1381581698932959</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06071054052280858</v>
+        <v>0.06280711683036624</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1376728330647481</v>
+        <v>0.1377044628902984</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09502896859214327</v>
+        <v>0.09584802574160706</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1375098420911594</v>
+        <v>0.1375344718079817</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03005327624743991</v>
+        <v>0.02438748320704914</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1389567720314075</v>
+        <v>0.0550776974052767</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03005327624743991</v>
+        <v>0.0305086018151202</v>
       </c>
       <c r="K239" t="n">
         <v>0.1389567720314075</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06108674694995048</v>
+        <v>0.06102594229192093</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1384686297876658</v>
+        <v>0.1385004424445776</v>
       </c>
       <c r="N239" t="n">
-        <v>0.09123101445094955</v>
+        <v>0.09110641786197998</v>
       </c>
       <c r="O239" t="n">
-        <v>0.138304696669721</v>
+        <v>0.1383294687548486</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02999010875786579</v>
+        <v>0.02363279808139956</v>
       </c>
       <c r="G240" t="n">
-        <v>0.139755374169519</v>
+        <v>0.05504563150720246</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02999010875786579</v>
+        <v>0.02950780306505699</v>
       </c>
       <c r="K240" t="n">
         <v>0.139755374169519</v>
       </c>
       <c r="L240" t="n">
-        <v>0.059438674983362</v>
+        <v>0.0606006269013242</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1392644265105834</v>
+        <v>0.1392964219988568</v>
       </c>
       <c r="N240" t="n">
-        <v>0.09455334734843157</v>
+        <v>0.09573251561965013</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1390995512482826</v>
+        <v>0.1391244657017156</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02891056849491415</v>
+        <v>0.02287637843886395</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1405539763076306</v>
+        <v>0.05501270449431256</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02891056849491415</v>
+        <v>0.02952481814441585</v>
       </c>
       <c r="K241" t="n">
         <v>0.1405539763076306</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05996588864797539</v>
+        <v>0.0598298866770493</v>
       </c>
       <c r="M241" t="n">
-        <v>0.140060223233501</v>
+        <v>0.140092401553136</v>
       </c>
       <c r="N241" t="n">
-        <v>0.0961267083475264</v>
+        <v>0.09314936037001076</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1398944058268442</v>
+        <v>0.1399194626485825</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02964160152692699</v>
+        <v>0.02211822427944229</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1413525784457421</v>
+        <v>0.05497891636660699</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02964160152692699</v>
+        <v>0.02882847394857174</v>
       </c>
       <c r="K242" t="n">
         <v>0.1413525784457421</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05986487814968847</v>
+        <v>0.06157664134248805</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1408560199564186</v>
+        <v>0.1408883811074152</v>
       </c>
       <c r="N242" t="n">
-        <v>0.09222554351874451</v>
+        <v>0.09348604825140988</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1406892604054058</v>
+        <v>0.1407144595954495</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02978729698645627</v>
+        <v>0.02135833560313462</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1421511805838536</v>
+        <v>0.05494426712408577</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02978729698645627</v>
+        <v>0.02975983420706027</v>
       </c>
       <c r="K243" t="n">
         <v>0.1421511805838536</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05994120511892473</v>
+        <v>0.06132856347305479</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1416518166793362</v>
+        <v>0.1416843606616943</v>
       </c>
       <c r="N243" t="n">
-        <v>0.09450401448751733</v>
+        <v>0.091335698294915</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1414841149839675</v>
+        <v>0.1415094565423164</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02874596563552168</v>
+        <v>0.0205967124099409</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1429497827219652</v>
+        <v>0.05490875676674888</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02874596563552168</v>
+        <v>0.02915993879919768</v>
       </c>
       <c r="K244" t="n">
         <v>0.1429497827219652</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06178765440781986</v>
+        <v>0.06008882904421903</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1424476134022539</v>
+        <v>0.1424803402159735</v>
       </c>
       <c r="N244" t="n">
-        <v>0.09095678651912398</v>
+        <v>0.09514640506964195</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1422789695625291</v>
+        <v>0.1423044534891834</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.0292495042741128</v>
+        <v>0.01983335469986117</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1437483848600767</v>
+        <v>0.05487238529459634</v>
       </c>
       <c r="J245" t="n">
-        <v>0.0292495042741128</v>
+        <v>0.03011324524165991</v>
       </c>
       <c r="K245" t="n">
         <v>0.1437483848600767</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06206612462211669</v>
+        <v>0.06166114712491885</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1432434101251715</v>
+        <v>0.1432763197702527</v>
       </c>
       <c r="N245" t="n">
-        <v>0.09050085067709462</v>
+        <v>0.09182830819948978</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1430738241410907</v>
+        <v>0.1430994504360503</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0299829880147176</v>
+        <v>0.0190682624728954</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1445469869981882</v>
+        <v>0.05483515270762813</v>
       </c>
       <c r="J246" t="n">
-        <v>0.0299829880147176</v>
+        <v>0.02996708749093825</v>
       </c>
       <c r="K246" t="n">
         <v>0.1445469869981882</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06055330142922538</v>
+        <v>0.05859857319948611</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1440392068480891</v>
+        <v>0.1440722993245319</v>
       </c>
       <c r="N246" t="n">
-        <v>0.08801583156054543</v>
+        <v>0.09535104247665743</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1438686787196523</v>
+        <v>0.1438944473829173</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02956216383320869</v>
+        <v>0.01830143572904359</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1453455891362998</v>
+        <v>0.05479705900584425</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02956216383320869</v>
+        <v>0.02983695169675131</v>
       </c>
       <c r="K247" t="n">
         <v>0.1453455891362998</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05856207260985058</v>
+        <v>0.05926318192725846</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1448350035710067</v>
+        <v>0.1448682788788111</v>
       </c>
       <c r="N247" t="n">
-        <v>0.0914155150952416</v>
+        <v>0.09219164024478588</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1446635332982139</v>
+        <v>0.1446894443297842</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02937970239591908</v>
+        <v>0.01753287446830575</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1461441912744113</v>
+        <v>0.05475810418924473</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02937970239591908</v>
+        <v>0.02850011465087987</v>
       </c>
       <c r="K248" t="n">
         <v>0.1461441912744113</v>
       </c>
       <c r="L248" t="n">
-        <v>0.0595905729521623</v>
+        <v>0.05990157078009961</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1456308002939243</v>
+        <v>0.1456642584330903</v>
       </c>
       <c r="N248" t="n">
-        <v>0.09348658171503693</v>
+        <v>0.08936147278534118</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1454583878767755</v>
+        <v>0.1454844412766512</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02938509365130515</v>
+        <v>0.01676257869068189</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1469427934125228</v>
+        <v>0.05471828825782955</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02938509365130515</v>
+        <v>0.02984842382192229</v>
       </c>
       <c r="K249" t="n">
         <v>0.1469427934125228</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06176529616126733</v>
+        <v>0.06008702313178246</v>
       </c>
       <c r="M249" t="n">
-        <v>0.146426597016842</v>
+        <v>0.1464602379873694</v>
       </c>
       <c r="N249" t="n">
-        <v>0.09332478368371211</v>
+        <v>0.09241707481199124</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1462532424553371</v>
+        <v>0.1462794382235181</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02835172897356596</v>
+        <v>0.01599054839617198</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1477413955506344</v>
+        <v>0.05467761121159868</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02835172897356596</v>
+        <v>0.02861516026778101</v>
       </c>
       <c r="K250" t="n">
         <v>0.1477413955506344</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05886245103289994</v>
+        <v>0.06141903130382986</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1472223937397596</v>
+        <v>0.1472562175416486</v>
       </c>
       <c r="N250" t="n">
-        <v>0.09054858004873151</v>
+        <v>0.08779775667041978</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1470480970338988</v>
+        <v>0.147074435170385</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02969075565137647</v>
+        <v>0.01521678358477605</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1485399976887459</v>
+        <v>0.05463607305055216</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02969075565137647</v>
+        <v>0.02849429049712049</v>
       </c>
       <c r="K251" t="n">
         <v>0.1485399976887459</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05922698957752687</v>
+        <v>0.05839748532509456</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1480181904626772</v>
+        <v>0.1480521970959278</v>
       </c>
       <c r="N251" t="n">
-        <v>0.0894015525681589</v>
+        <v>0.0911306187085747</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1478429516124604</v>
+        <v>0.147869432117252</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02929498662095976</v>
+        <v>0.01444128425649407</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1493385998268575</v>
+        <v>0.05459367377468998</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02929498662095976</v>
+        <v>0.02889817416347422</v>
       </c>
       <c r="K252" t="n">
         <v>0.1493385998268575</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05990128982438567</v>
+        <v>0.05937180420574292</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1488139871855948</v>
+        <v>0.148848176650207</v>
       </c>
       <c r="N252" t="n">
-        <v>0.08919208702582243</v>
+        <v>0.09216735212695087</v>
       </c>
       <c r="O252" t="n">
-        <v>0.148637806191022</v>
+        <v>0.1486644290641189</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02888520657448729</v>
+        <v>0.01366405041132608</v>
       </c>
       <c r="G253" t="n">
-        <v>0.150137201964969</v>
+        <v>0.05455041338401214</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02888520657448729</v>
+        <v>0.02981103355504852</v>
       </c>
       <c r="K253" t="n">
         <v>0.150137201964969</v>
       </c>
       <c r="L253" t="n">
-        <v>0.0595055199338676</v>
+        <v>0.05807743943252974</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1496097839085124</v>
+        <v>0.1496441562044862</v>
       </c>
       <c r="N253" t="n">
-        <v>0.0903113789238536</v>
+        <v>0.08716329024104391</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1494326607695836</v>
+        <v>0.1494594260109859</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02846162401687088</v>
+        <v>0.01288508204927205</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1509358041030805</v>
+        <v>0.05450629187851865</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02846162401687088</v>
+        <v>0.02907002796633454</v>
       </c>
       <c r="K254" t="n">
         <v>0.1509358041030805</v>
       </c>
       <c r="L254" t="n">
-        <v>0.0584950448197403</v>
+        <v>0.06045163455991942</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1504055806314301</v>
+        <v>0.1504401357587654</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08818505481889444</v>
+        <v>0.09002571657463471</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1502275153481452</v>
+        <v>0.1502544229578528</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02798266859626547</v>
+        <v>0.012104379170332</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1517344062411921</v>
+        <v>0.05446130925820949</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02798266859626547</v>
+        <v>0.02946561499282779</v>
       </c>
       <c r="K255" t="n">
         <v>0.1517344062411921</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05715858490809808</v>
+        <v>0.05865356006891775</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1512013773543477</v>
+        <v>0.1512361153130445</v>
       </c>
       <c r="N255" t="n">
-        <v>0.08990129854462581</v>
+        <v>0.09327834968560489</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1510223699267068</v>
+        <v>0.1510494199047198</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02833354661049697</v>
+        <v>0.01132194177450591</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1525330083793036</v>
+        <v>0.05441546552308466</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02833354661049697</v>
+        <v>0.02830195731858832</v>
       </c>
       <c r="K256" t="n">
         <v>0.1525330083793036</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05808630757375252</v>
+        <v>0.05967406232020617</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1519971740772653</v>
+        <v>0.1520320948673237</v>
       </c>
       <c r="N256" t="n">
-        <v>0.0918203070393907</v>
+        <v>0.08978621718560986</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1518172245052684</v>
+        <v>0.1518444168515867</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02943668530280284</v>
+        <v>0.01053776986179377</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1533316105174151</v>
+        <v>0.05436876067314417</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02943668530280284</v>
+        <v>0.02941041154165532</v>
       </c>
       <c r="K257" t="n">
         <v>0.1533316105174151</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05887647025761689</v>
+        <v>0.05795430648380964</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1527929708001829</v>
+        <v>0.1528280744216029</v>
       </c>
       <c r="N257" t="n">
-        <v>0.09290825477890868</v>
+        <v>0.0880162086245489</v>
       </c>
       <c r="O257" t="n">
-        <v>0.15261207908383</v>
+        <v>0.1526394137984537</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02909501523768819</v>
+        <v>0.009751863432195612</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1541302126555267</v>
+        <v>0.05432119470838801</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02909501523768819</v>
+        <v>0.02808043075921157</v>
       </c>
       <c r="K258" t="n">
         <v>0.1541302126555267</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05977847724178614</v>
+        <v>0.0585091852428255</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1535887675231005</v>
+        <v>0.1536240539758821</v>
       </c>
       <c r="N258" t="n">
-        <v>0.09148686870688816</v>
+        <v>0.09118089838718196</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1534069336623917</v>
+        <v>0.1534344107453206</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02855424048889399</v>
+        <v>0.008964222485711416</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1549288147936382</v>
+        <v>0.05427276762881621</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02855424048889399</v>
+        <v>0.02810498191124518</v>
       </c>
       <c r="K259" t="n">
         <v>0.1549288147936382</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05811249103741353</v>
+        <v>0.05899212782836333</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1543845642460182</v>
+        <v>0.1544200335301613</v>
       </c>
       <c r="N259" t="n">
-        <v>0.09248513925238377</v>
+        <v>0.09120328608650152</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1542017882409533</v>
+        <v>0.1542294076921876</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02898307629875077</v>
+        <v>0.008174847022341204</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1557274169317498</v>
+        <v>0.05422347943442873</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02898307629875077</v>
+        <v>0.02940362003060842</v>
       </c>
       <c r="K260" t="n">
         <v>0.1557274169317498</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05680208808894452</v>
+        <v>0.05856032300500519</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1551803609689358</v>
+        <v>0.1552160130844404</v>
       </c>
       <c r="N260" t="n">
-        <v>0.09179121011827812</v>
+        <v>0.08791716554548834</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1549966428195149</v>
+        <v>0.1550244046390545</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02855666714437322</v>
+        <v>0.007383737042084955</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1565260190698613</v>
+        <v>0.05417333012522561</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02855666714437322</v>
+        <v>0.02860300916384741</v>
       </c>
       <c r="K261" t="n">
         <v>0.1565260190698613</v>
       </c>
       <c r="L261" t="n">
-        <v>0.0601723392314393</v>
+        <v>0.05808044936956172</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1559761576918534</v>
+        <v>0.1560119926387196</v>
       </c>
       <c r="N261" t="n">
-        <v>0.08653267827679817</v>
+        <v>0.08611563177771892</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1557914973980765</v>
+        <v>0.1558194015859214</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02837059180758934</v>
+        <v>0.006590892544942661</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1573246212079729</v>
+        <v>0.05412231970120682</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02837059180758934</v>
+        <v>0.02829527226821671</v>
       </c>
       <c r="K262" t="n">
         <v>0.1573246212079729</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06060980149722409</v>
+        <v>0.06055166848844079</v>
       </c>
       <c r="M262" t="n">
-        <v>0.156771954414771</v>
+        <v>0.1568079721929988</v>
       </c>
       <c r="N262" t="n">
-        <v>0.08870754783094986</v>
+        <v>0.08751557801642973</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1565863519766381</v>
+        <v>0.1566143985327884</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0292089573630445</v>
+        <v>0.005796313530914345</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1581232233460844</v>
+        <v>0.05407044816237237</v>
       </c>
       <c r="J263" t="n">
-        <v>0.0292089573630445</v>
+        <v>0.02757256169495027</v>
       </c>
       <c r="K263" t="n">
         <v>0.1581232233460844</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05970054147417794</v>
+        <v>0.05621656549861592</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1575677511376886</v>
+        <v>0.157603951747278</v>
       </c>
       <c r="N263" t="n">
-        <v>0.09195126432781547</v>
+        <v>0.09157980547187489</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1573812065551997</v>
+        <v>0.1574093954796554</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02847043378977786</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1589218254841959</v>
+        <v>0.05401771550872224</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02847043378977786</v>
+        <v>0.02803622273548338</v>
       </c>
       <c r="K264" t="n">
         <v>0.1589218254841959</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05776152627051762</v>
+        <v>0.05927878749847412</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1583635478606062</v>
+        <v>0.1583999313015572</v>
       </c>
       <c r="N264" t="n">
-        <v>0.09022011515193551</v>
+        <v>0.08714394965745814</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1581760611337614</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1582043924265223</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05401771550872224</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005636380870981693</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05398605891043753</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006274394228444349</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05395526342696847</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006914040072387988</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05392532905831508</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007555318402812587</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05389625580447734</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008198229219718162</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05386804366545526</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008842772523104718</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05384069264124886</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009488948312972229</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05381420273185811</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01013675658932073</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05378857393728303</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01078619735215017</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.0537638062575236</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01143727060146061</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05373989969257984</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01208997633725201</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05371685424245174</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01274431455952438</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05369466990713929</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01340028526827775</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05367334668664253</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01405788846351205</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.0536528845809614</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01471712414522735</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05363328359009596</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.0153779923134236</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05361454371404615</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01604049296810083</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05359666495281203</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01670462610925903</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05357964730639355</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01737039173689821</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05356349077479074</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01803778985101837</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.0535481953580036</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01870682045161947</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05353376105603211</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01937748353870157</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05352018786887629</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02004977911226462</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05350747579653612</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02072370717230865</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05349562483901162</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02139926771883366</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05348463499630277</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02207646075183964</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05347450626840961</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02275528627132657</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05346523865533209</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.0234357442772945</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05345683215707024</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02411783476974337</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05344928677362404</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02480155774867324</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05344260250499351</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02548691321408406</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05343677935117864</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02617390116597586</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05343181731217943</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02686252160434864</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05342771638799589</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02755277452920239</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05342447657862801</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.0282446599405371</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05342209788407578</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02893817783835279</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05342058030433922</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02963332822264945</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05341992383941832</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03033011109342706</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05342012848931308</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03102852645068566</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05342119425402349</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03172857429442524</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05342312113354958</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0324302546246458</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05342590912789134</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03313356744134729</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05342955823704874</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03383851274452979</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05343406846102181</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03454509053419325</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05343943979981054</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03525330081033767</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05344567225341492</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03596314357296307</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05345276582183497</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03667461882206945</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.0534607205050707</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03738772655765678</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05346953630312207</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03810246677972509</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05347921321598911</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.0388188394882744</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05348975124367181</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03953684468330465</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05350115038617017</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.04025648236481588</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.0535134106434842</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.04097775253280807</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05352653201561388</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.04170065518728125</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05354051450255923</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04242519032823538</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05355535810432024</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.0431513579556705</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05357106282089691</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04387915806958657</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05358762865228923</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04460859066998364</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05360505559849723</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04533965575686168</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05362334365952089</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.04607235333022067</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.0536424928353602</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04680668339006064</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05366250312601517</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04754264593638158</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05368337453148582</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.0482802409691835</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05370510705177211</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04901946848846638</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05372770068687407</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04976032849423022</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05375115543679171</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.05050282098647506</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05377547130152499</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.05124694596520085</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05380064828107393</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.05199270343040761</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05382668637543855</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.05274009338209537</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05385358558461881</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.05348911582026408</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05388134590861474</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.05423977074491376</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05390996734742633</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.0549920581560444</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05393944990105359</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.05574597805365604</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05396979356949651</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.05650153043774864</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05400099835275509</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.05725871530832222</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05403306425082932</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.05801753266537675</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05406599126371922</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.05877798250891225</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.0540997793914248</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.05954006483892874</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05413442863394601</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.06030377965542617</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05416993899128288</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.06106912695840462</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05420631046343545</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.06183610674786402</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05424354305040366</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.06260471902380439</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05428163675218753</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.06337496378622572</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05432059156878706</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.06414684103512804</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05436040750020226</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.06492035077051132</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.0544010845464331</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.06569549299237556</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05444262270747963</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.06647226770072079</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05448502198334179</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.06725067489554698</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05452828237401963</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.06803071457685417</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05457240387951314</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.0688123867446423</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.0546173864998223</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.06959569139891141</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05466323023494713</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.0703806285396615</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05470993508488762</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.07116719816689253</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05475750104964375</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.07195540028060456</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05480592812921557</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.07274523488079757</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05485521632360305</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.07353670196747153</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05490536563280618</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.07432980154062646</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05495637605682496</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.07512453360026237</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05500824759565942</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.07592089814637924</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05506098024930954</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.07542089814637924</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05506098024930954</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.07648732957249701</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.0566486067353992</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.07753644552098815</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05823623322148885</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.07856763130599327</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.0598238597075785</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.07958027224165304</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06141148619366815</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.08057375364210809</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06299911267975782</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.08154746082149907</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06458673916584748</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.08250077909396661</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06617436565193713</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.08343309377365135</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06776199213802678</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.08434379017469396</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06934961862411644</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.08523225361123501</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07093724511020609</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.08609786939741529</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07252487159629574</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.08694002284737526</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.0741124980823854</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.08775809927525571</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07570012456847505</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.08855148399519722</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.0772877510545647</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.08931956232134045</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07887537754065437</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.09006171956782602</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08046300402674401</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.09077734104879459</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08205063051283368</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.09146581207838683</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08363825699892331</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.09212651797074331</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08522588348501299</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.09275884404000476</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08681350997110264</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.09336217560031176</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08840113645719229</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.09393589796580495</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08998876294328195</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.09447939645062506</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.0915763894293716</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.09499205636891259</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09316401591546125</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.09547326303480833</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09475164240155091</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.09592240176245281</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09633926888764058</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.09633887095838758</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09792689537373021</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.09674188402562875</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09951452185981988</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.09714689936393747</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1011021483459095</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.09755062740677839</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1026897748319992</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.09794977858761619</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1042774013180888</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.09834106333991552</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1058650278041785</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.09872119209714106</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1074526542902681</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.09908687529275748</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1090402807763578</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.09943482336022938</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1106279072624475</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.09976174673302152</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1122155337485371</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.1000643558445985</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1138031602346267</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.100339361128425</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1153907867207164</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.1005834730179657</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1169784132068061</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.1007934019466852</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1185660396928957</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.1009658583480482</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1201536661789854</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.1010975526555194</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1217412926650751</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.1012278641951723</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1233289191511647</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.1012254967226449</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1249165456372543</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.1012138066236272</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.126504172123344</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.1011461386352494</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1280917986094337</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.1010257168892432</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1296794250955233</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.1008561304856404</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1312670515816129</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.1006409685244728</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1328546780677027</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.1003838201057721</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1344423045537923</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.1000882743295701</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1360299310398819</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.0997579202958985</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1376175575259716</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.09939634710478915</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1392051840120613</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.09900714385627377</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1407928104981509</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.09859389965038412</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1423804369842405</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.09816020358715197</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1439680634703302</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.09770964476660909</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1455556899564199</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.09724581228878723</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1471433164425095</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.09677229525371814</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1487309429285992</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.09629268276143363</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.09581056391196541</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1519061959007785</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.09532952780534529</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1534938223868681</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.094853163541605</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1550814488729578</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.09438506022077628</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1566690753590475</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.09392880694289096</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1582567018451371</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.09348799280798076</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1598443283312267</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.09306620691607742</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1614319548173164</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.09266703836721277</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1630195813034061</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.09229407626141853</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1646072077894957</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.09194901516079496</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1661948342755854</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.09161162492889799</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1677824607616751</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.09127552841728176</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1693700872477647</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.09094074309450398</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1709577137338543</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.09060728642912236</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.172545340219944</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.09027517588969453</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1741329667060337</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.08994442894477819</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1757205931921233</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.08961506306293107</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1773082196782129</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.08928709571271079</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1788958461643027</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.08896054436267511</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1804834726503923</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.08863542648138165</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1820710991364819</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.0883117595373881</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1836587256225716</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.08798956099925218</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1852463521086612</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.08766884833553157</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1868339785947509</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.08734963901478393</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1884216050808405</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.08703195050556695</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1900092315669302</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.08671580027643833</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1915968580530199</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.08640120579595578</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1931844845391095</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.08608818453267691</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1947721110251991</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.08577675395515946</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1963597375112889</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.08546693153196114</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1979473639973785</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.08515873473163957</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1995349904834681</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.08485218102275247</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2011226169695578</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.08454728787385751</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2027102434556474</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.08424407275351239</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2042978699417371</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.08394255313027482</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2058854964278267</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.08364274647270242</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2074731229139164</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.08334467024935294</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2090607494000061</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.08304834192878402</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2106483758860957</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.08275377897955336</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2122360023721853</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
